--- a/output/main results/summary_table.xlsx
+++ b/output/main results/summary_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Upshift Calcs" sheetId="1" state="visible" r:id="rId1"/>
@@ -1922,7 +1922,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>9.31</v>
+        <v>8.08</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1953,7 +1953,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -2007,7 +2007,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="11">
@@ -2018,7 +2018,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.6556</v>
+        <v>0.7299</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -2038,7 +2038,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="12" t="n">
-        <v>9720</v>
+        <v>8731</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="12" t="n">
-        <v>583</v>
+        <v>506</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>47</v>
@@ -2075,7 +2075,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="13" t="n">
-        <v>13590</v>
+        <v>12524</v>
       </c>
     </row>
     <row r="15">
@@ -2110,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1.667</v>
+        <v>1.536</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -2239,7 +2239,7 @@
         <v>259</v>
       </c>
       <c r="C3" s="18" t="n">
-        <v>40.17</v>
+        <v>37.02</v>
       </c>
       <c r="D3" t="n">
         <v>136</v>
@@ -2263,22 +2263,22 @@
         <v>26982</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>1084</v>
+        <v>999</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>56.367</v>
+        <v>51.947</v>
       </c>
       <c r="M3" t="n">
         <v>495</v>
       </c>
       <c r="N3" t="n">
-        <v>8.12</v>
+        <v>7.48</v>
       </c>
       <c r="O3" t="n">
         <v>6</v>
       </c>
       <c r="P3" s="15" t="n">
-        <v>52.8408439298275</v>
+        <v>48.7079957277659</v>
       </c>
     </row>
     <row r="4">
@@ -2289,7 +2289,7 @@
         <v>260</v>
       </c>
       <c r="C4" s="18" t="n">
-        <v>44.19</v>
+        <v>40.72</v>
       </c>
       <c r="D4" t="n">
         <v>61</v>
@@ -2313,22 +2313,22 @@
         <v>33648</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>1487</v>
+        <v>1370</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>77.318</v>
+        <v>71.256</v>
       </c>
       <c r="M4" t="n">
         <v>633</v>
       </c>
       <c r="N4" t="n">
-        <v>6.98</v>
+        <v>6.43</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>72.4812101223482</v>
+        <v>66.8130391279129</v>
       </c>
     </row>
     <row r="5">
@@ -2339,7 +2339,7 @@
         <v>261</v>
       </c>
       <c r="C5" s="18" t="n">
-        <v>31.4</v>
+        <v>28.94</v>
       </c>
       <c r="D5" t="n">
         <v>23</v>
@@ -2363,22 +2363,22 @@
         <v>35804</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>1124</v>
+        <v>1036</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>58.462</v>
+        <v>53.878</v>
       </c>
       <c r="M5" t="n">
         <v>506</v>
       </c>
       <c r="N5" t="n">
-        <v>6.21</v>
+        <v>5.72</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="15" t="n">
-        <v>54.8047868047896</v>
+        <v>50.5185938325711</v>
       </c>
     </row>
     <row r="6">
@@ -2389,7 +2389,7 @@
         <v>262</v>
       </c>
       <c r="C6" s="18" t="n">
-        <v>32.6</v>
+        <v>30.05</v>
       </c>
       <c r="D6" t="n">
         <v>21</v>
@@ -2413,22 +2413,22 @@
         <v>20484</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>668</v>
+        <v>615</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>34.728</v>
+        <v>32.004</v>
       </c>
       <c r="M6" t="n">
         <v>574</v>
       </c>
       <c r="N6" t="n">
-        <v>5.68</v>
+        <v>5.23</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="15" t="n">
-        <v>32.5555170222834</v>
+        <v>30.0084835557669</v>
       </c>
     </row>
     <row r="7">
@@ -2439,7 +2439,7 @@
         <v>263</v>
       </c>
       <c r="C7" s="18" t="n">
-        <v>32.58</v>
+        <v>30.02</v>
       </c>
       <c r="D7" t="n">
         <v>11</v>
@@ -2463,22 +2463,22 @@
         <v>14262</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>24.161</v>
+        <v>22.267</v>
       </c>
       <c r="M7" t="n">
         <v>574</v>
       </c>
       <c r="N7" t="n">
-        <v>5.68</v>
+        <v>5.23</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="15" t="n">
-        <v>22.6495579006965</v>
+        <v>20.8786059035202</v>
       </c>
     </row>
     <row r="8">
@@ -2489,7 +2489,7 @@
         <v>264</v>
       </c>
       <c r="C8" s="18" t="n">
-        <v>42.17</v>
+        <v>38.87</v>
       </c>
       <c r="D8" t="n">
         <v>30</v>
@@ -2513,22 +2513,22 @@
         <v>27084</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>1142</v>
+        <v>1053</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>59.397</v>
+        <v>54.739</v>
       </c>
       <c r="M8" t="n">
         <v>623</v>
       </c>
       <c r="N8" t="n">
-        <v>6.77</v>
+        <v>6.24</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
       </c>
       <c r="P8" s="15" t="n">
-        <v>55.6812959160495</v>
+        <v>51.3259086788877</v>
       </c>
     </row>
     <row r="9">
@@ -2539,7 +2539,7 @@
         <v>265</v>
       </c>
       <c r="C9" s="18" t="n">
-        <v>47.04</v>
+        <v>43.36</v>
       </c>
       <c r="D9" t="n">
         <v>622</v>
@@ -2563,22 +2563,22 @@
         <v>126363</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>5945</v>
+        <v>5479</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>309.126</v>
+        <v>284.887</v>
       </c>
       <c r="M9" t="n">
         <v>434</v>
       </c>
       <c r="N9" t="n">
-        <v>10.83</v>
+        <v>9.98</v>
       </c>
       <c r="O9" t="n">
         <v>9</v>
       </c>
       <c r="P9" s="15" t="n">
-        <v>289.78797382603</v>
+        <v>267.123698748649</v>
       </c>
     </row>
     <row r="10">
@@ -2589,7 +2589,7 @@
         <v>266</v>
       </c>
       <c r="C10" s="18" t="n">
-        <v>43.51</v>
+        <v>40.1</v>
       </c>
       <c r="D10" t="n">
         <v>32</v>
@@ -2613,22 +2613,22 @@
         <v>17197</v>
       </c>
       <c r="K10" s="15" t="n">
-        <v>748</v>
+        <v>690</v>
       </c>
       <c r="L10" s="15" t="n">
-        <v>38.911</v>
+        <v>35.86</v>
       </c>
       <c r="M10" t="n">
         <v>422</v>
       </c>
       <c r="N10" t="n">
-        <v>10.32</v>
+        <v>9.51</v>
       </c>
       <c r="O10" t="n">
         <v>9</v>
       </c>
       <c r="P10" s="15" t="n">
-        <v>36.4768406719094</v>
+        <v>33.6240538779465</v>
       </c>
     </row>
     <row r="11">
@@ -2639,7 +2639,7 @@
         <v>267</v>
       </c>
       <c r="C11" s="18" t="n">
-        <v>41.93</v>
+        <v>38.64</v>
       </c>
       <c r="D11" t="n">
         <v>62</v>
@@ -2663,22 +2663,22 @@
         <v>25797</v>
       </c>
       <c r="K11" s="15" t="n">
-        <v>1082</v>
+        <v>997</v>
       </c>
       <c r="L11" s="15" t="n">
-        <v>56.248</v>
+        <v>51.838</v>
       </c>
       <c r="M11" t="n">
         <v>377</v>
       </c>
       <c r="N11" t="n">
-        <v>11.12</v>
+        <v>10.24</v>
       </c>
       <c r="O11" t="n">
         <v>9</v>
       </c>
       <c r="P11" s="15" t="n">
-        <v>52.729288224758</v>
+        <v>48.6057921061068</v>
       </c>
     </row>
     <row r="12">
@@ -2689,7 +2689,7 @@
         <v>268</v>
       </c>
       <c r="C12" s="18" t="n">
-        <v>57.88</v>
+        <v>53.34</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -2713,22 +2713,22 @@
         <v>34774</v>
       </c>
       <c r="K12" s="15" t="n">
-        <v>2013</v>
+        <v>1855</v>
       </c>
       <c r="L12" s="15" t="n">
-        <v>104.654</v>
+        <v>96.448</v>
       </c>
       <c r="M12" t="n">
         <v>468</v>
       </c>
       <c r="N12" t="n">
-        <v>12.37</v>
+        <v>11.4</v>
       </c>
       <c r="O12" t="n">
         <v>10</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>98.1071492297295</v>
+        <v>90.4342651539371</v>
       </c>
     </row>
     <row r="13">
@@ -2739,7 +2739,7 @@
         <v>269</v>
       </c>
       <c r="C13" s="18" t="n">
-        <v>36.38</v>
+        <v>33.52</v>
       </c>
       <c r="D13" t="n">
         <v>85</v>
@@ -2763,22 +2763,22 @@
         <v>44330</v>
       </c>
       <c r="K13" s="15" t="n">
-        <v>1613</v>
+        <v>1486</v>
       </c>
       <c r="L13" s="15" t="n">
-        <v>83.852</v>
+        <v>77.277</v>
       </c>
       <c r="M13" t="n">
         <v>508</v>
       </c>
       <c r="N13" t="n">
-        <v>7.16</v>
+        <v>6.6</v>
       </c>
       <c r="O13" t="n">
         <v>4</v>
       </c>
       <c r="P13" s="15" t="n">
-        <v>78.6064620292705</v>
+        <v>72.458617164698</v>
       </c>
     </row>
     <row r="14">
@@ -2789,7 +2789,7 @@
         <v>270</v>
       </c>
       <c r="C14" s="18" t="n">
-        <v>45.36</v>
+        <v>41.8</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -2813,22 +2813,22 @@
         <v>65583</v>
       </c>
       <c r="K14" s="15" t="n">
-        <v>2975</v>
+        <v>2741</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>154.675</v>
+        <v>142.546</v>
       </c>
       <c r="M14" t="n">
         <v>430</v>
       </c>
       <c r="N14" t="n">
-        <v>10.54</v>
+        <v>9.71</v>
       </c>
       <c r="O14" t="n">
         <v>9</v>
       </c>
       <c r="P14" s="15" t="n">
-        <v>144.998980517786</v>
+        <v>133.6579582846</v>
       </c>
     </row>
     <row r="15">
@@ -2839,7 +2839,7 @@
         <v>271</v>
       </c>
       <c r="C15" s="18" t="n">
-        <v>44.63</v>
+        <v>41.13</v>
       </c>
       <c r="D15" t="n">
         <v>392</v>
@@ -2863,22 +2863,22 @@
         <v>26046</v>
       </c>
       <c r="K15" s="15" t="n">
-        <v>1163</v>
+        <v>1071</v>
       </c>
       <c r="L15" s="15" t="n">
-        <v>60.453</v>
+        <v>55.713</v>
       </c>
       <c r="M15" t="n">
         <v>530</v>
       </c>
       <c r="N15" t="n">
-        <v>8.41</v>
+        <v>7.76</v>
       </c>
       <c r="O15" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="15" t="n">
-        <v>56.6712356181784</v>
+        <v>52.2391777384839</v>
       </c>
     </row>
     <row r="16">
@@ -2889,7 +2889,7 @@
         <v>272</v>
       </c>
       <c r="C16" s="18" t="n">
-        <v>33.83</v>
+        <v>31.18</v>
       </c>
       <c r="D16" t="n">
         <v>79</v>
@@ -2913,22 +2913,22 @@
         <v>42107</v>
       </c>
       <c r="K16" s="15" t="n">
-        <v>1424</v>
+        <v>1313</v>
       </c>
       <c r="L16" s="15" t="n">
-        <v>74.068</v>
+        <v>68.26</v>
       </c>
       <c r="M16" t="n">
         <v>575</v>
       </c>
       <c r="N16" t="n">
-        <v>5.88</v>
+        <v>5.42</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" s="15" t="n">
-        <v>69.4345206981826</v>
+        <v>64.0038460041447</v>
       </c>
     </row>
     <row r="17">
@@ -2939,7 +2939,7 @@
         <v>273</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>33.2</v>
+        <v>30.6</v>
       </c>
       <c r="D17" t="n">
         <v>360</v>
@@ -2963,22 +2963,22 @@
         <v>66358</v>
       </c>
       <c r="K17" s="15" t="n">
-        <v>2203</v>
+        <v>2031</v>
       </c>
       <c r="L17" s="15" t="n">
-        <v>114.57</v>
+        <v>105.587</v>
       </c>
       <c r="M17" t="n">
         <v>521</v>
       </c>
       <c r="N17" t="n">
-        <v>6.37</v>
+        <v>5.87</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
       </c>
       <c r="P17" s="15" t="n">
-        <v>107.402833023584</v>
+        <v>99.0034293589162</v>
       </c>
     </row>
     <row r="18">
@@ -2989,7 +2989,7 @@
         <v>274</v>
       </c>
       <c r="C18" s="18" t="n">
-        <v>44.56</v>
+        <v>41.07</v>
       </c>
       <c r="D18" t="n">
         <v>100</v>
@@ -3013,22 +3013,22 @@
         <v>24254</v>
       </c>
       <c r="K18" s="15" t="n">
-        <v>1081</v>
+        <v>996</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>56.199</v>
+        <v>51.792</v>
       </c>
       <c r="M18" t="n">
         <v>704</v>
       </c>
       <c r="N18" t="n">
-        <v>6.33</v>
+        <v>5.83</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
       </c>
       <c r="P18" s="15" t="n">
-        <v>52.6833535226706</v>
+        <v>48.5626603024709</v>
       </c>
     </row>
     <row r="19">
@@ -3039,7 +3039,7 @@
         <v>275</v>
       </c>
       <c r="C19" s="18" t="n">
-        <v>39.24</v>
+        <v>36.16</v>
       </c>
       <c r="D19" t="n">
         <v>55</v>
@@ -3063,22 +3063,22 @@
         <v>47431</v>
       </c>
       <c r="K19" s="15" t="n">
-        <v>1861</v>
+        <v>1715</v>
       </c>
       <c r="L19" s="15" t="n">
-        <v>96.783</v>
+        <v>89.194</v>
       </c>
       <c r="M19" t="n">
         <v>645</v>
       </c>
       <c r="N19" t="n">
-        <v>6.09</v>
+        <v>5.61</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" s="15" t="n">
-        <v>90.7285361658504</v>
+        <v>83.6325672501272</v>
       </c>
     </row>
     <row r="20">
@@ -3089,7 +3089,7 @@
         <v>276</v>
       </c>
       <c r="C20" s="18" t="n">
-        <v>42.85</v>
+        <v>39.49</v>
       </c>
       <c r="D20" t="n">
         <v>94</v>
@@ -3113,22 +3113,22 @@
         <v>18859</v>
       </c>
       <c r="K20" s="15" t="n">
-        <v>808</v>
+        <v>745</v>
       </c>
       <c r="L20" s="15" t="n">
-        <v>42.017</v>
+        <v>38.722</v>
       </c>
       <c r="M20" t="n">
         <v>508</v>
       </c>
       <c r="N20" t="n">
-        <v>8.44</v>
+        <v>7.78</v>
       </c>
       <c r="O20" t="n">
         <v>7</v>
       </c>
       <c r="P20" s="15" t="n">
-        <v>39.3885383185119</v>
+        <v>36.3076021824273</v>
       </c>
     </row>
     <row r="21">
@@ -3139,7 +3139,7 @@
         <v>277</v>
       </c>
       <c r="C21" s="18" t="n">
-        <v>42.81</v>
+        <v>39.46</v>
       </c>
       <c r="D21" t="n">
         <v>77</v>
@@ -3163,22 +3163,22 @@
         <v>26598</v>
       </c>
       <c r="K21" s="15" t="n">
-        <v>1139</v>
+        <v>1049</v>
       </c>
       <c r="L21" s="15" t="n">
-        <v>59.215</v>
+        <v>54.572</v>
       </c>
       <c r="M21" t="n">
         <v>482</v>
       </c>
       <c r="N21" t="n">
-        <v>8.88</v>
+        <v>8.18</v>
       </c>
       <c r="O21" t="n">
         <v>7</v>
       </c>
       <c r="P21" s="15" t="n">
-        <v>55.5106813082962</v>
+        <v>51.1693214787311</v>
       </c>
     </row>
     <row r="22">
@@ -3189,7 +3189,7 @@
         <v>278</v>
       </c>
       <c r="C22" s="18" t="n">
-        <v>37.89</v>
+        <v>34.92</v>
       </c>
       <c r="D22" t="n">
         <v>50</v>
@@ -3213,22 +3213,22 @@
         <v>68239</v>
       </c>
       <c r="K22" s="15" t="n">
-        <v>2585</v>
+        <v>2383</v>
       </c>
       <c r="L22" s="15" t="n">
-        <v>134.438</v>
+        <v>123.896</v>
       </c>
       <c r="M22" t="n">
         <v>624</v>
       </c>
       <c r="N22" t="n">
-        <v>6.07</v>
+        <v>5.6</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
       </c>
       <c r="P22" s="15" t="n">
-        <v>126.027948555682</v>
+        <v>116.170824853934</v>
       </c>
     </row>
     <row r="23">
@@ -3239,7 +3239,7 @@
         <v>279</v>
       </c>
       <c r="C23" s="18" t="n">
-        <v>36.94</v>
+        <v>34.05</v>
       </c>
       <c r="D23" t="n">
         <v>375</v>
@@ -3263,22 +3263,22 @@
         <v>26219</v>
       </c>
       <c r="K23" s="15" t="n">
-        <v>969</v>
+        <v>893</v>
       </c>
       <c r="L23" s="15" t="n">
-        <v>50.366</v>
+        <v>46.416</v>
       </c>
       <c r="M23" t="n">
         <v>625</v>
       </c>
       <c r="N23" t="n">
-        <v>5.91</v>
+        <v>5.45</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" s="15" t="n">
-        <v>47.2152490884682</v>
+        <v>43.5218651644943</v>
       </c>
     </row>
     <row r="24">
@@ -3289,7 +3289,7 @@
         <v>280</v>
       </c>
       <c r="C24" s="18" t="n">
-        <v>46.69</v>
+        <v>43.03</v>
       </c>
       <c r="D24" t="n">
         <v>50</v>
@@ -3313,22 +3313,22 @@
         <v>30831</v>
       </c>
       <c r="K24" s="15" t="n">
-        <v>1440</v>
+        <v>1327</v>
       </c>
       <c r="L24" s="15" t="n">
-        <v>74.856</v>
+        <v>68.986</v>
       </c>
       <c r="M24" t="n">
         <v>616</v>
       </c>
       <c r="N24" t="n">
-        <v>7.58</v>
+        <v>6.98</v>
       </c>
       <c r="O24" t="n">
         <v>4</v>
       </c>
       <c r="P24" s="15" t="n">
-        <v>70.1732257031803</v>
+        <v>64.6845783832687</v>
       </c>
     </row>
     <row r="25">
@@ -3339,7 +3339,7 @@
         <v>281</v>
       </c>
       <c r="C25" s="18" t="n">
-        <v>50.18</v>
+        <v>46.24</v>
       </c>
       <c r="D25" t="n">
         <v>53</v>
@@ -3363,22 +3363,22 @@
         <v>42362</v>
       </c>
       <c r="K25" s="15" t="n">
-        <v>2126</v>
+        <v>1959</v>
       </c>
       <c r="L25" s="15" t="n">
-        <v>110.536</v>
+        <v>101.868</v>
       </c>
       <c r="M25" t="n">
         <v>581</v>
       </c>
       <c r="N25" t="n">
-        <v>8.64</v>
+        <v>7.96</v>
       </c>
       <c r="O25" t="n">
         <v>7</v>
       </c>
       <c r="P25" s="15" t="n">
-        <v>103.621188366019</v>
+        <v>95.5163167997394</v>
       </c>
     </row>
     <row r="26">
@@ -3389,7 +3389,7 @@
         <v>282</v>
       </c>
       <c r="C26" s="18" t="n">
-        <v>28.34</v>
+        <v>26.12</v>
       </c>
       <c r="D26" t="n">
         <v>14</v>
@@ -3413,22 +3413,22 @@
         <v>31125</v>
       </c>
       <c r="K26" s="15" t="n">
-        <v>882</v>
+        <v>813</v>
       </c>
       <c r="L26" s="15" t="n">
-        <v>45.867</v>
+        <v>42.27</v>
       </c>
       <c r="M26" t="n">
         <v>560</v>
       </c>
       <c r="N26" t="n">
-        <v>5.06</v>
+        <v>4.66</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
       </c>
       <c r="P26" s="15" t="n">
-        <v>42.9976934825234</v>
+        <v>39.6343769498271</v>
       </c>
     </row>
     <row r="27">
@@ -3439,7 +3439,7 @@
         <v>283</v>
       </c>
       <c r="C27" s="18" t="n">
-        <v>33.18</v>
+        <v>30.58</v>
       </c>
       <c r="D27" t="n">
         <v>13</v>
@@ -3463,22 +3463,22 @@
         <v>69931</v>
       </c>
       <c r="K27" s="15" t="n">
-        <v>2320</v>
+        <v>2138</v>
       </c>
       <c r="L27" s="15" t="n">
-        <v>120.652</v>
+        <v>111.192</v>
       </c>
       <c r="M27" t="n">
         <v>490</v>
       </c>
       <c r="N27" t="n">
-        <v>6.77</v>
+        <v>6.24</v>
       </c>
       <c r="O27" t="n">
         <v>2</v>
       </c>
       <c r="P27" s="15" t="n">
-        <v>113.104360739822</v>
+        <v>104.258945867167</v>
       </c>
     </row>
     <row r="28">
@@ -3489,7 +3489,7 @@
         <v>284</v>
       </c>
       <c r="C28" s="18" t="n">
-        <v>39.05</v>
+        <v>35.99</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>72875</v>
       </c>
       <c r="K28" s="15" t="n">
-        <v>2846</v>
+        <v>2623</v>
       </c>
       <c r="L28" s="15" t="n">
-        <v>147.976</v>
+        <v>136.373</v>
       </c>
       <c r="M28" t="n">
         <v>485</v>
       </c>
       <c r="N28" t="n">
-        <v>8.05</v>
+        <v>7.41</v>
       </c>
       <c r="O28" t="n">
         <v>6</v>
       </c>
       <c r="P28" s="15" t="n">
-        <v>138.719050532406</v>
+        <v>127.869857766235</v>
       </c>
     </row>
     <row r="29">
@@ -3539,7 +3539,7 @@
         <v>285</v>
       </c>
       <c r="C29" s="18" t="n">
-        <v>43.14</v>
+        <v>39.75</v>
       </c>
       <c r="D29" t="n">
         <v>423</v>
@@ -3563,22 +3563,22 @@
         <v>43973</v>
       </c>
       <c r="K29" s="15" t="n">
-        <v>1897</v>
+        <v>1748</v>
       </c>
       <c r="L29" s="15" t="n">
-        <v>98.634</v>
+        <v>90.9</v>
       </c>
       <c r="M29" t="n">
         <v>476</v>
       </c>
       <c r="N29" t="n">
-        <v>9.06</v>
+        <v>8.35</v>
       </c>
       <c r="O29" t="n">
         <v>8</v>
       </c>
       <c r="P29" s="15" t="n">
-        <v>92.4637429732752</v>
+        <v>85.2321945762782</v>
       </c>
     </row>
     <row r="30">
@@ -3589,7 +3589,7 @@
         <v>286</v>
       </c>
       <c r="C30" s="18" t="n">
-        <v>41.65</v>
+        <v>38.38</v>
       </c>
       <c r="D30" t="n">
         <v>79</v>
@@ -3613,22 +3613,22 @@
         <v>36269</v>
       </c>
       <c r="K30" s="15" t="n">
-        <v>1510</v>
+        <v>1392</v>
       </c>
       <c r="L30" s="15" t="n">
-        <v>78.542</v>
+        <v>72.384</v>
       </c>
       <c r="M30" t="n">
         <v>600</v>
       </c>
       <c r="N30" t="n">
-        <v>6.94</v>
+        <v>6.39</v>
       </c>
       <c r="O30" t="n">
         <v>3</v>
       </c>
       <c r="P30" s="15" t="n">
-        <v>73.6286402316339</v>
+        <v>67.870705964899</v>
       </c>
     </row>
     <row r="31">
@@ -3639,7 +3639,7 @@
         <v>287</v>
       </c>
       <c r="C31" s="18" t="n">
-        <v>41.16</v>
+        <v>37.93</v>
       </c>
       <c r="D31" t="n">
         <v>19</v>
@@ -3663,22 +3663,22 @@
         <v>62243</v>
       </c>
       <c r="K31" s="15" t="n">
-        <v>2562</v>
+        <v>2361</v>
       </c>
       <c r="L31" s="15" t="n">
-        <v>133.226</v>
+        <v>122.779</v>
       </c>
       <c r="M31" t="n">
         <v>514</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>7.38</v>
       </c>
       <c r="O31" t="n">
         <v>6</v>
       </c>
       <c r="P31" s="15" t="n">
-        <v>124.891767761193</v>
+        <v>115.123472143904</v>
       </c>
     </row>
     <row r="32">
@@ -3689,7 +3689,7 @@
         <v>288</v>
       </c>
       <c r="C32" s="18" t="n">
-        <v>52.67</v>
+        <v>48.54</v>
       </c>
       <c r="D32" t="n">
         <v>137</v>
@@ -3713,22 +3713,22 @@
         <v>11552</v>
       </c>
       <c r="K32" s="15" t="n">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="L32" s="15" t="n">
-        <v>31.635</v>
+        <v>29.155</v>
       </c>
       <c r="M32" t="n">
         <v>466</v>
       </c>
       <c r="N32" t="n">
-        <v>11.29</v>
+        <v>10.41</v>
       </c>
       <c r="O32" t="n">
         <v>10</v>
       </c>
       <c r="P32" s="15" t="n">
-        <v>29.6560061333775</v>
+        <v>27.3371246740527</v>
       </c>
     </row>
     <row r="33">
@@ -3739,7 +3739,7 @@
         <v>289</v>
       </c>
       <c r="C33" s="18" t="n">
-        <v>39.35</v>
+        <v>36.26</v>
       </c>
       <c r="D33" t="n">
         <v>472</v>
@@ -3763,22 +3763,22 @@
         <v>33045</v>
       </c>
       <c r="K33" s="15" t="n">
-        <v>1300</v>
+        <v>1198</v>
       </c>
       <c r="L33" s="15" t="n">
-        <v>67.613</v>
+        <v>62.311</v>
       </c>
       <c r="M33" t="n">
         <v>522</v>
       </c>
       <c r="N33" t="n">
-        <v>7.54</v>
+        <v>6.95</v>
       </c>
       <c r="O33" t="n">
         <v>4</v>
       </c>
       <c r="P33" s="15" t="n">
-        <v>63.38332678034</v>
+        <v>58.4257786165288</v>
       </c>
     </row>
     <row r="34">
@@ -3789,7 +3789,7 @@
         <v>290</v>
       </c>
       <c r="C34" s="18" t="n">
-        <v>44.8</v>
+        <v>41.29</v>
       </c>
       <c r="D34" t="n">
         <v>45</v>
@@ -3813,22 +3813,22 @@
         <v>81716</v>
       </c>
       <c r="K34" s="15" t="n">
-        <v>3661</v>
+        <v>3374</v>
       </c>
       <c r="L34" s="15" t="n">
-        <v>190.361</v>
+        <v>175.434</v>
       </c>
       <c r="M34" t="n">
         <v>556</v>
       </c>
       <c r="N34" t="n">
-        <v>8.05</v>
+        <v>7.42</v>
       </c>
       <c r="O34" t="n">
         <v>6</v>
       </c>
       <c r="P34" s="15" t="n">
-        <v>178.452567838024</v>
+        <v>164.495322588502</v>
       </c>
     </row>
     <row r="35">
@@ -3839,7 +3839,7 @@
         <v>291</v>
       </c>
       <c r="C35" s="18" t="n">
-        <v>33.43</v>
+        <v>30.81</v>
       </c>
       <c r="D35" t="n">
         <v>170</v>
@@ -3863,22 +3863,22 @@
         <v>88461</v>
       </c>
       <c r="K35" s="15" t="n">
-        <v>2957</v>
+        <v>2725</v>
       </c>
       <c r="L35" s="15" t="n">
-        <v>153.78</v>
+        <v>141.722</v>
       </c>
       <c r="M35" t="n">
         <v>523</v>
       </c>
       <c r="N35" t="n">
-        <v>6.39</v>
+        <v>5.89</v>
       </c>
       <c r="O35" t="n">
         <v>2</v>
       </c>
       <c r="P35" s="15" t="n">
-        <v>144.159969122516</v>
+        <v>132.885336410773</v>
       </c>
     </row>
     <row r="36">
@@ -3889,7 +3889,7 @@
         <v>292</v>
       </c>
       <c r="C36" s="18" t="n">
-        <v>52.63</v>
+        <v>48.5</v>
       </c>
       <c r="D36" t="n">
         <v>241</v>
@@ -3913,22 +3913,22 @@
         <v>46779</v>
       </c>
       <c r="K36" s="15" t="n">
-        <v>2462</v>
+        <v>2269</v>
       </c>
       <c r="L36" s="15" t="n">
-        <v>128.013</v>
+        <v>117.975</v>
       </c>
       <c r="M36" t="n">
         <v>498</v>
       </c>
       <c r="N36" t="n">
-        <v>10.56</v>
+        <v>9.73</v>
       </c>
       <c r="O36" t="n">
         <v>9</v>
       </c>
       <c r="P36" s="15" t="n">
-        <v>120.004877924832</v>
+        <v>110.619011607661</v>
       </c>
     </row>
     <row r="37">
@@ -3939,7 +3939,7 @@
         <v>293</v>
       </c>
       <c r="C37" s="18" t="n">
-        <v>38.71</v>
+        <v>35.68</v>
       </c>
       <c r="D37" t="n">
         <v>164</v>
@@ -3963,22 +3963,22 @@
         <v>31530</v>
       </c>
       <c r="K37" s="15" t="n">
-        <v>1221</v>
+        <v>1125</v>
       </c>
       <c r="L37" s="15" t="n">
-        <v>63.469</v>
+        <v>58.492</v>
       </c>
       <c r="M37" t="n">
         <v>552</v>
       </c>
       <c r="N37" t="n">
-        <v>7.01</v>
+        <v>6.46</v>
       </c>
       <c r="O37" t="n">
         <v>3</v>
       </c>
       <c r="P37" s="15" t="n">
-        <v>59.498563403804</v>
+        <v>54.844901266839</v>
       </c>
     </row>
     <row r="38">
@@ -3989,7 +3989,7 @@
         <v>294</v>
       </c>
       <c r="C38" s="18" t="n">
-        <v>38.64</v>
+        <v>35.61</v>
       </c>
       <c r="D38" t="n">
         <v>315</v>
@@ -4013,22 +4013,22 @@
         <v>34039</v>
       </c>
       <c r="K38" s="15" t="n">
-        <v>1315</v>
+        <v>1212</v>
       </c>
       <c r="L38" s="15" t="n">
-        <v>68.39</v>
+        <v>63.027</v>
       </c>
       <c r="M38" t="n">
         <v>479</v>
       </c>
       <c r="N38" t="n">
-        <v>8.06</v>
+        <v>7.43</v>
       </c>
       <c r="O38" t="n">
         <v>6</v>
       </c>
       <c r="P38" s="15" t="n">
-        <v>64.1117199134405</v>
+        <v>59.0971345166016</v>
       </c>
     </row>
     <row r="39">
@@ -4039,7 +4039,7 @@
         <v>295</v>
       </c>
       <c r="C39" s="18" t="n">
-        <v>43.4</v>
+        <v>40</v>
       </c>
       <c r="D39" t="n">
         <v>51</v>
@@ -4063,22 +4063,22 @@
         <v>25841</v>
       </c>
       <c r="K39" s="15" t="n">
-        <v>1122</v>
+        <v>1034</v>
       </c>
       <c r="L39" s="15" t="n">
-        <v>58.32</v>
+        <v>53.747</v>
       </c>
       <c r="M39" t="n">
         <v>598</v>
       </c>
       <c r="N39" t="n">
-        <v>7.26</v>
+        <v>6.69</v>
       </c>
       <c r="O39" t="n">
         <v>4</v>
       </c>
       <c r="P39" s="15" t="n">
-        <v>54.671669913026</v>
+        <v>50.3957619569992</v>
       </c>
     </row>
     <row r="40">
@@ -4089,7 +4089,7 @@
         <v>296</v>
       </c>
       <c r="C40" s="18" t="n">
-        <v>47.65</v>
+        <v>43.91</v>
       </c>
       <c r="D40" t="n">
         <v>73</v>
@@ -4113,22 +4113,22 @@
         <v>33682</v>
       </c>
       <c r="K40" s="15" t="n">
-        <v>1605</v>
+        <v>1479</v>
       </c>
       <c r="L40" s="15" t="n">
-        <v>83.45</v>
+        <v>76.907</v>
       </c>
       <c r="M40" t="n">
         <v>543</v>
       </c>
       <c r="N40" t="n">
-        <v>8.77</v>
+        <v>8.09</v>
       </c>
       <c r="O40" t="n">
         <v>7</v>
       </c>
       <c r="P40" s="15" t="n">
-        <v>78.2296099835738</v>
+        <v>72.1116874398001</v>
       </c>
     </row>
     <row r="41">
@@ -4139,7 +4139,7 @@
         <v>297</v>
       </c>
       <c r="C41" s="18" t="n">
-        <v>36.97</v>
+        <v>34.08</v>
       </c>
       <c r="D41" t="n">
         <v>82</v>
@@ -4163,22 +4163,22 @@
         <v>57010</v>
       </c>
       <c r="K41" s="15" t="n">
-        <v>2108</v>
+        <v>1943</v>
       </c>
       <c r="L41" s="15" t="n">
-        <v>109.612</v>
+        <v>101.017</v>
       </c>
       <c r="M41" t="n">
         <v>555</v>
       </c>
       <c r="N41" t="n">
-        <v>6.66</v>
+        <v>6.14</v>
       </c>
       <c r="O41" t="n">
         <v>2</v>
       </c>
       <c r="P41" s="15" t="n">
-        <v>102.754991126657</v>
+        <v>94.7183784324741</v>
       </c>
     </row>
     <row r="42">
@@ -4189,7 +4189,7 @@
         <v>298</v>
       </c>
       <c r="C42" s="18" t="n">
-        <v>42.11</v>
+        <v>38.81</v>
       </c>
       <c r="D42" t="n">
         <v>44</v>
@@ -4213,22 +4213,22 @@
         <v>39424</v>
       </c>
       <c r="K42" s="15" t="n">
-        <v>1660</v>
+        <v>1530</v>
       </c>
       <c r="L42" s="15" t="n">
-        <v>86.333</v>
+        <v>79.563</v>
       </c>
       <c r="M42" t="n">
         <v>547</v>
       </c>
       <c r="N42" t="n">
-        <v>7.69</v>
+        <v>7.09</v>
       </c>
       <c r="O42" t="n">
         <v>5</v>
       </c>
       <c r="P42" s="15" t="n">
-        <v>80.9322578635335</v>
+        <v>74.6020802758242</v>
       </c>
     </row>
     <row r="43">
@@ -4239,7 +4239,7 @@
         <v>299</v>
       </c>
       <c r="C43" s="18" t="n">
-        <v>46.21</v>
+        <v>42.59</v>
       </c>
       <c r="D43" t="n">
         <v>216</v>
@@ -4263,22 +4263,22 @@
         <v>154954</v>
       </c>
       <c r="K43" s="15" t="n">
-        <v>7160</v>
+        <v>6599</v>
       </c>
       <c r="L43" s="15" t="n">
-        <v>372.328</v>
+        <v>343.133</v>
       </c>
       <c r="M43" t="n">
         <v>577</v>
       </c>
       <c r="N43" t="n">
-        <v>8.01</v>
+        <v>7.38</v>
       </c>
       <c r="O43" t="n">
         <v>6</v>
       </c>
       <c r="P43" s="15" t="n">
-        <v>349.036239975603</v>
+        <v>321.737938630826</v>
       </c>
     </row>
     <row r="44">
@@ -4289,7 +4289,7 @@
         <v>300</v>
       </c>
       <c r="C44" s="18" t="n">
-        <v>34.5</v>
+        <v>31.79</v>
       </c>
       <c r="D44" t="n">
         <v>191</v>
@@ -4313,22 +4313,22 @@
         <v>27805</v>
       </c>
       <c r="K44" s="15" t="n">
-        <v>959</v>
+        <v>884</v>
       </c>
       <c r="L44" s="15" t="n">
-        <v>49.882</v>
+        <v>45.971</v>
       </c>
       <c r="M44" t="n">
         <v>470</v>
       </c>
       <c r="N44" t="n">
-        <v>7.35</v>
+        <v>6.77</v>
       </c>
       <c r="O44" t="n">
         <v>4</v>
       </c>
       <c r="P44" s="15" t="n">
-        <v>46.7615267249925</v>
+        <v>43.1046118467116</v>
       </c>
     </row>
     <row r="45">
@@ -4339,7 +4339,7 @@
         <v>301</v>
       </c>
       <c r="C45" s="18" t="n">
-        <v>39.32</v>
+        <v>36.24</v>
       </c>
       <c r="D45" t="n">
         <v>561</v>
@@ -4363,22 +4363,22 @@
         <v>65858</v>
       </c>
       <c r="K45" s="15" t="n">
-        <v>2590</v>
+        <v>2387</v>
       </c>
       <c r="L45" s="15" t="n">
-        <v>134.667</v>
+        <v>124.108</v>
       </c>
       <c r="M45" t="n">
         <v>562</v>
       </c>
       <c r="N45" t="n">
-        <v>7</v>
+        <v>6.45</v>
       </c>
       <c r="O45" t="n">
         <v>3</v>
       </c>
       <c r="P45" s="15" t="n">
-        <v>126.242622979724</v>
+        <v>116.369606209821</v>
       </c>
     </row>
     <row r="46">
@@ -4389,7 +4389,7 @@
         <v>302</v>
       </c>
       <c r="C46" s="18" t="n">
-        <v>44.52</v>
+        <v>41.03</v>
       </c>
       <c r="D46" t="n">
         <v>15</v>
@@ -4413,22 +4413,22 @@
         <v>27929</v>
       </c>
       <c r="K46" s="15" t="n">
-        <v>1243</v>
+        <v>1146</v>
       </c>
       <c r="L46" s="15" t="n">
-        <v>64.654</v>
+        <v>59.584</v>
       </c>
       <c r="M46" t="n">
         <v>585</v>
       </c>
       <c r="N46" t="n">
-        <v>7.61</v>
+        <v>7.02</v>
       </c>
       <c r="O46" t="n">
         <v>5</v>
       </c>
       <c r="P46" s="15" t="n">
-        <v>60.6094332399997</v>
+        <v>55.8688127792405</v>
       </c>
     </row>
     <row r="47">
@@ -4439,7 +4439,7 @@
         <v>303</v>
       </c>
       <c r="C47" s="18" t="n">
-        <v>35.56</v>
+        <v>32.77</v>
       </c>
       <c r="D47" t="n">
         <v>305</v>
@@ -4463,22 +4463,22 @@
         <v>31381</v>
       </c>
       <c r="K47" s="15" t="n">
-        <v>1116</v>
+        <v>1028</v>
       </c>
       <c r="L47" s="15" t="n">
-        <v>58.026</v>
+        <v>53.476</v>
       </c>
       <c r="M47" t="n">
         <v>519</v>
       </c>
       <c r="N47" t="n">
-        <v>6.85</v>
+        <v>6.31</v>
       </c>
       <c r="O47" t="n">
         <v>3</v>
       </c>
       <c r="P47" s="15" t="n">
-        <v>54.3960617005015</v>
+        <v>50.1416593747091</v>
       </c>
     </row>
     <row r="48">
@@ -4489,7 +4489,7 @@
         <v>304</v>
       </c>
       <c r="C48" s="18" t="n">
-        <v>63.3</v>
+        <v>58.33</v>
       </c>
       <c r="D48" t="n">
         <v>124</v>
@@ -4513,22 +4513,22 @@
         <v>15000</v>
       </c>
       <c r="K48" s="15" t="n">
-        <v>949</v>
+        <v>875</v>
       </c>
       <c r="L48" s="15" t="n">
-        <v>49.371</v>
+        <v>45.499</v>
       </c>
       <c r="M48" t="n">
         <v>460</v>
       </c>
       <c r="N48" t="n">
-        <v>13.77</v>
+        <v>12.69</v>
       </c>
       <c r="O48" t="n">
         <v>10</v>
       </c>
       <c r="P48" s="15" t="n">
-        <v>46.2824934032237</v>
+        <v>42.6620420354905</v>
       </c>
     </row>
     <row r="49">
@@ -4539,7 +4539,7 @@
         <v>305</v>
       </c>
       <c r="C49" s="18" t="n">
-        <v>40.09</v>
+        <v>36.95</v>
       </c>
       <c r="D49" t="n">
         <v>159</v>
@@ -4563,22 +4563,22 @@
         <v>15305</v>
       </c>
       <c r="K49" s="15" t="n">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="L49" s="15" t="n">
-        <v>31.907</v>
+        <v>29.405</v>
       </c>
       <c r="M49" t="n">
         <v>610</v>
       </c>
       <c r="N49" t="n">
-        <v>6.57</v>
+        <v>6.05</v>
       </c>
       <c r="O49" t="n">
         <v>2</v>
       </c>
       <c r="P49" s="15" t="n">
-        <v>29.9109906021077</v>
+        <v>27.5715366503351</v>
       </c>
     </row>
     <row r="50">
@@ -4589,7 +4589,7 @@
         <v>306</v>
       </c>
       <c r="C50" s="18" t="n">
-        <v>45.79</v>
+        <v>42.2</v>
       </c>
       <c r="D50" t="n">
         <v>31</v>
@@ -4613,22 +4613,22 @@
         <v>109694</v>
       </c>
       <c r="K50" s="15" t="n">
-        <v>5022</v>
+        <v>4629</v>
       </c>
       <c r="L50" s="15" t="n">
-        <v>261.164</v>
+        <v>240.685</v>
       </c>
       <c r="M50" t="n">
         <v>630</v>
       </c>
       <c r="N50" t="n">
-        <v>7.27</v>
+        <v>6.7</v>
       </c>
       <c r="O50" t="n">
         <v>4</v>
       </c>
       <c r="P50" s="15" t="n">
-        <v>244.826337468545</v>
+        <v>225.677786046111</v>
       </c>
     </row>
     <row r="51">
@@ -4639,7 +4639,7 @@
         <v>307</v>
       </c>
       <c r="C51" s="18" t="n">
-        <v>35.26</v>
+        <v>32.49</v>
       </c>
       <c r="D51" t="n">
         <v>91</v>
@@ -4663,22 +4663,22 @@
         <v>31107</v>
       </c>
       <c r="K51" s="15" t="n">
-        <v>1097</v>
+        <v>1011</v>
       </c>
       <c r="L51" s="15" t="n">
-        <v>57.029</v>
+        <v>52.558</v>
       </c>
       <c r="M51" t="n">
         <v>577</v>
       </c>
       <c r="N51" t="n">
-        <v>6.11</v>
+        <v>5.63</v>
       </c>
       <c r="O51" t="n">
         <v>1</v>
       </c>
       <c r="P51" s="15" t="n">
-        <v>53.4614311294575</v>
+        <v>49.2808985978001</v>
       </c>
     </row>
     <row r="52">
@@ -4689,7 +4689,7 @@
         <v>308</v>
       </c>
       <c r="C52" s="18" t="n">
-        <v>52.57</v>
+        <v>48.45</v>
       </c>
       <c r="D52" t="n">
         <v>139</v>
@@ -4713,22 +4713,22 @@
         <v>19875</v>
       </c>
       <c r="K52" s="15" t="n">
-        <v>1045</v>
+        <v>963</v>
       </c>
       <c r="L52" s="15" t="n">
-        <v>54.332</v>
+        <v>50.072</v>
       </c>
       <c r="M52" t="n">
         <v>644</v>
       </c>
       <c r="N52" t="n">
-        <v>8.16</v>
+        <v>7.52</v>
       </c>
       <c r="O52" t="n">
         <v>6</v>
       </c>
       <c r="P52" s="15" t="n">
-        <v>50.93314762885</v>
+        <v>46.949905905648</v>
       </c>
     </row>
     <row r="53">
@@ -4739,7 +4739,7 @@
         <v>309</v>
       </c>
       <c r="C53" s="18" t="n">
-        <v>56.94</v>
+        <v>52.47</v>
       </c>
       <c r="D53" t="n">
         <v>137</v>
@@ -4763,22 +4763,22 @@
         <v>14180</v>
       </c>
       <c r="K53" s="15" t="n">
-        <v>807</v>
+        <v>744</v>
       </c>
       <c r="L53" s="15" t="n">
-        <v>41.984</v>
+        <v>38.692</v>
       </c>
       <c r="M53" t="n">
         <v>422</v>
       </c>
       <c r="N53" t="n">
-        <v>13.5</v>
+        <v>12.45</v>
       </c>
       <c r="O53" t="n">
         <v>10</v>
       </c>
       <c r="P53" s="15" t="n">
-        <v>39.3576027028204</v>
+        <v>36.2794727452734</v>
       </c>
     </row>
     <row r="54">
@@ -4789,7 +4789,7 @@
         <v>310</v>
       </c>
       <c r="C54" s="18" t="n">
-        <v>63.75</v>
+        <v>58.75</v>
       </c>
       <c r="D54" t="n">
         <v>57</v>
@@ -4813,22 +4813,22 @@
         <v>26524</v>
       </c>
       <c r="K54" s="15" t="n">
-        <v>1691</v>
+        <v>1558</v>
       </c>
       <c r="L54" s="15" t="n">
-        <v>87.921</v>
+        <v>81.027</v>
       </c>
       <c r="M54" t="n">
         <v>621</v>
       </c>
       <c r="N54" t="n">
-        <v>10.27</v>
+        <v>9.46</v>
       </c>
       <c r="O54" t="n">
         <v>8</v>
       </c>
       <c r="P54" s="15" t="n">
-        <v>82.4209171883258</v>
+        <v>75.9747968089339</v>
       </c>
     </row>
     <row r="55">
@@ -4839,7 +4839,7 @@
         <v>311</v>
       </c>
       <c r="C55" s="18" t="n">
-        <v>49.14</v>
+        <v>45.29</v>
       </c>
       <c r="D55" t="n">
         <v>23</v>
@@ -4863,22 +4863,22 @@
         <v>19235</v>
       </c>
       <c r="K55" s="15" t="n">
-        <v>945</v>
+        <v>871</v>
       </c>
       <c r="L55" s="15" t="n">
-        <v>49.151</v>
+        <v>45.297</v>
       </c>
       <c r="M55" t="n">
         <v>520</v>
       </c>
       <c r="N55" t="n">
-        <v>9.45</v>
+        <v>8.71</v>
       </c>
       <c r="O55" t="n">
         <v>8</v>
       </c>
       <c r="P55" s="15" t="n">
-        <v>46.0762559652802</v>
+        <v>42.4726371586543</v>
       </c>
     </row>
     <row r="56">
@@ -4889,7 +4889,7 @@
         <v>312</v>
       </c>
       <c r="C56" s="18" t="n">
-        <v>40.23</v>
+        <v>37.08</v>
       </c>
       <c r="D56" t="n">
         <v>34</v>
@@ -4913,22 +4913,22 @@
         <v>100550</v>
       </c>
       <c r="K56" s="15" t="n">
-        <v>4045</v>
+        <v>3728</v>
       </c>
       <c r="L56" s="15" t="n">
-        <v>210.356</v>
+        <v>193.861</v>
       </c>
       <c r="M56" t="n">
         <v>609</v>
       </c>
       <c r="N56" t="n">
-        <v>6.6</v>
+        <v>6.09</v>
       </c>
       <c r="O56" t="n">
         <v>2</v>
       </c>
       <c r="P56" s="15" t="n">
-        <v>197.19673861839</v>
+        <v>181.773360536324</v>
       </c>
     </row>
     <row r="57">
@@ -4939,7 +4939,7 @@
         <v>313</v>
       </c>
       <c r="C57" s="18" t="n">
-        <v>43.65</v>
+        <v>40.23</v>
       </c>
       <c r="D57" t="n">
         <v>22</v>
@@ -4963,22 +4963,22 @@
         <v>27469</v>
       </c>
       <c r="K57" s="15" t="n">
-        <v>1199</v>
+        <v>1105</v>
       </c>
       <c r="L57" s="15" t="n">
-        <v>62.355</v>
+        <v>57.465</v>
       </c>
       <c r="M57" t="n">
         <v>615</v>
       </c>
       <c r="N57" t="n">
-        <v>7.1</v>
+        <v>6.54</v>
       </c>
       <c r="O57" t="n">
         <v>3</v>
       </c>
       <c r="P57" s="15" t="n">
-        <v>58.45425201349</v>
+        <v>53.8819368682709</v>
       </c>
     </row>
     <row r="58">
@@ -4989,7 +4989,7 @@
         <v>314</v>
       </c>
       <c r="C58" s="18" t="n">
-        <v>46.25</v>
+        <v>42.62</v>
       </c>
       <c r="D58" t="n">
         <v>170</v>
@@ -5013,22 +5013,22 @@
         <v>29395</v>
       </c>
       <c r="K58" s="15" t="n">
-        <v>1359</v>
+        <v>1253</v>
       </c>
       <c r="L58" s="15" t="n">
-        <v>70.69</v>
+        <v>65.147</v>
       </c>
       <c r="M58" t="n">
         <v>593</v>
       </c>
       <c r="N58" t="n">
-        <v>7.8</v>
+        <v>7.18</v>
       </c>
       <c r="O58" t="n">
         <v>5</v>
       </c>
       <c r="P58" s="15" t="n">
-        <v>66.2678385828499</v>
+        <v>61.0849480754763</v>
       </c>
     </row>
     <row r="59">
@@ -5039,7 +5039,7 @@
         <v>315</v>
       </c>
       <c r="C59" s="18" t="n">
-        <v>49.52</v>
+        <v>45.64</v>
       </c>
       <c r="D59" t="n">
         <v>25</v>
@@ -5063,22 +5063,22 @@
         <v>16896</v>
       </c>
       <c r="K59" s="15" t="n">
-        <v>837</v>
+        <v>771</v>
       </c>
       <c r="L59" s="15" t="n">
-        <v>43.512</v>
+        <v>40.1</v>
       </c>
       <c r="M59" t="n">
         <v>522</v>
       </c>
       <c r="N59" t="n">
-        <v>9.49</v>
+        <v>8.74</v>
       </c>
       <c r="O59" t="n">
         <v>8</v>
       </c>
       <c r="P59" s="15" t="n">
-        <v>40.7900154536281</v>
+        <v>37.5996809956959</v>
       </c>
     </row>
     <row r="60">
@@ -5089,7 +5089,7 @@
         <v>316</v>
       </c>
       <c r="C60" s="18" t="n">
-        <v>38.76</v>
+        <v>35.72</v>
       </c>
       <c r="D60" t="n">
         <v>33</v>
@@ -5113,22 +5113,22 @@
         <v>24714</v>
       </c>
       <c r="K60" s="15" t="n">
-        <v>958</v>
+        <v>883</v>
       </c>
       <c r="L60" s="15" t="n">
-        <v>49.808</v>
+        <v>45.902</v>
       </c>
       <c r="M60" t="n">
         <v>569</v>
       </c>
       <c r="N60" t="n">
-        <v>6.81</v>
+        <v>6.27</v>
       </c>
       <c r="O60" t="n">
         <v>2</v>
       </c>
       <c r="P60" s="15" t="n">
-        <v>46.6921559504115</v>
+        <v>43.0399141412577</v>
       </c>
     </row>
     <row r="61">
@@ -5139,7 +5139,7 @@
         <v>317</v>
       </c>
       <c r="C61" s="18" t="n">
-        <v>50.65</v>
+        <v>46.68</v>
       </c>
       <c r="D61" t="n">
         <v>30</v>
@@ -5163,22 +5163,22 @@
         <v>18999</v>
       </c>
       <c r="K61" s="15" t="n">
-        <v>962</v>
+        <v>887</v>
       </c>
       <c r="L61" s="15" t="n">
-        <v>50.04</v>
+        <v>46.116</v>
       </c>
       <c r="M61" t="n">
         <v>654</v>
       </c>
       <c r="N61" t="n">
-        <v>7.74</v>
+        <v>7.13</v>
       </c>
       <c r="O61" t="n">
         <v>5</v>
       </c>
       <c r="P61" s="15" t="n">
-        <v>46.909642703152</v>
+        <v>43.2405707929554</v>
       </c>
     </row>
     <row r="62">
@@ -5189,7 +5189,7 @@
         <v>318</v>
       </c>
       <c r="C62" s="18" t="n">
-        <v>42.57</v>
+        <v>39.23</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -5213,22 +5213,22 @@
         <v>169384</v>
       </c>
       <c r="K62" s="15" t="n">
-        <v>7211</v>
+        <v>6645</v>
       </c>
       <c r="L62" s="15" t="n">
-        <v>374.967</v>
+        <v>345.565</v>
       </c>
       <c r="M62" t="n">
         <v>570</v>
       </c>
       <c r="N62" t="n">
-        <v>7.47</v>
+        <v>6.88</v>
       </c>
       <c r="O62" t="n">
         <v>4</v>
       </c>
       <c r="P62" s="15" t="n">
-        <v>351.510151788025</v>
+        <v>324.018298336101</v>
       </c>
     </row>
     <row r="63">
@@ -5239,7 +5239,7 @@
         <v>319</v>
       </c>
       <c r="C63" s="18" t="n">
-        <v>48.27</v>
+        <v>44.49</v>
       </c>
       <c r="D63" t="n">
         <v>61</v>
@@ -5263,22 +5263,22 @@
         <v>44979</v>
       </c>
       <c r="K63" s="15" t="n">
-        <v>2171</v>
+        <v>2001</v>
       </c>
       <c r="L63" s="15" t="n">
-        <v>112.901</v>
+        <v>104.048</v>
       </c>
       <c r="M63" t="n">
         <v>432</v>
       </c>
       <c r="N63" t="n">
-        <v>11.18</v>
+        <v>10.31</v>
       </c>
       <c r="O63" t="n">
         <v>10</v>
       </c>
       <c r="P63" s="15" t="n">
-        <v>105.838240823912</v>
+        <v>97.5603892329218</v>
       </c>
     </row>
     <row r="64">
@@ -5289,7 +5289,7 @@
         <v>320</v>
       </c>
       <c r="C64" s="18" t="n">
-        <v>40.24</v>
+        <v>37.09</v>
       </c>
       <c r="D64" t="n">
         <v>16</v>
@@ -5313,22 +5313,22 @@
         <v>48497</v>
       </c>
       <c r="K64" s="15" t="n">
-        <v>1952</v>
+        <v>1799</v>
       </c>
       <c r="L64" s="15" t="n">
-        <v>101.488</v>
+        <v>93.53</v>
       </c>
       <c r="M64" t="n">
         <v>468</v>
       </c>
       <c r="N64" t="n">
-        <v>8.59</v>
+        <v>7.92</v>
       </c>
       <c r="O64" t="n">
         <v>7</v>
       </c>
       <c r="P64" s="15" t="n">
-        <v>95.1392050091424</v>
+        <v>87.698208566769</v>
       </c>
     </row>
     <row r="65">
@@ -5339,7 +5339,7 @@
         <v>321</v>
       </c>
       <c r="C65" s="18" t="n">
-        <v>49.51</v>
+        <v>45.63</v>
       </c>
       <c r="D65" t="n">
         <v>373</v>
@@ -5363,22 +5363,22 @@
         <v>16682</v>
       </c>
       <c r="K65" s="15" t="n">
-        <v>826</v>
+        <v>761</v>
       </c>
       <c r="L65" s="15" t="n">
-        <v>42.947</v>
+        <v>39.58</v>
       </c>
       <c r="M65" t="n">
         <v>404</v>
       </c>
       <c r="N65" t="n">
-        <v>12.27</v>
+        <v>11.31</v>
       </c>
       <c r="O65" t="n">
         <v>10</v>
       </c>
       <c r="P65" s="15" t="n">
-        <v>40.2603602152731</v>
+        <v>37.1121040850285</v>
       </c>
     </row>
     <row r="66">
@@ -5389,7 +5389,7 @@
         <v>322</v>
       </c>
       <c r="C66" s="18" t="n">
-        <v>41.2</v>
+        <v>37.97</v>
       </c>
       <c r="D66" t="n">
         <v>77</v>
@@ -5413,22 +5413,22 @@
         <v>35272</v>
       </c>
       <c r="K66" s="15" t="n">
-        <v>1453</v>
+        <v>1339</v>
       </c>
       <c r="L66" s="15" t="n">
-        <v>75.559</v>
+        <v>69.634</v>
       </c>
       <c r="M66" t="n">
         <v>591</v>
       </c>
       <c r="N66" t="n">
-        <v>6.97</v>
+        <v>6.42</v>
       </c>
       <c r="O66" t="n">
         <v>3</v>
       </c>
       <c r="P66" s="15" t="n">
-        <v>70.8322480616998</v>
+        <v>65.2921742257927</v>
       </c>
     </row>
     <row r="67">
@@ -5439,7 +5439,7 @@
         <v>323</v>
       </c>
       <c r="C67" s="18" t="n">
-        <v>41.71</v>
+        <v>38.44</v>
       </c>
       <c r="D67" t="n">
         <v>8</v>
@@ -5463,22 +5463,22 @@
         <v>134164</v>
       </c>
       <c r="K67" s="15" t="n">
-        <v>5596</v>
+        <v>5157</v>
       </c>
       <c r="L67" s="15" t="n">
-        <v>290.986</v>
+        <v>268.169</v>
       </c>
       <c r="M67" t="n">
         <v>493</v>
       </c>
       <c r="N67" t="n">
-        <v>8.46</v>
+        <v>7.8</v>
       </c>
       <c r="O67" t="n">
         <v>7</v>
       </c>
       <c r="P67" s="15" t="n">
-        <v>272.782759624688</v>
+        <v>251.448101070693</v>
       </c>
     </row>
     <row r="68">
@@ -5489,7 +5489,7 @@
         <v>324</v>
       </c>
       <c r="C68" s="18" t="n">
-        <v>34.42</v>
+        <v>31.72</v>
       </c>
       <c r="D68" t="n">
         <v>149</v>
@@ -5513,22 +5513,22 @@
         <v>95184</v>
       </c>
       <c r="K68" s="15" t="n">
-        <v>3276</v>
+        <v>3019</v>
       </c>
       <c r="L68" s="15" t="n">
-        <v>170.346</v>
+        <v>156.988</v>
       </c>
       <c r="M68" t="n">
         <v>486</v>
       </c>
       <c r="N68" t="n">
-        <v>7.08</v>
+        <v>6.53</v>
       </c>
       <c r="O68" t="n">
         <v>3</v>
       </c>
       <c r="P68" s="15" t="n">
-        <v>159.689648199663</v>
+        <v>147.199469330481</v>
       </c>
     </row>
     <row r="69">
@@ -5539,7 +5539,7 @@
         <v>325</v>
       </c>
       <c r="C69" s="18" t="n">
-        <v>34.76</v>
+        <v>32.04</v>
       </c>
       <c r="D69" t="n">
         <v>63</v>
@@ -5563,22 +5563,22 @@
         <v>41728</v>
       </c>
       <c r="K69" s="15" t="n">
-        <v>1451</v>
+        <v>1337</v>
       </c>
       <c r="L69" s="15" t="n">
-        <v>75.435</v>
+        <v>69.52</v>
       </c>
       <c r="M69" t="n">
         <v>401</v>
       </c>
       <c r="N69" t="n">
-        <v>8.67</v>
+        <v>7.99</v>
       </c>
       <c r="O69" t="n">
         <v>7</v>
       </c>
       <c r="P69" s="15" t="n">
-        <v>70.7160051421316</v>
+        <v>65.1852823646079</v>
       </c>
     </row>
     <row r="70">
@@ -5589,7 +5589,7 @@
         <v>326</v>
       </c>
       <c r="C70" s="18" t="n">
-        <v>48.37</v>
+        <v>44.58</v>
       </c>
       <c r="D70" t="n">
         <v>120</v>
@@ -5613,22 +5613,22 @@
         <v>67615</v>
       </c>
       <c r="K70" s="15" t="n">
-        <v>3271</v>
+        <v>3014</v>
       </c>
       <c r="L70" s="15" t="n">
-        <v>170.083</v>
+        <v>156.747</v>
       </c>
       <c r="M70" t="n">
         <v>599</v>
       </c>
       <c r="N70" t="n">
-        <v>8.07</v>
+        <v>7.44</v>
       </c>
       <c r="O70" t="n">
         <v>6</v>
       </c>
       <c r="P70" s="15" t="n">
-        <v>159.44310071703</v>
+        <v>146.973496185345</v>
       </c>
     </row>
     <row r="71">
@@ -5639,7 +5639,7 @@
         <v>327</v>
       </c>
       <c r="C71" s="18" t="n">
-        <v>40.4</v>
+        <v>37.23</v>
       </c>
       <c r="D71" t="n">
         <v>778</v>
@@ -5663,22 +5663,22 @@
         <v>34483</v>
       </c>
       <c r="K71" s="15" t="n">
-        <v>1393</v>
+        <v>1284</v>
       </c>
       <c r="L71" s="15" t="n">
-        <v>72.437</v>
+        <v>66.757</v>
       </c>
       <c r="M71" t="n">
         <v>592</v>
       </c>
       <c r="N71" t="n">
-        <v>6.83</v>
+        <v>6.29</v>
       </c>
       <c r="O71" t="n">
         <v>3</v>
       </c>
       <c r="P71" s="15" t="n">
-        <v>67.9055513287014</v>
+        <v>62.5945612027349</v>
       </c>
     </row>
     <row r="72">
@@ -5689,7 +5689,7 @@
         <v>328</v>
       </c>
       <c r="C72" s="18" t="n">
-        <v>36.93</v>
+        <v>34.03</v>
       </c>
       <c r="D72" t="n">
         <v>312</v>
@@ -5713,22 +5713,22 @@
         <v>94175</v>
       </c>
       <c r="K72" s="15" t="n">
-        <v>3478</v>
+        <v>3205</v>
       </c>
       <c r="L72" s="15" t="n">
-        <v>180.836</v>
+        <v>166.656</v>
       </c>
       <c r="M72" t="n">
         <v>520</v>
       </c>
       <c r="N72" t="n">
-        <v>7.11</v>
+        <v>6.55</v>
       </c>
       <c r="O72" t="n">
         <v>3</v>
       </c>
       <c r="P72" s="15" t="n">
-        <v>169.523424217969</v>
+        <v>156.264649277274</v>
       </c>
     </row>
     <row r="73">
@@ -5739,7 +5739,7 @@
         <v>329</v>
       </c>
       <c r="C73" s="18" t="n">
-        <v>43.1</v>
+        <v>39.72</v>
       </c>
       <c r="D73" t="n">
         <v>151</v>
@@ -5763,22 +5763,22 @@
         <v>56803</v>
       </c>
       <c r="K73" s="15" t="n">
-        <v>2448</v>
+        <v>2256</v>
       </c>
       <c r="L73" s="15" t="n">
-        <v>127.304</v>
+        <v>117.322</v>
       </c>
       <c r="M73" t="n">
         <v>421</v>
       </c>
       <c r="N73" t="n">
-        <v>10.24</v>
+        <v>9.43</v>
       </c>
       <c r="O73" t="n">
         <v>8</v>
       </c>
       <c r="P73" s="15" t="n">
-        <v>119.340230908914</v>
+        <v>110.006727525612</v>
       </c>
     </row>
     <row r="74">
@@ -5789,7 +5789,7 @@
         <v>330</v>
       </c>
       <c r="C74" s="18" t="n">
-        <v>61.64</v>
+        <v>56.81</v>
       </c>
       <c r="D74" t="n">
         <v>163</v>
@@ -5813,22 +5813,22 @@
         <v>26204</v>
       </c>
       <c r="K74" s="15" t="n">
-        <v>1615</v>
+        <v>1489</v>
       </c>
       <c r="L74" s="15" t="n">
-        <v>83.996</v>
+        <v>77.41</v>
       </c>
       <c r="M74" t="n">
         <v>493</v>
       </c>
       <c r="N74" t="n">
-        <v>12.51</v>
+        <v>11.53</v>
       </c>
       <c r="O74" t="n">
         <v>10</v>
       </c>
       <c r="P74" s="15" t="n">
-        <v>78.7414538068336</v>
+        <v>72.5833243360803</v>
       </c>
     </row>
     <row r="75">
@@ -5839,7 +5839,7 @@
         <v>331</v>
       </c>
       <c r="C75" s="18" t="n">
-        <v>25.98</v>
+        <v>23.94</v>
       </c>
       <c r="D75" t="n">
         <v>200</v>
@@ -5863,22 +5863,22 @@
         <v>77467</v>
       </c>
       <c r="K75" s="15" t="n">
-        <v>2012</v>
+        <v>1855</v>
       </c>
       <c r="L75" s="15" t="n">
-        <v>104.64</v>
+        <v>96.435</v>
       </c>
       <c r="M75" t="n">
         <v>421</v>
       </c>
       <c r="N75" t="n">
-        <v>6.17</v>
+        <v>5.68</v>
       </c>
       <c r="O75" t="n">
         <v>1</v>
       </c>
       <c r="P75" s="15" t="n">
-        <v>98.0940250291331</v>
+        <v>90.4220757311704</v>
       </c>
     </row>
     <row r="76">
@@ -5889,7 +5889,7 @@
         <v>332</v>
       </c>
       <c r="C76" s="18" t="n">
-        <v>51.29</v>
+        <v>47.27</v>
       </c>
       <c r="D76" t="n">
         <v>243</v>
@@ -5913,22 +5913,22 @@
         <v>30036</v>
       </c>
       <c r="K76" s="15" t="n">
-        <v>1541</v>
+        <v>1420</v>
       </c>
       <c r="L76" s="15" t="n">
-        <v>80.108</v>
+        <v>73.827</v>
       </c>
       <c r="M76" t="n">
         <v>547</v>
       </c>
       <c r="N76" t="n">
-        <v>9.37</v>
+        <v>8.64</v>
       </c>
       <c r="O76" t="n">
         <v>8</v>
       </c>
       <c r="P76" s="15" t="n">
-        <v>75.0966758126318</v>
+        <v>69.223731892001</v>
       </c>
     </row>
     <row r="77">
@@ -5939,7 +5939,7 @@
         <v>333</v>
       </c>
       <c r="C77" s="18" t="n">
-        <v>35.56</v>
+        <v>32.77</v>
       </c>
       <c r="D77" t="n">
         <v>400</v>
@@ -5963,22 +5963,22 @@
         <v>21559</v>
       </c>
       <c r="K77" s="15" t="n">
-        <v>767</v>
+        <v>706</v>
       </c>
       <c r="L77" s="15" t="n">
-        <v>39.861</v>
+        <v>36.735</v>
       </c>
       <c r="M77" t="n">
         <v>680</v>
       </c>
       <c r="N77" t="n">
-        <v>5.23</v>
+        <v>4.82</v>
       </c>
       <c r="O77" t="n">
         <v>1</v>
       </c>
       <c r="P77" s="15" t="n">
-        <v>37.3674114266655</v>
+        <v>34.4444957949349</v>
       </c>
     </row>
     <row r="78">
@@ -5989,7 +5989,7 @@
         <v>334</v>
       </c>
       <c r="C78" s="18" t="n">
-        <v>56.96</v>
+        <v>52.5</v>
       </c>
       <c r="D78" t="n">
         <v>47</v>
@@ -6013,22 +6013,22 @@
         <v>18578</v>
       </c>
       <c r="K78" s="15" t="n">
-        <v>1058</v>
+        <v>975</v>
       </c>
       <c r="L78" s="15" t="n">
-        <v>55.031</v>
+        <v>50.716</v>
       </c>
       <c r="M78" t="n">
         <v>429</v>
       </c>
       <c r="N78" t="n">
-        <v>13.27</v>
+        <v>12.23</v>
       </c>
       <c r="O78" t="n">
         <v>10</v>
       </c>
       <c r="P78" s="15" t="n">
-        <v>51.5884202157705</v>
+        <v>47.5537511565514</v>
       </c>
     </row>
     <row r="79">
@@ -6039,7 +6039,7 @@
         <v>335</v>
       </c>
       <c r="C79" s="18" t="n">
-        <v>43.33</v>
+        <v>39.93</v>
       </c>
       <c r="D79" t="n">
         <v>377</v>
@@ -6063,22 +6063,22 @@
         <v>30202</v>
       </c>
       <c r="K79" s="15" t="n">
-        <v>1309</v>
+        <v>1206</v>
       </c>
       <c r="L79" s="15" t="n">
-        <v>68.043</v>
+        <v>62.708</v>
       </c>
       <c r="M79" t="n">
         <v>567</v>
       </c>
       <c r="N79" t="n">
-        <v>7.64</v>
+        <v>7.04</v>
       </c>
       <c r="O79" t="n">
         <v>5</v>
       </c>
       <c r="P79" s="15" t="n">
-        <v>63.7864272272296</v>
+        <v>58.7980248348653</v>
       </c>
     </row>
     <row r="80">
@@ -6089,7 +6089,7 @@
         <v>336</v>
       </c>
       <c r="C80" s="18" t="n">
-        <v>54.29</v>
+        <v>50.03</v>
       </c>
       <c r="D80" t="n">
         <v>75</v>
@@ -6113,22 +6113,22 @@
         <v>31804</v>
       </c>
       <c r="K80" s="15" t="n">
-        <v>1727</v>
+        <v>1591</v>
       </c>
       <c r="L80" s="15" t="n">
-        <v>89.78</v>
+        <v>82.74</v>
       </c>
       <c r="M80" t="n">
         <v>463</v>
       </c>
       <c r="N80" t="n">
-        <v>11.72</v>
+        <v>10.8</v>
       </c>
       <c r="O80" t="n">
         <v>10</v>
       </c>
       <c r="P80" s="15" t="n">
-        <v>84.1636235389485</v>
+        <v>77.5809876704209</v>
       </c>
     </row>
     <row r="81">
@@ -6139,7 +6139,7 @@
         <v>337</v>
       </c>
       <c r="C81" s="18" t="n">
-        <v>48.98</v>
+        <v>45.14</v>
       </c>
       <c r="D81" t="n">
         <v>18</v>
@@ -6163,22 +6163,22 @@
         <v>36891</v>
       </c>
       <c r="K81" s="15" t="n">
-        <v>1807</v>
+        <v>1665</v>
       </c>
       <c r="L81" s="15" t="n">
-        <v>93.96</v>
+        <v>86.592</v>
       </c>
       <c r="M81" t="n">
         <v>505</v>
       </c>
       <c r="N81" t="n">
-        <v>9.69</v>
+        <v>8.93</v>
       </c>
       <c r="O81" t="n">
         <v>8</v>
       </c>
       <c r="P81" s="15" t="n">
-        <v>88.0821348598752</v>
+        <v>81.19280740098</v>
       </c>
     </row>
     <row r="82">
@@ -6189,7 +6189,7 @@
         <v>338</v>
       </c>
       <c r="C82" s="18" t="n">
-        <v>35.5</v>
+        <v>32.72</v>
       </c>
       <c r="D82" t="n">
         <v>156</v>
@@ -6213,22 +6213,22 @@
         <v>106988</v>
       </c>
       <c r="K82" s="15" t="n">
-        <v>3798</v>
+        <v>3501</v>
       </c>
       <c r="L82" s="15" t="n">
-        <v>197.522</v>
+        <v>182.033</v>
       </c>
       <c r="M82" t="n">
         <v>545</v>
       </c>
       <c r="N82" t="n">
-        <v>6.51</v>
+        <v>6</v>
       </c>
       <c r="O82" t="n">
         <v>2</v>
       </c>
       <c r="P82" s="15" t="n">
-        <v>185.165596443085</v>
+        <v>170.682861114452</v>
       </c>
     </row>
     <row r="83">
@@ -6239,7 +6239,7 @@
         <v>339</v>
       </c>
       <c r="C83" s="18" t="n">
-        <v>42.55</v>
+        <v>39.22</v>
       </c>
       <c r="D83" t="n">
         <v>165</v>
@@ -6263,22 +6263,22 @@
         <v>27763</v>
       </c>
       <c r="K83" s="15" t="n">
-        <v>1181</v>
+        <v>1089</v>
       </c>
       <c r="L83" s="15" t="n">
-        <v>61.434</v>
+        <v>56.617</v>
       </c>
       <c r="M83" t="n">
         <v>452</v>
       </c>
       <c r="N83" t="n">
-        <v>9.41</v>
+        <v>8.67</v>
       </c>
       <c r="O83" t="n">
         <v>8</v>
       </c>
       <c r="P83" s="15" t="n">
-        <v>57.5908671028265</v>
+        <v>53.0868114447211</v>
       </c>
     </row>
     <row r="84">
@@ -6289,7 +6289,7 @@
         <v>340</v>
       </c>
       <c r="C84" s="18" t="n">
-        <v>45.38</v>
+        <v>41.82</v>
       </c>
       <c r="D84" t="n">
         <v>145</v>
@@ -6313,22 +6313,22 @@
         <v>24374</v>
       </c>
       <c r="K84" s="15" t="n">
-        <v>1106</v>
+        <v>1019</v>
       </c>
       <c r="L84" s="15" t="n">
-        <v>57.52</v>
+        <v>53.01</v>
       </c>
       <c r="M84" t="n">
         <v>516</v>
       </c>
       <c r="N84" t="n">
-        <v>8.8</v>
+        <v>8.11</v>
       </c>
       <c r="O84" t="n">
         <v>7</v>
       </c>
       <c r="P84" s="15" t="n">
-        <v>53.9217155932314</v>
+        <v>49.7047154509187</v>
       </c>
     </row>
     <row r="85">
@@ -6339,7 +6339,7 @@
         <v>341</v>
       </c>
       <c r="C85" s="18" t="n">
-        <v>51.39</v>
+        <v>47.36</v>
       </c>
       <c r="D85" t="n">
         <v>556</v>
@@ -6363,22 +6363,22 @@
         <v>23140</v>
       </c>
       <c r="K85" s="15" t="n">
-        <v>1189</v>
+        <v>1096</v>
       </c>
       <c r="L85" s="15" t="n">
-        <v>61.837</v>
+        <v>56.988</v>
       </c>
       <c r="M85" t="n">
         <v>500</v>
       </c>
       <c r="N85" t="n">
-        <v>10.27</v>
+        <v>9.47</v>
       </c>
       <c r="O85" t="n">
         <v>9</v>
       </c>
       <c r="P85" s="15" t="n">
-        <v>57.968656591423</v>
+        <v>53.4346788175241</v>
       </c>
     </row>
     <row r="86">
@@ -6389,7 +6389,7 @@
         <v>342</v>
       </c>
       <c r="C86" s="18" t="n">
-        <v>43.28</v>
+        <v>39.88</v>
       </c>
       <c r="D86" t="n">
         <v>236</v>
@@ -6413,22 +6413,22 @@
         <v>59798</v>
       </c>
       <c r="K86" s="15" t="n">
-        <v>2588</v>
+        <v>2385</v>
       </c>
       <c r="L86" s="15" t="n">
-        <v>134.572</v>
+        <v>124.02</v>
       </c>
       <c r="M86" t="n">
         <v>550</v>
       </c>
       <c r="N86" t="n">
-        <v>7.86</v>
+        <v>7.25</v>
       </c>
       <c r="O86" t="n">
         <v>5</v>
       </c>
       <c r="P86" s="15" t="n">
-        <v>126.153565904248</v>
+        <v>116.28709319417</v>
       </c>
     </row>
     <row r="87">
@@ -6439,7 +6439,7 @@
         <v>343</v>
       </c>
       <c r="C87" s="18" t="n">
-        <v>44.9</v>
+        <v>41.38</v>
       </c>
       <c r="D87" t="n">
         <v>459</v>
@@ -6463,22 +6463,22 @@
         <v>95181</v>
       </c>
       <c r="K87" s="15" t="n">
-        <v>4273</v>
+        <v>3938</v>
       </c>
       <c r="L87" s="15" t="n">
-        <v>222.215</v>
+        <v>204.791</v>
       </c>
       <c r="M87" t="n">
         <v>558</v>
       </c>
       <c r="N87" t="n">
-        <v>8.04</v>
+        <v>7.41</v>
       </c>
       <c r="O87" t="n">
         <v>6</v>
       </c>
       <c r="P87" s="15" t="n">
-        <v>208.313873966445</v>
+        <v>192.02185213939</v>
       </c>
     </row>
     <row r="88">
@@ -6489,7 +6489,7 @@
         <v>344</v>
       </c>
       <c r="C88" s="18" t="n">
-        <v>46.94</v>
+        <v>43.26</v>
       </c>
       <c r="D88" t="n">
         <v>125</v>
@@ -6513,22 +6513,22 @@
         <v>33849</v>
       </c>
       <c r="K88" s="15" t="n">
-        <v>1589</v>
+        <v>1464</v>
       </c>
       <c r="L88" s="15" t="n">
-        <v>82.619</v>
+        <v>76.141</v>
       </c>
       <c r="M88" t="n">
         <v>513</v>
       </c>
       <c r="N88" t="n">
-        <v>9.16</v>
+        <v>8.44</v>
       </c>
       <c r="O88" t="n">
         <v>8</v>
       </c>
       <c r="P88" s="15" t="n">
-        <v>77.4505949338871</v>
+        <v>71.3934491444708</v>
       </c>
     </row>
     <row r="89">
@@ -6539,7 +6539,7 @@
         <v>345</v>
       </c>
       <c r="C89" s="18" t="n">
-        <v>41.54</v>
+        <v>38.28</v>
       </c>
       <c r="D89" t="n">
         <v>5</v>
@@ -6563,22 +6563,22 @@
         <v>55121</v>
       </c>
       <c r="K89" s="15" t="n">
-        <v>2290</v>
+        <v>2110</v>
       </c>
       <c r="L89" s="15" t="n">
-        <v>119.059</v>
+        <v>109.724</v>
       </c>
       <c r="M89" t="n">
         <v>456</v>
       </c>
       <c r="N89" t="n">
-        <v>9.12</v>
+        <v>8.4</v>
       </c>
       <c r="O89" t="n">
         <v>8</v>
       </c>
       <c r="P89" s="15" t="n">
-        <v>111.611014200531</v>
+        <v>102.882478742437</v>
       </c>
     </row>
     <row r="90">
@@ -6589,7 +6589,7 @@
         <v>346</v>
       </c>
       <c r="C90" s="18" t="n">
-        <v>45.29</v>
+        <v>41.74</v>
       </c>
       <c r="D90" t="n">
         <v>61</v>
@@ -6613,22 +6613,22 @@
         <v>95012</v>
       </c>
       <c r="K90" s="15" t="n">
-        <v>4303</v>
+        <v>3966</v>
       </c>
       <c r="L90" s="15" t="n">
-        <v>223.776</v>
+        <v>206.23</v>
       </c>
       <c r="M90" t="n">
         <v>590</v>
       </c>
       <c r="N90" t="n">
-        <v>7.68</v>
+        <v>7.08</v>
       </c>
       <c r="O90" t="n">
         <v>5</v>
       </c>
       <c r="P90" s="15" t="n">
-        <v>209.777222332944</v>
+        <v>193.371127474872</v>
       </c>
     </row>
     <row r="91">
@@ -6639,7 +6639,7 @@
         <v>347</v>
       </c>
       <c r="C91" s="18" t="n">
-        <v>53.12</v>
+        <v>48.95</v>
       </c>
       <c r="D91" t="n">
         <v>124</v>
@@ -6663,22 +6663,22 @@
         <v>31764</v>
       </c>
       <c r="K91" s="15" t="n">
-        <v>1687</v>
+        <v>1555</v>
       </c>
       <c r="L91" s="15" t="n">
-        <v>87.733</v>
+        <v>80.854</v>
       </c>
       <c r="M91" t="n">
         <v>463</v>
       </c>
       <c r="N91" t="n">
-        <v>11.47</v>
+        <v>10.57</v>
       </c>
       <c r="O91" t="n">
         <v>10</v>
       </c>
       <c r="P91" s="15" t="n">
-        <v>82.2446779231741</v>
+        <v>75.8125837213465</v>
       </c>
     </row>
     <row r="92">
@@ -6689,7 +6689,7 @@
         <v>348</v>
       </c>
       <c r="C92" s="18" t="n">
-        <v>39.92</v>
+        <v>36.79</v>
       </c>
       <c r="D92" t="n">
         <v>326</v>
@@ -6713,22 +6713,22 @@
         <v>65455</v>
       </c>
       <c r="K92" s="15" t="n">
-        <v>2613</v>
+        <v>2408</v>
       </c>
       <c r="L92" s="15" t="n">
-        <v>135.864</v>
+        <v>125.211</v>
       </c>
       <c r="M92" t="n">
         <v>641</v>
       </c>
       <c r="N92" t="n">
-        <v>6.23</v>
+        <v>5.74</v>
       </c>
       <c r="O92" t="n">
         <v>2</v>
       </c>
       <c r="P92" s="15" t="n">
-        <v>127.364742130716</v>
+        <v>117.403831849179</v>
       </c>
     </row>
     <row r="93">
@@ -6739,7 +6739,7 @@
         <v>349</v>
       </c>
       <c r="C93" s="18" t="n">
-        <v>36.24</v>
+        <v>33.4</v>
       </c>
       <c r="D93" t="n">
         <v>54</v>
@@ -6763,22 +6763,22 @@
         <v>28328</v>
       </c>
       <c r="K93" s="15" t="n">
-        <v>1027</v>
+        <v>946</v>
       </c>
       <c r="L93" s="15" t="n">
-        <v>53.379</v>
+        <v>49.194</v>
       </c>
       <c r="M93" t="n">
         <v>518</v>
       </c>
       <c r="N93" t="n">
-        <v>7</v>
+        <v>6.45</v>
       </c>
       <c r="O93" t="n">
         <v>3</v>
       </c>
       <c r="P93" s="15" t="n">
-        <v>50.0397645453946</v>
+        <v>46.1266510449442</v>
       </c>
     </row>
     <row r="94">
@@ -6789,7 +6789,7 @@
         <v>350</v>
       </c>
       <c r="C94" s="18" t="n">
-        <v>36.71</v>
+        <v>33.83</v>
       </c>
       <c r="D94" t="n">
         <v>60</v>
@@ -6813,22 +6813,22 @@
         <v>38738</v>
       </c>
       <c r="K94" s="15" t="n">
-        <v>1422</v>
+        <v>1311</v>
       </c>
       <c r="L94" s="15" t="n">
-        <v>73.951</v>
+        <v>68.152</v>
       </c>
       <c r="M94" t="n">
         <v>505</v>
       </c>
       <c r="N94" t="n">
-        <v>7.27</v>
+        <v>6.7</v>
       </c>
       <c r="O94" t="n">
         <v>4</v>
       </c>
       <c r="P94" s="15" t="n">
-        <v>69.3248398789127</v>
+        <v>63.9025800303907</v>
       </c>
     </row>
     <row r="95">
@@ -6839,7 +6839,7 @@
         <v>351</v>
       </c>
       <c r="C95" s="18" t="n">
-        <v>48.41</v>
+        <v>44.62</v>
       </c>
       <c r="D95" t="n">
         <v>372</v>
@@ -6863,22 +6863,22 @@
         <v>28148</v>
       </c>
       <c r="K95" s="15" t="n">
-        <v>1363</v>
+        <v>1256</v>
       </c>
       <c r="L95" s="15" t="n">
-        <v>70.862</v>
+        <v>65.306</v>
       </c>
       <c r="M95" t="n">
         <v>558</v>
       </c>
       <c r="N95" t="n">
-        <v>8.67</v>
+        <v>7.99</v>
       </c>
       <c r="O95" t="n">
         <v>7</v>
       </c>
       <c r="P95" s="15" t="n">
-        <v>66.4290787616058</v>
+        <v>61.2340340923919</v>
       </c>
     </row>
     <row r="96">
@@ -6889,7 +6889,7 @@
         <v>352</v>
       </c>
       <c r="C96" s="18" t="n">
-        <v>47.88</v>
+        <v>44.13</v>
       </c>
       <c r="D96" t="n">
         <v>27</v>
@@ -6913,22 +6913,22 @@
         <v>30605</v>
       </c>
       <c r="K96" s="15" t="n">
-        <v>1465</v>
+        <v>1351</v>
       </c>
       <c r="L96" s="15" t="n">
-        <v>76.203</v>
+        <v>70.228</v>
       </c>
       <c r="M96" t="n">
         <v>593</v>
       </c>
       <c r="N96" t="n">
-        <v>8.07</v>
+        <v>7.44</v>
       </c>
       <c r="O96" t="n">
         <v>6</v>
       </c>
       <c r="P96" s="15" t="n">
-        <v>71.4359612891345</v>
+        <v>65.8491370814397</v>
       </c>
     </row>
     <row r="97">
@@ -6939,7 +6939,7 @@
         <v>353</v>
       </c>
       <c r="C97" s="18" t="n">
-        <v>48.14</v>
+        <v>44.37</v>
       </c>
       <c r="D97" t="n">
         <v>73</v>
@@ -6963,22 +6963,22 @@
         <v>16942</v>
       </c>
       <c r="K97" s="15" t="n">
-        <v>816</v>
+        <v>752</v>
       </c>
       <c r="L97" s="15" t="n">
-        <v>42.411</v>
+        <v>39.086</v>
       </c>
       <c r="M97" t="n">
         <v>468</v>
       </c>
       <c r="N97" t="n">
-        <v>10.29</v>
+        <v>9.48</v>
       </c>
       <c r="O97" t="n">
         <v>9</v>
       </c>
       <c r="P97" s="15" t="n">
-        <v>39.7578908210107</v>
+        <v>36.6489060198945</v>
       </c>
     </row>
     <row r="98">
@@ -6989,7 +6989,7 @@
         <v>354</v>
       </c>
       <c r="C98" s="18" t="n">
-        <v>44.19</v>
+        <v>40.73</v>
       </c>
       <c r="D98" t="n">
         <v>46</v>
@@ -7013,22 +7013,22 @@
         <v>12172</v>
       </c>
       <c r="K98" s="15" t="n">
-        <v>538</v>
+        <v>496</v>
       </c>
       <c r="L98" s="15" t="n">
-        <v>27.972</v>
+        <v>25.779</v>
       </c>
       <c r="M98" t="n">
         <v>779</v>
       </c>
       <c r="N98" t="n">
-        <v>5.67</v>
+        <v>5.23</v>
       </c>
       <c r="O98" t="n">
         <v>1</v>
       </c>
       <c r="P98" s="15" t="n">
-        <v>26.222152791618</v>
+        <v>24.1716253463353</v>
       </c>
     </row>
     <row r="99">
@@ -7039,7 +7039,7 @@
         <v>355</v>
       </c>
       <c r="C99" s="18" t="n">
-        <v>40.62</v>
+        <v>37.43</v>
       </c>
       <c r="D99" t="n">
         <v>211</v>
@@ -7063,22 +7063,22 @@
         <v>25632</v>
       </c>
       <c r="K99" s="15" t="n">
-        <v>1041</v>
+        <v>959</v>
       </c>
       <c r="L99" s="15" t="n">
-        <v>54.138</v>
+        <v>49.893</v>
       </c>
       <c r="M99" t="n">
         <v>455</v>
       </c>
       <c r="N99" t="n">
-        <v>8.93</v>
+        <v>8.23</v>
       </c>
       <c r="O99" t="n">
         <v>7</v>
       </c>
       <c r="P99" s="15" t="n">
-        <v>50.7512837062998</v>
+        <v>46.7820669306298</v>
       </c>
     </row>
     <row r="100">
@@ -7089,7 +7089,7 @@
         <v>356</v>
       </c>
       <c r="C100" s="18" t="n">
-        <v>40.16</v>
+        <v>37.01</v>
       </c>
       <c r="D100" t="n">
         <v>54</v>
@@ -7113,22 +7113,22 @@
         <v>37100</v>
       </c>
       <c r="K100" s="15" t="n">
-        <v>1490</v>
+        <v>1373</v>
       </c>
       <c r="L100" s="15" t="n">
-        <v>77.482</v>
+        <v>71.407</v>
       </c>
       <c r="M100" t="n">
         <v>509</v>
       </c>
       <c r="N100" t="n">
-        <v>7.89</v>
+        <v>7.27</v>
       </c>
       <c r="O100" t="n">
         <v>5</v>
       </c>
       <c r="P100" s="15" t="n">
-        <v>72.6349507579061</v>
+        <v>66.9546239615874</v>
       </c>
     </row>
     <row r="101">
@@ -7139,7 +7139,7 @@
         <v>357</v>
       </c>
       <c r="C101" s="18" t="n">
-        <v>48.57</v>
+        <v>44.76</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -7163,22 +7163,22 @@
         <v>3258</v>
       </c>
       <c r="K101" s="15" t="n">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L101" s="15" t="n">
-        <v>8.229</v>
+        <v>7.584</v>
       </c>
       <c r="M101" t="n">
         <v>662</v>
       </c>
       <c r="N101" t="n">
-        <v>7.34</v>
+        <v>6.77</v>
       </c>
       <c r="O101" t="n">
         <v>4</v>
       </c>
       <c r="P101" s="15" t="n">
-        <v>7.71421762198716</v>
+        <v>7.11112171250268</v>
       </c>
     </row>
     <row r="102">
@@ -7189,7 +7189,7 @@
         <v>358</v>
       </c>
       <c r="C102" s="18" t="n">
-        <v>59.53</v>
+        <v>54.86</v>
       </c>
       <c r="D102" t="n">
         <v>60</v>
@@ -7213,22 +7213,22 @@
         <v>38440</v>
       </c>
       <c r="K102" s="15" t="n">
-        <v>2288</v>
+        <v>2109</v>
       </c>
       <c r="L102" s="15" t="n">
-        <v>118.985</v>
+        <v>109.655</v>
       </c>
       <c r="M102" t="n">
         <v>441</v>
       </c>
       <c r="N102" t="n">
-        <v>13.49</v>
+        <v>12.43</v>
       </c>
       <c r="O102" t="n">
         <v>10</v>
       </c>
       <c r="P102" s="15" t="n">
-        <v>111.54164342595</v>
+        <v>102.817781036983</v>
       </c>
     </row>
     <row r="103">
@@ -7239,7 +7239,7 @@
         <v>359</v>
       </c>
       <c r="C103" s="18" t="n">
-        <v>47.47</v>
+        <v>43.75</v>
       </c>
       <c r="D103" t="n">
         <v>126</v>
@@ -7263,22 +7263,22 @@
         <v>37750</v>
       </c>
       <c r="K103" s="15" t="n">
-        <v>1792</v>
+        <v>1651</v>
       </c>
       <c r="L103" s="15" t="n">
-        <v>93.184</v>
+        <v>85.877</v>
       </c>
       <c r="M103" t="n">
         <v>402</v>
       </c>
       <c r="N103" t="n">
-        <v>11.8</v>
+        <v>10.87</v>
       </c>
       <c r="O103" t="n">
         <v>10</v>
       </c>
       <c r="P103" s="15" t="n">
-        <v>87.3546791696745</v>
+        <v>80.5223891488124</v>
       </c>
     </row>
     <row r="104">
@@ -7289,7 +7289,7 @@
         <v>360</v>
       </c>
       <c r="C104" s="18" t="n">
-        <v>53.99</v>
+        <v>49.76</v>
       </c>
       <c r="D104" t="n">
         <v>10</v>
@@ -7313,22 +7313,22 @@
         <v>21157</v>
       </c>
       <c r="K104" s="15" t="n">
-        <v>1142</v>
+        <v>1053</v>
       </c>
       <c r="L104" s="15" t="n">
-        <v>59.396</v>
+        <v>54.738</v>
       </c>
       <c r="M104" t="n">
         <v>496</v>
       </c>
       <c r="N104" t="n">
-        <v>10.89</v>
+        <v>10.04</v>
       </c>
       <c r="O104" t="n">
         <v>9</v>
       </c>
       <c r="P104" s="15" t="n">
-        <v>55.6803584731497</v>
+        <v>51.3249710309826</v>
       </c>
     </row>
     <row r="105">
@@ -7339,7 +7339,7 @@
         <v>361</v>
       </c>
       <c r="C105" s="18" t="n">
-        <v>41.21</v>
+        <v>37.97</v>
       </c>
       <c r="D105" t="n">
         <v>157</v>
@@ -7363,22 +7363,22 @@
         <v>64968</v>
       </c>
       <c r="K105" s="15" t="n">
-        <v>2677</v>
+        <v>2467</v>
       </c>
       <c r="L105" s="15" t="n">
-        <v>139.207</v>
+        <v>128.291</v>
       </c>
       <c r="M105" t="n">
         <v>522</v>
       </c>
       <c r="N105" t="n">
-        <v>7.89</v>
+        <v>7.27</v>
       </c>
       <c r="O105" t="n">
         <v>5</v>
       </c>
       <c r="P105" s="15" t="n">
-        <v>130.498613744558</v>
+        <v>120.291787396978</v>
       </c>
     </row>
     <row r="106">
@@ -7389,7 +7389,7 @@
         <v>362</v>
       </c>
       <c r="C106" s="18" t="n">
-        <v>52.72</v>
+        <v>48.59</v>
       </c>
       <c r="D106" t="n">
         <v>38</v>
@@ -7413,22 +7413,22 @@
         <v>36082</v>
       </c>
       <c r="K106" s="15" t="n">
-        <v>1902</v>
+        <v>1753</v>
       </c>
       <c r="L106" s="15" t="n">
-        <v>98.92</v>
+        <v>91.163</v>
       </c>
       <c r="M106" t="n">
         <v>536</v>
       </c>
       <c r="N106" t="n">
-        <v>9.84</v>
+        <v>9.07</v>
       </c>
       <c r="O106" t="n">
         <v>8</v>
       </c>
       <c r="P106" s="15" t="n">
-        <v>92.7318516426017</v>
+        <v>85.4787959753273</v>
       </c>
     </row>
     <row r="107">
@@ -7439,7 +7439,7 @@
         <v>363</v>
       </c>
       <c r="C107" s="18" t="n">
-        <v>41.03</v>
+        <v>37.81</v>
       </c>
       <c r="D107" t="n">
         <v>12</v>
@@ -7463,22 +7463,22 @@
         <v>17192</v>
       </c>
       <c r="K107" s="15" t="n">
-        <v>705</v>
+        <v>650</v>
       </c>
       <c r="L107" s="15" t="n">
-        <v>36.682</v>
+        <v>33.806</v>
       </c>
       <c r="M107" t="n">
         <v>498</v>
       </c>
       <c r="N107" t="n">
-        <v>8.23</v>
+        <v>7.59</v>
       </c>
       <c r="O107" t="n">
         <v>6</v>
       </c>
       <c r="P107" s="15" t="n">
-        <v>34.3872804483817</v>
+        <v>31.6981250808103</v>
       </c>
     </row>
     <row r="108">
@@ -7489,7 +7489,7 @@
         <v>364</v>
       </c>
       <c r="C108" s="18" t="n">
-        <v>55.35</v>
+        <v>51.01</v>
       </c>
       <c r="D108" t="n">
         <v>28</v>
@@ -7513,22 +7513,22 @@
         <v>21225</v>
       </c>
       <c r="K108" s="15" t="n">
-        <v>1175</v>
+        <v>1083</v>
       </c>
       <c r="L108" s="15" t="n">
-        <v>61.087</v>
+        <v>56.297</v>
       </c>
       <c r="M108" t="n">
         <v>566</v>
       </c>
       <c r="N108" t="n">
-        <v>9.78</v>
+        <v>9.01</v>
       </c>
       <c r="O108" t="n">
         <v>8</v>
       </c>
       <c r="P108" s="15" t="n">
-        <v>57.2655744166156</v>
+        <v>52.7867641150796</v>
       </c>
     </row>
     <row r="109">
@@ -7539,7 +7539,7 @@
         <v>365</v>
       </c>
       <c r="C109" s="18" t="n">
-        <v>35.8</v>
+        <v>33</v>
       </c>
       <c r="D109" t="n">
         <v>167</v>
@@ -7563,22 +7563,22 @@
         <v>64912</v>
       </c>
       <c r="K109" s="15" t="n">
-        <v>2324</v>
+        <v>2142</v>
       </c>
       <c r="L109" s="15" t="n">
-        <v>120.85</v>
+        <v>111.374</v>
       </c>
       <c r="M109" t="n">
         <v>521</v>
       </c>
       <c r="N109" t="n">
-        <v>6.88</v>
+        <v>6.34</v>
       </c>
       <c r="O109" t="n">
         <v>3</v>
       </c>
       <c r="P109" s="15" t="n">
-        <v>113.289974433971</v>
+        <v>104.429597785901</v>
       </c>
     </row>
     <row r="110">
@@ -7589,7 +7589,7 @@
         <v>366</v>
       </c>
       <c r="C110" s="18" t="n">
-        <v>38.87</v>
+        <v>35.83</v>
       </c>
       <c r="D110" t="n">
         <v>164</v>
@@ -7613,22 +7613,22 @@
         <v>25299</v>
       </c>
       <c r="K110" s="15" t="n">
-        <v>983</v>
+        <v>906</v>
       </c>
       <c r="L110" s="15" t="n">
-        <v>51.14</v>
+        <v>47.13</v>
       </c>
       <c r="M110" t="n">
         <v>582</v>
       </c>
       <c r="N110" t="n">
-        <v>6.67</v>
+        <v>6.15</v>
       </c>
       <c r="O110" t="n">
         <v>2</v>
       </c>
       <c r="P110" s="15" t="n">
-        <v>47.9408298928695</v>
+        <v>44.1913457687568</v>
       </c>
     </row>
     <row r="111">
@@ -7639,7 +7639,7 @@
         <v>367</v>
       </c>
       <c r="C111" s="18" t="n">
-        <v>41.53</v>
+        <v>38.27</v>
       </c>
       <c r="D111" t="n">
         <v>184</v>
@@ -7663,22 +7663,22 @@
         <v>19723</v>
       </c>
       <c r="K111" s="15" t="n">
-        <v>819</v>
+        <v>755</v>
       </c>
       <c r="L111" s="15" t="n">
-        <v>42.59</v>
+        <v>39.25</v>
       </c>
       <c r="M111" t="n">
         <v>472</v>
       </c>
       <c r="N111" t="n">
-        <v>8.81</v>
+        <v>8.12</v>
       </c>
       <c r="O111" t="n">
         <v>7</v>
       </c>
       <c r="P111" s="15" t="n">
-        <v>39.9256931000648</v>
+        <v>36.8026802763357</v>
       </c>
     </row>
     <row r="112">
@@ -7689,7 +7689,7 @@
         <v>368</v>
       </c>
       <c r="C112" s="18" t="n">
-        <v>37.34</v>
+        <v>34.41</v>
       </c>
       <c r="D112" t="n">
         <v>52</v>
@@ -7713,22 +7713,22 @@
         <v>33803</v>
       </c>
       <c r="K112" s="15" t="n">
-        <v>1262</v>
+        <v>1163</v>
       </c>
       <c r="L112" s="15" t="n">
-        <v>65.629</v>
+        <v>60.482</v>
       </c>
       <c r="M112" t="n">
         <v>530</v>
       </c>
       <c r="N112" t="n">
-        <v>7.04</v>
+        <v>6.49</v>
       </c>
       <c r="O112" t="n">
         <v>3</v>
       </c>
       <c r="P112" s="15" t="n">
-        <v>61.5234400672494</v>
+        <v>56.7108205980468</v>
       </c>
     </row>
     <row r="113">
@@ -7739,7 +7739,7 @@
         <v>369</v>
       </c>
       <c r="C113" s="18" t="n">
-        <v>46.22</v>
+        <v>42.59</v>
       </c>
       <c r="D113" t="n">
         <v>46</v>
@@ -7763,22 +7763,22 @@
         <v>18976</v>
       </c>
       <c r="K113" s="15" t="n">
-        <v>877</v>
+        <v>808</v>
       </c>
       <c r="L113" s="15" t="n">
-        <v>45.606</v>
+        <v>42.03</v>
       </c>
       <c r="M113" t="n">
         <v>538</v>
       </c>
       <c r="N113" t="n">
-        <v>8.58</v>
+        <v>7.91</v>
       </c>
       <c r="O113" t="n">
         <v>7</v>
       </c>
       <c r="P113" s="15" t="n">
-        <v>42.7530208856904</v>
+        <v>39.409341452596</v>
       </c>
     </row>
     <row r="114">
@@ -7789,7 +7789,7 @@
         <v>370</v>
       </c>
       <c r="C114" s="18" t="n">
-        <v>34.96</v>
+        <v>32.22</v>
       </c>
       <c r="D114" t="n">
         <v>63</v>
@@ -7813,22 +7813,22 @@
         <v>39445</v>
       </c>
       <c r="K114" s="15" t="n">
-        <v>1379</v>
+        <v>1271</v>
       </c>
       <c r="L114" s="15" t="n">
-        <v>71.702</v>
+        <v>66.08</v>
       </c>
       <c r="M114" t="n">
         <v>590</v>
       </c>
       <c r="N114" t="n">
-        <v>5.92</v>
+        <v>5.46</v>
       </c>
       <c r="O114" t="n">
         <v>1</v>
       </c>
       <c r="P114" s="15" t="n">
-        <v>67.2165307973901</v>
+        <v>61.9597735709622</v>
       </c>
     </row>
     <row r="115">
@@ -7839,7 +7839,7 @@
         <v>371</v>
       </c>
       <c r="C115" s="18" t="n">
-        <v>51.3</v>
+        <v>47.28</v>
       </c>
       <c r="D115" t="n">
         <v>86</v>
@@ -7863,22 +7863,22 @@
         <v>18748</v>
       </c>
       <c r="K115" s="15" t="n">
-        <v>962</v>
+        <v>886</v>
       </c>
       <c r="L115" s="15" t="n">
-        <v>50.014</v>
+        <v>46.092</v>
       </c>
       <c r="M115" t="n">
         <v>488</v>
       </c>
       <c r="N115" t="n">
-        <v>10.52</v>
+        <v>9.7</v>
       </c>
       <c r="O115" t="n">
         <v>9</v>
       </c>
       <c r="P115" s="15" t="n">
-        <v>46.8852691877586</v>
+        <v>43.2180672432323</v>
       </c>
     </row>
     <row r="116">
@@ -7889,7 +7889,7 @@
         <v>372</v>
       </c>
       <c r="C116" s="18" t="n">
-        <v>40.93</v>
+        <v>37.72</v>
       </c>
       <c r="D116" t="n">
         <v>28</v>
@@ -7913,22 +7913,22 @@
         <v>98437</v>
       </c>
       <c r="K116" s="15" t="n">
-        <v>4029</v>
+        <v>3713</v>
       </c>
       <c r="L116" s="15" t="n">
-        <v>209.52</v>
+        <v>193.091</v>
       </c>
       <c r="M116" t="n">
         <v>540</v>
       </c>
       <c r="N116" t="n">
-        <v>7.58</v>
+        <v>6.99</v>
       </c>
       <c r="O116" t="n">
         <v>4</v>
       </c>
       <c r="P116" s="15" t="n">
-        <v>196.413036354205</v>
+        <v>181.051371649374</v>
       </c>
     </row>
     <row r="117">
@@ -7939,7 +7939,7 @@
         <v>373</v>
       </c>
       <c r="C117" s="18" t="n">
-        <v>66.03</v>
+        <v>60.85</v>
       </c>
       <c r="D117" t="n">
         <v>16</v>
@@ -7963,22 +7963,22 @@
         <v>30789</v>
       </c>
       <c r="K117" s="15" t="n">
-        <v>2033</v>
+        <v>1874</v>
       </c>
       <c r="L117" s="15" t="n">
-        <v>105.713</v>
+        <v>97.423</v>
       </c>
       <c r="M117" t="n">
         <v>541</v>
       </c>
       <c r="N117" t="n">
-        <v>12.22</v>
+        <v>11.26</v>
       </c>
       <c r="O117" t="n">
         <v>10</v>
       </c>
       <c r="P117" s="15" t="n">
-        <v>99.0999012605576</v>
+        <v>91.3484718614384</v>
       </c>
     </row>
     <row r="118">
@@ -7989,7 +7989,7 @@
         <v>374</v>
       </c>
       <c r="C118" s="18" t="n">
-        <v>50.92</v>
+        <v>46.93</v>
       </c>
       <c r="D118" t="n">
         <v>55</v>
@@ -8013,22 +8013,22 @@
         <v>20294</v>
       </c>
       <c r="K118" s="15" t="n">
-        <v>1033</v>
+        <v>952</v>
       </c>
       <c r="L118" s="15" t="n">
-        <v>53.734</v>
+        <v>49.521</v>
       </c>
       <c r="M118" t="n">
         <v>489</v>
       </c>
       <c r="N118" t="n">
-        <v>10.4</v>
+        <v>9.59</v>
       </c>
       <c r="O118" t="n">
         <v>9</v>
       </c>
       <c r="P118" s="15" t="n">
-        <v>50.3725567748035</v>
+        <v>46.4332619099216</v>
       </c>
     </row>
     <row r="119">
@@ -8039,7 +8039,7 @@
         <v>375</v>
       </c>
       <c r="C119" s="18" t="n">
-        <v>41.29</v>
+        <v>38.05</v>
       </c>
       <c r="D119" t="n">
         <v>161</v>
@@ -8063,22 +8063,22 @@
         <v>36216</v>
       </c>
       <c r="K119" s="15" t="n">
-        <v>1495</v>
+        <v>1378</v>
       </c>
       <c r="L119" s="15" t="n">
-        <v>77.752</v>
+        <v>71.656</v>
       </c>
       <c r="M119" t="n">
         <v>453</v>
       </c>
       <c r="N119" t="n">
-        <v>9.12</v>
+        <v>8.4</v>
       </c>
       <c r="O119" t="n">
         <v>8</v>
       </c>
       <c r="P119" s="15" t="n">
-        <v>72.8880603408367</v>
+        <v>67.1880982899647</v>
       </c>
     </row>
     <row r="120">
@@ -8089,7 +8089,7 @@
         <v>376</v>
       </c>
       <c r="C120" s="18" t="n">
-        <v>41.14</v>
+        <v>37.92</v>
       </c>
       <c r="D120" t="n">
         <v>96</v>
@@ -8113,22 +8113,22 @@
         <v>97749</v>
       </c>
       <c r="K120" s="15" t="n">
-        <v>4022</v>
+        <v>3706</v>
       </c>
       <c r="L120" s="15" t="n">
-        <v>209.124</v>
+        <v>192.726</v>
       </c>
       <c r="M120" t="n">
         <v>559</v>
       </c>
       <c r="N120" t="n">
-        <v>7.35</v>
+        <v>6.78</v>
       </c>
       <c r="O120" t="n">
         <v>4</v>
       </c>
       <c r="P120" s="15" t="n">
-        <v>196.041808965906</v>
+        <v>180.709130164002</v>
       </c>
     </row>
     <row r="121">
@@ -8139,7 +8139,7 @@
         <v>377</v>
       </c>
       <c r="C121" s="18" t="n">
-        <v>48.21</v>
+        <v>44.43</v>
       </c>
       <c r="D121" t="n">
         <v>60</v>
@@ -8163,22 +8163,22 @@
         <v>35699</v>
       </c>
       <c r="K121" s="15" t="n">
-        <v>1721</v>
+        <v>1586</v>
       </c>
       <c r="L121" s="15" t="n">
-        <v>89.496</v>
+        <v>82.479</v>
       </c>
       <c r="M121" t="n">
         <v>466</v>
       </c>
       <c r="N121" t="n">
-        <v>10.34</v>
+        <v>9.53</v>
       </c>
       <c r="O121" t="n">
         <v>9</v>
       </c>
       <c r="P121" s="15" t="n">
-        <v>83.8973897554214</v>
+        <v>77.3362615671821</v>
       </c>
     </row>
     <row r="122">
@@ -8189,7 +8189,7 @@
         <v>378</v>
       </c>
       <c r="C122" s="18" t="n">
-        <v>52.26</v>
+        <v>48.17</v>
       </c>
       <c r="D122" t="n">
         <v>116</v>
@@ -8213,22 +8213,22 @@
         <v>93710</v>
       </c>
       <c r="K122" s="15" t="n">
-        <v>4898</v>
+        <v>4514</v>
       </c>
       <c r="L122" s="15" t="n">
-        <v>254.682</v>
+        <v>234.712</v>
       </c>
       <c r="M122" t="n">
         <v>658</v>
       </c>
       <c r="N122" t="n">
-        <v>7.94</v>
+        <v>7.32</v>
       </c>
       <c r="O122" t="n">
         <v>5</v>
       </c>
       <c r="P122" s="15" t="n">
-        <v>238.749832592409</v>
+        <v>220.077215108772</v>
       </c>
     </row>
     <row r="123">
@@ -8239,7 +8239,7 @@
         <v>379</v>
       </c>
       <c r="C123" s="18" t="n">
-        <v>53.19</v>
+        <v>49.02</v>
       </c>
       <c r="D123" t="n">
         <v>34</v>
@@ -8263,22 +8263,22 @@
         <v>24988</v>
       </c>
       <c r="K123" s="15" t="n">
-        <v>1329</v>
+        <v>1225</v>
       </c>
       <c r="L123" s="15" t="n">
-        <v>69.118</v>
+        <v>63.698</v>
       </c>
       <c r="M123" t="n">
         <v>678</v>
       </c>
       <c r="N123" t="n">
-        <v>7.85</v>
+        <v>7.23</v>
       </c>
       <c r="O123" t="n">
         <v>5</v>
       </c>
       <c r="P123" s="15" t="n">
-        <v>64.7941783444536</v>
+        <v>59.7262962609436</v>
       </c>
     </row>
     <row r="124">
@@ -8289,7 +8289,7 @@
         <v>380</v>
       </c>
       <c r="C124" s="18" t="n">
-        <v>44.16</v>
+        <v>40.7</v>
       </c>
       <c r="D124" t="n">
         <v>138</v>
@@ -8313,22 +8313,22 @@
         <v>22505</v>
       </c>
       <c r="K124" s="15" t="n">
-        <v>994</v>
+        <v>916</v>
       </c>
       <c r="L124" s="15" t="n">
-        <v>51.678</v>
+        <v>47.626</v>
       </c>
       <c r="M124" t="n">
         <v>527</v>
       </c>
       <c r="N124" t="n">
-        <v>8.39</v>
+        <v>7.73</v>
       </c>
       <c r="O124" t="n">
         <v>6</v>
       </c>
       <c r="P124" s="15" t="n">
-        <v>48.4451741729314</v>
+        <v>44.656419129701</v>
       </c>
     </row>
     <row r="125">
@@ -8339,7 +8339,7 @@
         <v>381</v>
       </c>
       <c r="C125" s="18" t="n">
-        <v>48.94</v>
+        <v>45.1</v>
       </c>
       <c r="D125" t="n">
         <v>78</v>
@@ -8363,22 +8363,22 @@
         <v>31913</v>
       </c>
       <c r="K125" s="15" t="n">
-        <v>1562</v>
+        <v>1439</v>
       </c>
       <c r="L125" s="15" t="n">
-        <v>81.218</v>
+        <v>74.85</v>
       </c>
       <c r="M125" t="n">
         <v>455</v>
       </c>
       <c r="N125" t="n">
-        <v>10.75</v>
+        <v>9.91</v>
       </c>
       <c r="O125" t="n">
         <v>9</v>
       </c>
       <c r="P125" s="15" t="n">
-        <v>76.1372374313468</v>
+        <v>70.1829456989485</v>
       </c>
     </row>
     <row r="126">
@@ -8389,7 +8389,7 @@
         <v>382</v>
       </c>
       <c r="C126" s="18" t="n">
-        <v>44.25</v>
+        <v>40.78</v>
       </c>
       <c r="D126" t="n">
         <v>135</v>
@@ -8413,22 +8413,22 @@
         <v>21344</v>
       </c>
       <c r="K126" s="15" t="n">
-        <v>944</v>
+        <v>870</v>
       </c>
       <c r="L126" s="15" t="n">
-        <v>49.11</v>
+        <v>45.259</v>
       </c>
       <c r="M126" t="n">
         <v>511</v>
       </c>
       <c r="N126" t="n">
-        <v>8.67</v>
+        <v>7.99</v>
       </c>
       <c r="O126" t="n">
         <v>7</v>
       </c>
       <c r="P126" s="15" t="n">
-        <v>46.0378208063907</v>
+        <v>42.4370065382594</v>
       </c>
     </row>
     <row r="127">
@@ -8439,7 +8439,7 @@
         <v>383</v>
       </c>
       <c r="C127" s="18" t="n">
-        <v>55.88</v>
+        <v>51.5</v>
       </c>
       <c r="D127" t="n">
         <v>55</v>
@@ -8463,22 +8463,22 @@
         <v>22753</v>
       </c>
       <c r="K127" s="15" t="n">
-        <v>1272</v>
+        <v>1172</v>
       </c>
       <c r="L127" s="15" t="n">
-        <v>66.119</v>
+        <v>60.934</v>
       </c>
       <c r="M127" t="n">
         <v>537</v>
       </c>
       <c r="N127" t="n">
-        <v>10.4</v>
+        <v>9.59</v>
       </c>
       <c r="O127" t="n">
         <v>9</v>
       </c>
       <c r="P127" s="15" t="n">
-        <v>61.9827870881236</v>
+        <v>57.1346374511654</v>
       </c>
     </row>
     <row r="128">
@@ -8489,7 +8489,7 @@
         <v>384</v>
       </c>
       <c r="C128" s="18" t="n">
-        <v>41.21</v>
+        <v>37.98</v>
       </c>
       <c r="D128" t="n">
         <v>174</v>
@@ -8513,22 +8513,22 @@
         <v>38117</v>
       </c>
       <c r="K128" s="15" t="n">
-        <v>1571</v>
+        <v>1448</v>
       </c>
       <c r="L128" s="15" t="n">
-        <v>81.691</v>
+        <v>75.285</v>
       </c>
       <c r="M128" t="n">
         <v>548</v>
       </c>
       <c r="N128" t="n">
-        <v>7.53</v>
+        <v>6.94</v>
       </c>
       <c r="O128" t="n">
         <v>4</v>
       </c>
       <c r="P128" s="15" t="n">
-        <v>76.5806479229254</v>
+        <v>70.5908225376799</v>
       </c>
     </row>
     <row r="129">
@@ -8539,7 +8539,7 @@
         <v>385</v>
       </c>
       <c r="C129" s="18" t="n">
-        <v>42.43</v>
+        <v>39.1</v>
       </c>
       <c r="D129" t="n">
         <v>25</v>
@@ -8563,22 +8563,22 @@
         <v>16547</v>
       </c>
       <c r="K129" s="15" t="n">
-        <v>702</v>
+        <v>647</v>
       </c>
       <c r="L129" s="15" t="n">
-        <v>36.504</v>
+        <v>33.642</v>
       </c>
       <c r="M129" t="n">
         <v>536</v>
       </c>
       <c r="N129" t="n">
-        <v>7.92</v>
+        <v>7.3</v>
       </c>
       <c r="O129" t="n">
         <v>5</v>
       </c>
       <c r="P129" s="15" t="n">
-        <v>34.2204156122274</v>
+        <v>31.5443508243691</v>
       </c>
     </row>
     <row r="130">
@@ -8589,7 +8589,7 @@
         <v>386</v>
       </c>
       <c r="C130" s="18" t="n">
-        <v>36.29</v>
+        <v>33.44</v>
       </c>
       <c r="D130" t="n">
         <v>47</v>
@@ -8613,22 +8613,22 @@
         <v>45778</v>
       </c>
       <c r="K130" s="15" t="n">
-        <v>1661</v>
+        <v>1531</v>
       </c>
       <c r="L130" s="15" t="n">
-        <v>86.376</v>
+        <v>79.603</v>
       </c>
       <c r="M130" t="n">
         <v>508</v>
       </c>
       <c r="N130" t="n">
-        <v>7.15</v>
+        <v>6.59</v>
       </c>
       <c r="O130" t="n">
         <v>3</v>
       </c>
       <c r="P130" s="15" t="n">
-        <v>80.9725679082225</v>
+        <v>74.6395861920294</v>
       </c>
     </row>
     <row r="131">
@@ -8639,7 +8639,7 @@
         <v>387</v>
       </c>
       <c r="C131" s="18" t="n">
-        <v>37.27</v>
+        <v>34.35</v>
       </c>
       <c r="D131" t="n">
         <v>153</v>
@@ -8663,22 +8663,22 @@
         <v>32551</v>
       </c>
       <c r="K131" s="15" t="n">
-        <v>1213</v>
+        <v>1118</v>
       </c>
       <c r="L131" s="15" t="n">
-        <v>63.089</v>
+        <v>58.142</v>
       </c>
       <c r="M131" t="n">
         <v>442</v>
       </c>
       <c r="N131" t="n">
-        <v>8.42</v>
+        <v>7.76</v>
       </c>
       <c r="O131" t="n">
         <v>7</v>
       </c>
       <c r="P131" s="15" t="n">
-        <v>59.1423351019016</v>
+        <v>54.5167245000436</v>
       </c>
     </row>
     <row r="132">
@@ -8689,7 +8689,7 @@
         <v>388</v>
       </c>
       <c r="C132" s="18" t="n">
-        <v>41.7</v>
+        <v>38.43</v>
       </c>
       <c r="D132" t="n">
         <v>55</v>
@@ -8713,22 +8713,22 @@
         <v>33953</v>
       </c>
       <c r="K132" s="15" t="n">
-        <v>1416</v>
+        <v>1305</v>
       </c>
       <c r="L132" s="15" t="n">
-        <v>73.618</v>
+        <v>67.846</v>
       </c>
       <c r="M132" t="n">
         <v>573</v>
       </c>
       <c r="N132" t="n">
-        <v>7.28</v>
+        <v>6.71</v>
       </c>
       <c r="O132" t="n">
         <v>4</v>
       </c>
       <c r="P132" s="15" t="n">
-        <v>69.0126713932982</v>
+        <v>63.615659771421</v>
       </c>
     </row>
     <row r="133">
@@ -8739,7 +8739,7 @@
         <v>389</v>
       </c>
       <c r="C133" s="18" t="n">
-        <v>40.38</v>
+        <v>37.21</v>
       </c>
       <c r="D133" t="n">
         <v>78</v>
@@ -8763,22 +8763,22 @@
         <v>35713</v>
       </c>
       <c r="K133" s="15" t="n">
-        <v>1442</v>
+        <v>1329</v>
       </c>
       <c r="L133" s="15" t="n">
-        <v>74.98</v>
+        <v>69.101</v>
       </c>
       <c r="M133" t="n">
         <v>690</v>
       </c>
       <c r="N133" t="n">
-        <v>5.85</v>
+        <v>5.39</v>
       </c>
       <c r="O133" t="n">
         <v>1</v>
       </c>
       <c r="P133" s="15" t="n">
-        <v>70.2894686227485</v>
+        <v>64.7924078923586</v>
       </c>
     </row>
     <row r="134">
@@ -8789,7 +8789,7 @@
         <v>390</v>
       </c>
       <c r="C134" s="18" t="n">
-        <v>44.78</v>
+        <v>41.27</v>
       </c>
       <c r="D134" t="n">
         <v>9</v>
@@ -8813,22 +8813,22 @@
         <v>61149</v>
       </c>
       <c r="K134" s="15" t="n">
-        <v>2739</v>
+        <v>2524</v>
       </c>
       <c r="L134" s="15" t="n">
-        <v>142.404</v>
+        <v>131.237</v>
       </c>
       <c r="M134" t="n">
         <v>556</v>
       </c>
       <c r="N134" t="n">
-        <v>8.06</v>
+        <v>7.42</v>
       </c>
       <c r="O134" t="n">
         <v>6</v>
       </c>
       <c r="P134" s="15" t="n">
-        <v>133.495618695037</v>
+        <v>123.05409812549</v>
       </c>
     </row>
     <row r="135">
@@ -8839,7 +8839,7 @@
         <v>391</v>
       </c>
       <c r="C135" s="18" t="n">
-        <v>33.12</v>
+        <v>30.52</v>
       </c>
       <c r="D135" t="n">
         <v>158</v>
@@ -8863,22 +8863,22 @@
         <v>12712</v>
       </c>
       <c r="K135" s="15" t="n">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="L135" s="15" t="n">
-        <v>21.891</v>
+        <v>20.174</v>
       </c>
       <c r="M135" t="n">
         <v>656</v>
       </c>
       <c r="N135" t="n">
-        <v>5.05</v>
+        <v>4.66</v>
       </c>
       <c r="O135" t="n">
         <v>1</v>
       </c>
       <c r="P135" s="15" t="n">
-        <v>20.5215625182794</v>
+        <v>18.916108838084</v>
       </c>
     </row>
     <row r="136">
@@ -8889,7 +8889,7 @@
         <v>392</v>
       </c>
       <c r="C136" s="18" t="n">
-        <v>38.91</v>
+        <v>35.86</v>
       </c>
       <c r="D136" t="n">
         <v>38</v>
@@ -8913,22 +8913,22 @@
         <v>69067</v>
       </c>
       <c r="K136" s="15" t="n">
-        <v>2688</v>
+        <v>2477</v>
       </c>
       <c r="L136" s="15" t="n">
-        <v>139.757</v>
+        <v>128.798</v>
       </c>
       <c r="M136" t="n">
         <v>594</v>
       </c>
       <c r="N136" t="n">
-        <v>6.55</v>
+        <v>6.04</v>
       </c>
       <c r="O136" t="n">
         <v>2</v>
       </c>
       <c r="P136" s="15" t="n">
-        <v>131.014207339417</v>
+        <v>120.767174884879</v>
       </c>
     </row>
     <row r="137">
@@ -8939,7 +8939,7 @@
         <v>393</v>
       </c>
       <c r="C137" s="18" t="n">
-        <v>40.71</v>
+        <v>37.52</v>
       </c>
       <c r="D137" t="n">
         <v>47</v>
@@ -8963,22 +8963,22 @@
         <v>22254</v>
       </c>
       <c r="K137" s="15" t="n">
-        <v>906</v>
+        <v>835</v>
       </c>
       <c r="L137" s="15" t="n">
-        <v>47.109</v>
+        <v>43.415</v>
       </c>
       <c r="M137" t="n">
         <v>640</v>
       </c>
       <c r="N137" t="n">
-        <v>6.36</v>
+        <v>5.86</v>
       </c>
       <c r="O137" t="n">
         <v>2</v>
       </c>
       <c r="P137" s="15" t="n">
-        <v>44.1619975640045</v>
+        <v>40.7079838012004</v>
       </c>
     </row>
     <row r="138">
@@ -8989,7 +8989,7 @@
         <v>394</v>
       </c>
       <c r="C138" s="18" t="n">
-        <v>53.29</v>
+        <v>49.11</v>
       </c>
       <c r="D138" t="n">
         <v>21</v>
@@ -9013,22 +9013,22 @@
         <v>44173</v>
       </c>
       <c r="K138" s="15" t="n">
-        <v>2354</v>
+        <v>2169</v>
       </c>
       <c r="L138" s="15" t="n">
-        <v>122.405</v>
+        <v>112.807</v>
       </c>
       <c r="M138" t="n">
         <v>484</v>
       </c>
       <c r="N138" t="n">
-        <v>11</v>
+        <v>10.14</v>
       </c>
       <c r="O138" t="n">
         <v>9</v>
       </c>
       <c r="P138" s="15" t="n">
-        <v>114.747698143072</v>
+        <v>105.773247233952</v>
       </c>
     </row>
     <row r="139">
@@ -9039,7 +9039,7 @@
         <v>395</v>
       </c>
       <c r="C139" s="18" t="n">
-        <v>45.13</v>
+        <v>41.59</v>
       </c>
       <c r="D139" t="n">
         <v>130</v>
@@ -9063,22 +9063,22 @@
         <v>57527</v>
       </c>
       <c r="K139" s="15" t="n">
-        <v>2596</v>
+        <v>2392</v>
       </c>
       <c r="L139" s="15" t="n">
-        <v>134.989</v>
+        <v>124.404</v>
       </c>
       <c r="M139" t="n">
         <v>575</v>
       </c>
       <c r="N139" t="n">
-        <v>7.85</v>
+        <v>7.24</v>
       </c>
       <c r="O139" t="n">
         <v>5</v>
       </c>
       <c r="P139" s="15" t="n">
-        <v>126.544479593441</v>
+        <v>116.647149989739</v>
       </c>
     </row>
     <row r="140">
@@ -9089,7 +9089,7 @@
         <v>396</v>
       </c>
       <c r="C140" s="18" t="n">
-        <v>47.06</v>
+        <v>43.37</v>
       </c>
       <c r="D140" t="n">
         <v>50</v>
@@ -9113,22 +9113,22 @@
         <v>27545</v>
       </c>
       <c r="K140" s="15" t="n">
-        <v>1296</v>
+        <v>1195</v>
       </c>
       <c r="L140" s="15" t="n">
-        <v>67.4</v>
+        <v>62.115</v>
       </c>
       <c r="M140" t="n">
         <v>503</v>
       </c>
       <c r="N140" t="n">
-        <v>9.36</v>
+        <v>8.62</v>
       </c>
       <c r="O140" t="n">
         <v>8</v>
       </c>
       <c r="P140" s="15" t="n">
-        <v>63.1836514426947</v>
+        <v>58.2419996271234</v>
       </c>
     </row>
     <row r="141">
@@ -9139,7 +9139,7 @@
         <v>397</v>
       </c>
       <c r="C141" s="18" t="n">
-        <v>48.85</v>
+        <v>45.02</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>30362</v>
       </c>
       <c r="K141" s="15" t="n">
-        <v>1483</v>
+        <v>1367</v>
       </c>
       <c r="L141" s="15" t="n">
-        <v>77.132</v>
+        <v>71.084</v>
       </c>
       <c r="M141" t="n">
         <v>438</v>
       </c>
       <c r="N141" t="n">
-        <v>11.16</v>
+        <v>10.28</v>
       </c>
       <c r="O141" t="n">
         <v>10</v>
       </c>
       <c r="P141" s="15" t="n">
-        <v>72.3068457429959</v>
+        <v>66.6517636882306</v>
       </c>
     </row>
     <row r="142">
@@ -9189,7 +9189,7 @@
         <v>398</v>
       </c>
       <c r="C142" s="18" t="n">
-        <v>39.15</v>
+        <v>36.08</v>
       </c>
       <c r="D142" t="n">
         <v>269</v>
@@ -9213,22 +9213,22 @@
         <v>51570</v>
       </c>
       <c r="K142" s="15" t="n">
-        <v>2019</v>
+        <v>1861</v>
       </c>
       <c r="L142" s="15" t="n">
-        <v>104.978</v>
+        <v>96.746</v>
       </c>
       <c r="M142" t="n">
         <v>545</v>
       </c>
       <c r="N142" t="n">
-        <v>7.19</v>
+        <v>6.62</v>
       </c>
       <c r="O142" t="n">
         <v>4</v>
       </c>
       <c r="P142" s="15" t="n">
-        <v>98.4108807292463</v>
+        <v>90.7136842296657</v>
       </c>
     </row>
     <row r="143">
@@ -9239,7 +9239,7 @@
         <v>399</v>
       </c>
       <c r="C143" s="18" t="n">
-        <v>44.16</v>
+        <v>40.69</v>
       </c>
       <c r="D143" t="n">
         <v>13</v>
@@ -9263,22 +9263,22 @@
         <v>20783</v>
       </c>
       <c r="K143" s="15" t="n">
-        <v>918</v>
+        <v>846</v>
       </c>
       <c r="L143" s="15" t="n">
-        <v>47.72</v>
+        <v>43.978</v>
       </c>
       <c r="M143" t="n">
         <v>570</v>
       </c>
       <c r="N143" t="n">
-        <v>7.75</v>
+        <v>7.14</v>
       </c>
       <c r="O143" t="n">
         <v>5</v>
       </c>
       <c r="P143" s="15" t="n">
-        <v>44.7347751757476</v>
+        <v>41.2358795717884</v>
       </c>
     </row>
     <row r="144">
@@ -10760,7 +10760,7 @@
         <v>400</v>
       </c>
       <c r="C3" s="18" t="n">
-        <v>42.84</v>
+        <v>39.48</v>
       </c>
       <c r="D3" t="n">
         <v>1738</v>
@@ -10775,19 +10775,19 @@
         <v>566850</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>24285</v>
+        <v>22381</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>1262.833</v>
+        <v>1163.811</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>544</v>
       </c>
       <c r="K3" t="n">
-        <v>7.87</v>
+        <v>7.26</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>1183.83382941146</v>
+        <v>1091.24494611675</v>
       </c>
     </row>
     <row r="4">
@@ -10795,7 +10795,7 @@
         <v>401</v>
       </c>
       <c r="C4" s="18" t="n">
-        <v>43</v>
+        <v>39.63</v>
       </c>
       <c r="D4" t="n">
         <v>1868</v>
@@ -10810,19 +10810,19 @@
         <v>669833</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>28803</v>
+        <v>26545</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>1497.774</v>
+        <v>1380.33</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>7.47</v>
+        <v>6.88</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>1404.07760172004</v>
+        <v>1294.2635328875</v>
       </c>
     </row>
     <row r="5">
@@ -10830,7 +10830,7 @@
         <v>402</v>
       </c>
       <c r="C5" s="18" t="n">
-        <v>43.12</v>
+        <v>39.73</v>
       </c>
       <c r="D5" t="n">
         <v>3028</v>
@@ -10845,19 +10845,19 @@
         <v>896639</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>38659</v>
+        <v>35628</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>2010.278</v>
+        <v>1852.647</v>
       </c>
       <c r="J5" s="15" t="n">
         <v>606</v>
       </c>
       <c r="K5" t="n">
-        <v>7.11</v>
+        <v>6.55</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>1884.52083761005</v>
+        <v>1737.13057849459</v>
       </c>
     </row>
     <row r="6">
@@ -10865,7 +10865,7 @@
         <v>403</v>
       </c>
       <c r="C6" s="18" t="n">
-        <v>50.37</v>
+        <v>46.42</v>
       </c>
       <c r="D6" t="n">
         <v>913</v>
@@ -10880,19 +10880,19 @@
         <v>326442</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>16444</v>
+        <v>15154</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>855.076</v>
+        <v>788.027</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>477</v>
       </c>
       <c r="K6" t="n">
-        <v>10.56</v>
+        <v>9.73</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>801.584924940855</v>
+        <v>738.891865735542</v>
       </c>
     </row>
     <row r="7">
@@ -10900,7 +10900,7 @@
         <v>404</v>
       </c>
       <c r="C7" s="18" t="n">
-        <v>42.71</v>
+        <v>39.37</v>
       </c>
       <c r="D7" t="n">
         <v>3234</v>
@@ -10915,19 +10915,19 @@
         <v>837814</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>35787</v>
+        <v>32981</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>1860.916</v>
+        <v>1714.996</v>
       </c>
       <c r="J7" s="15" t="n">
         <v>485</v>
       </c>
       <c r="K7" t="n">
-        <v>8.8</v>
+        <v>8.11</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>1744.5024912186</v>
+        <v>1608.0624067056</v>
       </c>
     </row>
     <row r="8">
@@ -10935,7 +10935,7 @@
         <v>405</v>
       </c>
       <c r="C8" s="18" t="n">
-        <v>41.26</v>
+        <v>38.03</v>
       </c>
       <c r="D8" t="n">
         <v>2148</v>
@@ -10950,19 +10950,19 @@
         <v>873863</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>36058</v>
+        <v>33231</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>1875.022</v>
+        <v>1727.997</v>
       </c>
       <c r="J8" s="15" t="n">
         <v>603</v>
       </c>
       <c r="K8" t="n">
-        <v>6.84</v>
+        <v>6.3</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>1757.72606076238</v>
+        <v>1620.25276712019</v>
       </c>
     </row>
     <row r="9">
@@ -10970,7 +10970,7 @@
         <v>406</v>
       </c>
       <c r="C9" s="18" t="n">
-        <v>36.65</v>
+        <v>33.78</v>
       </c>
       <c r="D9" t="n">
         <v>1668</v>
@@ -10985,19 +10985,19 @@
         <v>631799</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>23155</v>
+        <v>21339</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>1204.064</v>
+        <v>1109.651</v>
       </c>
       <c r="J9" s="15" t="n">
         <v>532</v>
       </c>
       <c r="K9" t="n">
-        <v>6.88</v>
+        <v>6.35</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>1128.74124763645</v>
+        <v>1040.46193557494</v>
       </c>
     </row>
     <row r="10">
@@ -11005,7 +11005,7 @@
         <v>407</v>
       </c>
       <c r="C10" s="18" t="n">
-        <v>44.57</v>
+        <v>41.08</v>
       </c>
       <c r="D10" t="n">
         <v>2039</v>
@@ -11020,19 +11020,19 @@
         <v>650297</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>28984</v>
+        <v>26712</v>
       </c>
       <c r="I10" s="15" t="n">
-        <v>1507.187</v>
+        <v>1389.004</v>
       </c>
       <c r="J10" s="15" t="n">
         <v>494</v>
       </c>
       <c r="K10" t="n">
-        <v>9.02</v>
+        <v>8.31</v>
       </c>
       <c r="L10" s="15" t="n">
-        <v>1412.90175173532</v>
+        <v>1302.3966908166</v>
       </c>
     </row>
     <row r="11">
@@ -11040,7 +11040,7 @@
         <v>408</v>
       </c>
       <c r="C11" s="18" t="n">
-        <v>43.28</v>
+        <v>39.89</v>
       </c>
       <c r="D11" t="n">
         <v>2349</v>
@@ -11055,19 +11055,19 @@
         <v>677670</v>
       </c>
       <c r="H11" s="15" t="n">
-        <v>29331</v>
+        <v>27031</v>
       </c>
       <c r="I11" s="15" t="n">
-        <v>1525.214</v>
+        <v>1405.618</v>
       </c>
       <c r="J11" s="15" t="n">
         <v>499</v>
       </c>
       <c r="K11" t="n">
-        <v>8.67</v>
+        <v>7.99</v>
       </c>
       <c r="L11" s="15" t="n">
-        <v>1429.80103488899</v>
+        <v>1317.97477311242</v>
       </c>
     </row>
     <row r="12">
@@ -19044,8 +19044,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -19300,8 +19300,8 @@
     </row>
     <row r="22" ht="12.95" customHeight="1">
       <c r="B22" s="36" t="str">
-        <f>HYPERLINK("https://www.oecd.org/tax/consumption/tax-burden-cigarettes-ctt-trends.xlsx", "(b) OECD. Weighted Average Price in 2016 inflated to 2018 prices")</f>
-        <v>(b) OECD. Weighted Average Price in 2016 inflated to 2018 prices</v>
+        <f>HYPERLINK("https://ec.europa.eu/taxation_customs/tedb/taxDetails.html?id=4155/1546297200", "(b) European Commission. Weighted Average Price as of 2019/01/01")</f>
+        <v>(b) European Commission. Weighted Average Price as of 2019/01/01</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
@@ -19402,7 +19402,7 @@
         <v>25.57</v>
       </c>
       <c r="D3" s="18" t="n">
-        <v>42.62</v>
+        <v>39.28</v>
       </c>
     </row>
     <row r="4">
@@ -19416,7 +19416,7 @@
         <v>25.3</v>
       </c>
       <c r="D4" s="18" t="n">
-        <v>42.17</v>
+        <v>38.87</v>
       </c>
     </row>
     <row r="5">
@@ -19427,7 +19427,7 @@
         <v>25.73</v>
       </c>
       <c r="D5" s="18" t="n">
-        <v>42.89</v>
+        <v>39.52</v>
       </c>
     </row>
     <row r="6">
@@ -19441,7 +19441,7 @@
         <v>25.92</v>
       </c>
       <c r="D6" s="18" t="n">
-        <v>43.2</v>
+        <v>39.81</v>
       </c>
     </row>
     <row r="7">
@@ -19452,7 +19452,7 @@
         <v>25.18</v>
       </c>
       <c r="D7" s="18" t="n">
-        <v>41.97</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="8">
@@ -19466,7 +19466,7 @@
         <v>19.61</v>
       </c>
       <c r="D8" s="18" t="n">
-        <v>32.68</v>
+        <v>30.12</v>
       </c>
     </row>
     <row r="9">
@@ -19477,7 +19477,7 @@
         <v>24.25</v>
       </c>
       <c r="D9" s="18" t="n">
-        <v>40.42</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="10">
@@ -19488,7 +19488,7 @@
         <v>26.54</v>
       </c>
       <c r="D10" s="18" t="n">
-        <v>44.24</v>
+        <v>40.77</v>
       </c>
     </row>
     <row r="11">
@@ -19499,7 +19499,7 @@
         <v>27.86</v>
       </c>
       <c r="D11" s="18" t="n">
-        <v>46.45</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="12">
@@ -19510,7 +19510,7 @@
         <v>28.64</v>
       </c>
       <c r="D12" s="18" t="n">
-        <v>47.75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -19521,7 +19521,7 @@
         <v>29.29</v>
       </c>
       <c r="D13" s="18" t="n">
-        <v>48.82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -19535,7 +19535,7 @@
         <v>25.7</v>
       </c>
       <c r="D14" s="18" t="n">
-        <v>42.84</v>
+        <v>39.48</v>
       </c>
     </row>
     <row r="15">
@@ -19546,7 +19546,7 @@
         <v>25.8</v>
       </c>
       <c r="D15" s="18" t="n">
-        <v>43</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="16">
@@ -19557,7 +19557,7 @@
         <v>25.86</v>
       </c>
       <c r="D16" s="18" t="n">
-        <v>43.12</v>
+        <v>39.73</v>
       </c>
     </row>
     <row r="17">
@@ -19568,7 +19568,7 @@
         <v>30.22</v>
       </c>
       <c r="D17" s="18" t="n">
-        <v>50.37</v>
+        <v>46.42</v>
       </c>
     </row>
     <row r="18">
@@ -19579,7 +19579,7 @@
         <v>25.62</v>
       </c>
       <c r="D18" s="18" t="n">
-        <v>42.71</v>
+        <v>39.37</v>
       </c>
     </row>
     <row r="19">
@@ -19590,7 +19590,7 @@
         <v>24.75</v>
       </c>
       <c r="D19" s="18" t="n">
-        <v>41.26</v>
+        <v>38.03</v>
       </c>
     </row>
     <row r="20">
@@ -19601,7 +19601,7 @@
         <v>21.99</v>
       </c>
       <c r="D20" s="18" t="n">
-        <v>36.65</v>
+        <v>33.78</v>
       </c>
     </row>
     <row r="21">
@@ -19612,7 +19612,7 @@
         <v>26.74</v>
       </c>
       <c r="D21" s="18" t="n">
-        <v>44.57</v>
+        <v>41.08</v>
       </c>
     </row>
     <row r="22">
@@ -19624,7 +19624,7 @@
         <v>25.96</v>
       </c>
       <c r="D22" s="39" t="n">
-        <v>43.28</v>
+        <v>39.89</v>
       </c>
     </row>
   </sheetData>
@@ -21012,7 +21012,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -21071,19 +21071,19 @@
         <v>0.149046</v>
       </c>
       <c r="D3" s="18" t="n">
-        <v>63.2957480656489</v>
+        <v>58.3325663387028</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.137678594485281</v>
+        <v>0.126882863251767</v>
       </c>
       <c r="F3" s="26" t="n">
         <v>23906.25</v>
       </c>
       <c r="G3" s="43" t="n">
-        <v>46.2824934032237</v>
+        <v>42.6620420354905</v>
       </c>
       <c r="H3" s="26" t="n">
-        <v>459.881691208503</v>
+        <v>423.907412912266</v>
       </c>
     </row>
     <row r="4">
@@ -21097,19 +21097,19 @@
         <v>0.192639</v>
       </c>
       <c r="D4" s="18" t="n">
-        <v>56.9378259521629</v>
+        <v>52.4731851828538</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.135040681847775</v>
+        <v>0.124451796100725</v>
       </c>
       <c r="F4" s="26" t="n">
         <v>21925</v>
       </c>
       <c r="G4" s="43" t="n">
-        <v>39.3576027028204</v>
+        <v>36.2794727452734</v>
       </c>
       <c r="H4" s="26" t="n">
-        <v>534.684654088771</v>
+        <v>492.867349716386</v>
       </c>
     </row>
     <row r="5">
@@ -21123,19 +21123,19 @@
         <v>0.190879</v>
       </c>
       <c r="D5" s="18" t="n">
-        <v>59.5263557044574</v>
+        <v>54.8587416871994</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.134854944668826</v>
+        <v>0.124280623049711</v>
       </c>
       <c r="F5" s="26" t="n">
         <v>22953.3333333333</v>
       </c>
       <c r="G5" s="43" t="n">
-        <v>111.54164342595</v>
+        <v>102.817781036983</v>
       </c>
       <c r="H5" s="26" t="n">
-        <v>553.88090010999</v>
+        <v>510.560929164391</v>
       </c>
     </row>
     <row r="6">
@@ -21149,19 +21149,19 @@
         <v>0.171725</v>
       </c>
       <c r="D6" s="18" t="n">
-        <v>56.9636228764402</v>
+        <v>52.4969593042243</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.132673407359554</v>
+        <v>0.12227014566849</v>
       </c>
       <c r="F6" s="26" t="n">
         <v>22326.3157894737</v>
       </c>
       <c r="G6" s="43" t="n">
-        <v>51.5884202157705</v>
+        <v>47.5537511565514</v>
       </c>
       <c r="H6" s="26" t="n">
-        <v>476.849317062933</v>
+        <v>439.555498461459</v>
       </c>
     </row>
     <row r="7">
@@ -21175,19 +21175,19 @@
         <v>0.168442</v>
       </c>
       <c r="D7" s="18" t="n">
-        <v>61.6442524028756</v>
+        <v>56.8105686808683</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1251450522847</v>
+        <v>0.115332108197636</v>
       </c>
       <c r="F7" s="26" t="n">
         <v>25614.2857142857</v>
       </c>
       <c r="G7" s="43" t="n">
-        <v>78.7414538068336</v>
+        <v>72.5833243360803</v>
       </c>
       <c r="H7" s="26" t="n">
-        <v>506.164328781111</v>
+        <v>466.578757021697</v>
       </c>
     </row>
     <row r="8">
@@ -21201,19 +21201,19 @@
         <v>0.158667</v>
       </c>
       <c r="D8" s="18" t="n">
-        <v>57.8752084262932</v>
+        <v>53.3370650962444</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.123702735567649</v>
+        <v>0.114002887228614</v>
       </c>
       <c r="F8" s="26" t="n">
         <v>24328.5714285714</v>
       </c>
       <c r="G8" s="43" t="n">
-        <v>98.1071492297295</v>
+        <v>90.4342651539371</v>
       </c>
       <c r="H8" s="26" t="n">
-        <v>447.640586908172</v>
+        <v>412.630963675482</v>
       </c>
     </row>
     <row r="9">
@@ -21227,19 +21227,19 @@
         <v>0.142506</v>
       </c>
       <c r="D9" s="18" t="n">
-        <v>49.5097448887372</v>
+        <v>45.6275589813571</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.122683189621841</v>
+        <v>0.113063286491807</v>
       </c>
       <c r="F9" s="26" t="n">
         <v>20985</v>
       </c>
       <c r="G9" s="43" t="n">
-        <v>40.2603602152731</v>
+        <v>37.1121040850285</v>
       </c>
       <c r="H9" s="26" t="n">
-        <v>343.92926888154</v>
+        <v>317.034888817944</v>
       </c>
     </row>
     <row r="10">
@@ -21253,19 +21253,19 @@
         <v>0.133921</v>
       </c>
       <c r="D10" s="18" t="n">
-        <v>66.027499470289</v>
+        <v>60.8501141187961</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.122155068905643</v>
+        <v>0.112576577073656</v>
       </c>
       <c r="F10" s="26" t="n">
         <v>28107.1428571429</v>
       </c>
       <c r="G10" s="43" t="n">
-        <v>99.0999012605576</v>
+        <v>91.3484718614384</v>
       </c>
       <c r="H10" s="26" t="n">
-        <v>431.04530225639</v>
+        <v>397.329655865608</v>
       </c>
     </row>
     <row r="11">
@@ -21279,19 +21279,19 @@
         <v>0.153455</v>
       </c>
       <c r="D11" s="18" t="n">
-        <v>47.4698919298613</v>
+        <v>43.7476561177175</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.117973219033337</v>
+        <v>0.108722636760923</v>
       </c>
       <c r="F11" s="26" t="n">
         <v>20923.6842105263</v>
       </c>
       <c r="G11" s="43" t="n">
-        <v>87.3546791696745</v>
+        <v>80.5223891488124</v>
       </c>
       <c r="H11" s="26" t="n">
-        <v>355.09887833657</v>
+        <v>327.325454566495</v>
       </c>
     </row>
     <row r="12">
@@ -21305,19 +21305,19 @@
         <v>0.130149</v>
       </c>
       <c r="D12" s="39" t="n">
-        <v>54.2865196079477</v>
+        <v>50.0297745599515</v>
       </c>
       <c r="E12" s="41" t="n">
-        <v>0.117199816132835</v>
+        <v>0.108009878362787</v>
       </c>
       <c r="F12" s="42" t="n">
         <v>24086.2068965517</v>
       </c>
       <c r="G12" s="44" t="n">
-        <v>84.1636235389485</v>
+        <v>77.5809876704209</v>
       </c>
       <c r="H12" s="42" t="n">
-        <v>344.413440135159</v>
+        <v>317.476051162267</v>
       </c>
     </row>
     <row r="13">
@@ -21416,19 +21416,19 @@
         <v>0.103468</v>
       </c>
       <c r="D3" s="18" t="n">
-        <v>33.117707831711</v>
+        <v>30.520863535342</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0505222799833009</v>
+        <v>0.0465606986057225</v>
       </c>
       <c r="F3" s="26" t="n">
         <v>34086.3636363636</v>
       </c>
       <c r="G3" s="43" t="n">
-        <v>20.5215625182794</v>
+        <v>18.916108838084</v>
       </c>
       <c r="H3" s="26" t="n">
-        <v>167.038887454962</v>
+        <v>153.971013292776</v>
       </c>
     </row>
     <row r="4">
@@ -21442,19 +21442,19 @@
         <v>0.113421</v>
       </c>
       <c r="D4" s="18" t="n">
-        <v>28.3393483051324</v>
+        <v>26.1171874181845</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0505705076356188</v>
+        <v>0.0466051446042954</v>
       </c>
       <c r="F4" s="26" t="n">
         <v>29140.4255319149</v>
       </c>
       <c r="G4" s="43" t="n">
-        <v>42.9976934825234</v>
+        <v>39.6343769498271</v>
       </c>
       <c r="H4" s="26" t="n">
-        <v>156.687997356289</v>
+        <v>144.431727558987</v>
       </c>
     </row>
     <row r="5">
@@ -21468,19 +21468,19 @@
         <v>0.135473</v>
       </c>
       <c r="D5" s="18" t="n">
-        <v>35.5563060402133</v>
+        <v>32.7682450122679</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0522768580098137</v>
+        <v>0.0481776956751281</v>
       </c>
       <c r="F5" s="26" t="n">
         <v>35368</v>
       </c>
       <c r="G5" s="43" t="n">
-        <v>37.3674114266655</v>
+        <v>34.4444957949349</v>
       </c>
       <c r="H5" s="26" t="n">
-        <v>234.809892148785</v>
+        <v>216.442831706463</v>
       </c>
     </row>
     <row r="6">
@@ -21494,19 +21494,19 @@
         <v>0.079997</v>
       </c>
       <c r="D6" s="18" t="n">
-        <v>44.1944364874475</v>
+        <v>40.7290375260564</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.0567069477942144</v>
+        <v>0.0522604107726247</v>
       </c>
       <c r="F6" s="26" t="n">
         <v>40526.0869565217</v>
       </c>
       <c r="G6" s="43" t="n">
-        <v>26.222152791618</v>
+        <v>24.1716253463353</v>
       </c>
       <c r="H6" s="26" t="n">
-        <v>172.339555921093</v>
+        <v>158.862897763682</v>
       </c>
     </row>
     <row r="7">
@@ -21520,19 +21520,19 @@
         <v>0.130439</v>
       </c>
       <c r="D7" s="18" t="n">
-        <v>32.6036400186057</v>
+        <v>30.0471050961582</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.0567652661038224</v>
+        <v>0.052314156194204</v>
       </c>
       <c r="F7" s="26" t="n">
         <v>29866.6666666667</v>
       </c>
       <c r="G7" s="43" t="n">
-        <v>32.5555170222834</v>
+        <v>30.0084835557669</v>
       </c>
       <c r="H7" s="26" t="n">
-        <v>207.313764589317</v>
+        <v>191.094237308669</v>
       </c>
     </row>
     <row r="8">
@@ -21546,19 +21546,19 @@
         <v>0.107554</v>
       </c>
       <c r="D8" s="18" t="n">
-        <v>32.5787009572823</v>
+        <v>30.0241215705102</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0567820495987491</v>
+        <v>0.0523296236523054</v>
       </c>
       <c r="F8" s="26" t="n">
         <v>29835</v>
       </c>
       <c r="G8" s="43" t="n">
-        <v>22.6495579006965</v>
+        <v>20.8786059035202</v>
       </c>
       <c r="H8" s="26" t="n">
-        <v>170.807281137655</v>
+        <v>157.451987538142</v>
       </c>
     </row>
     <row r="9">
@@ -21572,19 +21572,19 @@
         <v>0.134655</v>
       </c>
       <c r="D9" s="18" t="n">
-        <v>40.3758845134925</v>
+        <v>37.20990799294</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.058514011602862</v>
+        <v>0.0539257780795545</v>
       </c>
       <c r="F9" s="26" t="n">
         <v>35881.0810810811</v>
       </c>
       <c r="G9" s="43" t="n">
-        <v>70.2894686227485</v>
+        <v>64.7924078923586</v>
       </c>
       <c r="H9" s="26" t="n">
-        <v>265.027255605802</v>
+        <v>244.300524449349</v>
       </c>
     </row>
     <row r="10">
@@ -21598,19 +21598,19 @@
         <v>0.174997</v>
       </c>
       <c r="D10" s="18" t="n">
-        <v>33.827597246356</v>
+        <v>31.1750887027257</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0588365668708158</v>
+        <v>0.0542230409627786</v>
       </c>
       <c r="F10" s="26" t="n">
         <v>29896.9696969697</v>
       </c>
       <c r="G10" s="43" t="n">
-        <v>69.4345206981826</v>
+        <v>64.0038460041447</v>
       </c>
       <c r="H10" s="26" t="n">
-        <v>288.568641027785</v>
+        <v>265.998852966102</v>
       </c>
     </row>
     <row r="11">
@@ -21624,19 +21624,19 @@
         <v>0.120478</v>
       </c>
       <c r="D11" s="18" t="n">
-        <v>36.9417648150797</v>
+        <v>34.0450664159838</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.0591198170705167</v>
+        <v>0.0544840807888244</v>
       </c>
       <c r="F11" s="26" t="n">
         <v>32492.8571428571</v>
       </c>
       <c r="G11" s="43" t="n">
-        <v>47.2152490884682</v>
+        <v>43.5218651644943</v>
       </c>
       <c r="H11" s="26" t="n">
-        <v>216.958910999611</v>
+        <v>199.987433150422</v>
       </c>
     </row>
     <row r="12">
@@ -21650,19 +21650,19 @@
         <v>0.155585</v>
       </c>
       <c r="D12" s="39" t="n">
-        <v>34.9572018554997</v>
+        <v>32.2161181211795</v>
       </c>
       <c r="E12" s="41" t="n">
-        <v>0.0592108956510092</v>
+        <v>0.0545680176645385</v>
       </c>
       <c r="F12" s="42" t="n">
         <v>30700</v>
       </c>
       <c r="G12" s="44" t="n">
-        <v>67.2165307973901</v>
+        <v>61.9597735709622</v>
       </c>
       <c r="H12" s="42" t="n">
-        <v>265.124683653837</v>
+        <v>244.390258949553</v>
       </c>
     </row>
     <row r="13">

--- a/output/main results/summary_table.xlsx
+++ b/output/main results/summary_table.xlsx
@@ -2339,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>25722.73</v>
+        <v>27294.67</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -2360,10 +2360,10 @@
         <v>54.543</v>
       </c>
       <c r="M3" t="n">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="N3" t="n">
-        <v>7.86</v>
+        <v>7.41</v>
       </c>
       <c r="O3" t="n">
         <v>6</v>
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>32931.71</v>
+        <v>34944.2</v>
       </c>
       <c r="G4" t="n">
         <v>9</v>
@@ -2422,10 +2422,10 @@
         <v>74.815</v>
       </c>
       <c r="M4" t="n">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="N4" t="n">
-        <v>6.75</v>
+        <v>6.36</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>26290</v>
+        <v>27896.61</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -2484,10 +2484,10 @@
         <v>56.57</v>
       </c>
       <c r="M5" t="n">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="N5" t="n">
-        <v>6.01</v>
+        <v>5.66</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
@@ -2525,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>29866.67</v>
+        <v>31691.85</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
@@ -2546,10 +2546,10 @@
         <v>33.603</v>
       </c>
       <c r="M6" t="n">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="N6" t="n">
-        <v>5.49</v>
+        <v>5.18</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>29835</v>
+        <v>31658.25</v>
       </c>
       <c r="G7" t="n">
         <v>7</v>
@@ -2608,10 +2608,10 @@
         <v>23.379</v>
       </c>
       <c r="M7" t="n">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="N7" t="n">
-        <v>5.49</v>
+        <v>5.18</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -2649,7 +2649,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>32378.57</v>
+        <v>34357.26</v>
       </c>
       <c r="G8" t="n">
         <v>9</v>
@@ -2670,10 +2670,10 @@
         <v>57.474</v>
       </c>
       <c r="M8" t="n">
-        <v>623</v>
+        <v>661</v>
       </c>
       <c r="N8" t="n">
-        <v>6.55</v>
+        <v>6.18</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
@@ -2711,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>22587.88</v>
+        <v>23968.25</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2732,10 +2732,10 @@
         <v>299.119</v>
       </c>
       <c r="M9" t="n">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="N9" t="n">
-        <v>10.48</v>
+        <v>9.88</v>
       </c>
       <c r="O9" t="n">
         <v>9</v>
@@ -2773,7 +2773,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>21933.33</v>
+        <v>23273.7</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -2794,10 +2794,10 @@
         <v>37.651</v>
       </c>
       <c r="M10" t="n">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="N10" t="n">
-        <v>9.98</v>
+        <v>9.41</v>
       </c>
       <c r="O10" t="n">
         <v>9</v>
@@ -2835,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>19615.79</v>
+        <v>20814.53</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2856,10 +2856,10 @@
         <v>54.427</v>
       </c>
       <c r="M11" t="n">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="N11" t="n">
-        <v>10.76</v>
+        <v>10.14</v>
       </c>
       <c r="O11" t="n">
         <v>9</v>
@@ -2897,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>24328.57</v>
+        <v>25815.31</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -2918,10 +2918,10 @@
         <v>101.266</v>
       </c>
       <c r="M12" t="n">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="N12" t="n">
-        <v>11.97</v>
+        <v>11.28</v>
       </c>
       <c r="O12" t="n">
         <v>10</v>
@@ -2959,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="15" t="n">
-        <v>26429.88</v>
+        <v>28045.03</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -2980,10 +2980,10 @@
         <v>81.137</v>
       </c>
       <c r="M13" t="n">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="N13" t="n">
-        <v>6.93</v>
+        <v>6.53</v>
       </c>
       <c r="O13" t="n">
         <v>4</v>
@@ -3021,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="15" t="n">
-        <v>31433.33</v>
+        <v>33354.26</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -3042,10 +3042,10 @@
         <v>19.588</v>
       </c>
       <c r="M14" t="n">
-        <v>604</v>
+        <v>641</v>
       </c>
       <c r="N14" t="n">
-        <v>5.58</v>
+        <v>5.26</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="15" t="n">
-        <v>22373.77</v>
+        <v>23741.05</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -3104,10 +3104,10 @@
         <v>149.667</v>
       </c>
       <c r="M15" t="n">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="N15" t="n">
-        <v>10.2</v>
+        <v>9.61</v>
       </c>
       <c r="O15" t="n">
         <v>9</v>
@@ -3145,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="15" t="n">
-        <v>27582.35</v>
+        <v>29267.94</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -3166,10 +3166,10 @@
         <v>58.496</v>
       </c>
       <c r="M16" t="n">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="N16" t="n">
-        <v>8.14</v>
+        <v>7.67</v>
       </c>
       <c r="O16" t="n">
         <v>6</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="15" t="n">
-        <v>29896.97</v>
+        <v>31724</v>
       </c>
       <c r="G17" t="n">
         <v>8</v>
@@ -3228,10 +3228,10 @@
         <v>71.671</v>
       </c>
       <c r="M17" t="n">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="N17" t="n">
-        <v>5.69</v>
+        <v>5.37</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="15" t="n">
-        <v>27087.27</v>
+        <v>28742.6</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
@@ -3290,10 +3290,10 @@
         <v>110.861</v>
       </c>
       <c r="M18" t="n">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="N18" t="n">
-        <v>6.17</v>
+        <v>5.81</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
@@ -3331,7 +3331,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="15" t="n">
-        <v>36620.51</v>
+        <v>38858.43</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -3352,10 +3352,10 @@
         <v>54.379</v>
       </c>
       <c r="M19" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="N19" t="n">
-        <v>6.12</v>
+        <v>5.77</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -3393,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="15" t="n">
-        <v>33529.07</v>
+        <v>35578.06</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -3414,10 +3414,10 @@
         <v>93.65</v>
       </c>
       <c r="M20" t="n">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="N20" t="n">
-        <v>5.89</v>
+        <v>5.55</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -3455,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="15" t="n">
-        <v>26407.69</v>
+        <v>28021.49</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -3476,10 +3476,10 @@
         <v>40.657</v>
       </c>
       <c r="M21" t="n">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="N21" t="n">
-        <v>8.16</v>
+        <v>7.69</v>
       </c>
       <c r="O21" t="n">
         <v>7</v>
@@ -3517,7 +3517,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="15" t="n">
-        <v>25077.78</v>
+        <v>26610.31</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -3538,10 +3538,10 @@
         <v>57.298</v>
       </c>
       <c r="M22" t="n">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="N22" t="n">
-        <v>8.59</v>
+        <v>8.1</v>
       </c>
       <c r="O22" t="n">
         <v>7</v>
@@ -3579,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="15" t="n">
-        <v>32436.02</v>
+        <v>34418.22</v>
       </c>
       <c r="G23" t="n">
         <v>9</v>
@@ -3600,10 +3600,10 @@
         <v>130.086</v>
       </c>
       <c r="M23" t="n">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="N23" t="n">
-        <v>5.88</v>
+        <v>5.54</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="15" t="n">
-        <v>32492.86</v>
+        <v>34478.53</v>
       </c>
       <c r="G24" t="n">
         <v>9</v>
@@ -3662,10 +3662,10 @@
         <v>48.735</v>
       </c>
       <c r="M24" t="n">
-        <v>625</v>
+        <v>663</v>
       </c>
       <c r="N24" t="n">
-        <v>5.72</v>
+        <v>5.39</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="15" t="n">
-        <v>32036.36</v>
+        <v>33994.14</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
@@ -3724,10 +3724,10 @@
         <v>72.433</v>
       </c>
       <c r="M25" t="n">
-        <v>616</v>
+        <v>654</v>
       </c>
       <c r="N25" t="n">
-        <v>7.33</v>
+        <v>6.91</v>
       </c>
       <c r="O25" t="n">
         <v>4</v>
@@ -3765,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="15" t="n">
-        <v>30198.04</v>
+        <v>32043.47</v>
       </c>
       <c r="G26" t="n">
         <v>8</v>
@@ -3786,10 +3786,10 @@
         <v>106.957</v>
       </c>
       <c r="M26" t="n">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="N26" t="n">
-        <v>8.36</v>
+        <v>7.88</v>
       </c>
       <c r="O26" t="n">
         <v>7</v>
@@ -3827,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="15" t="n">
-        <v>29140.43</v>
+        <v>30921.23</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
@@ -3848,10 +3848,10 @@
         <v>44.382</v>
       </c>
       <c r="M27" t="n">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="N27" t="n">
-        <v>4.89</v>
+        <v>4.61</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E28"/>
       <c r="F28" s="15" t="n">
-        <v>41800</v>
+        <v>44354.44</v>
       </c>
       <c r="G28" t="n">
         <v>10</v>
@@ -3896,7 +3896,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" t="n">
-        <v>804</v>
+        <v>853</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="15" t="n">
-        <v>25473.97</v>
+        <v>27030.71</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -3952,10 +3952,10 @@
         <v>116.747</v>
       </c>
       <c r="M29" t="n">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="N29" t="n">
-        <v>6.55</v>
+        <v>6.18</v>
       </c>
       <c r="O29" t="n">
         <v>3</v>
@@ -3993,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="15" t="n">
-        <v>25237.88</v>
+        <v>26780.19</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -4014,10 +4014,10 @@
         <v>143.186</v>
       </c>
       <c r="M30" t="n">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="N30" t="n">
-        <v>7.79</v>
+        <v>7.34</v>
       </c>
       <c r="O30" t="n">
         <v>6</v>
@@ -4055,7 +4055,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="15" t="n">
-        <v>24764.29</v>
+        <v>26277.66</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -4076,10 +4076,10 @@
         <v>95.441</v>
       </c>
       <c r="M31" t="n">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="N31" t="n">
-        <v>8.76</v>
+        <v>8.26</v>
       </c>
       <c r="O31" t="n">
         <v>7</v>
@@ -4117,7 +4117,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="15" t="n">
-        <v>31211.36</v>
+        <v>33118.72</v>
       </c>
       <c r="G32" t="n">
         <v>9</v>
@@ -4138,10 +4138,10 @@
         <v>76</v>
       </c>
       <c r="M32" t="n">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="N32" t="n">
-        <v>6.71</v>
+        <v>6.33</v>
       </c>
       <c r="O32" t="n">
         <v>3</v>
@@ -4179,7 +4179,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="15" t="n">
-        <v>26745.87</v>
+        <v>28380.34</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -4200,10 +4200,10 @@
         <v>128.913</v>
       </c>
       <c r="M33" t="n">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="N33" t="n">
-        <v>7.74</v>
+        <v>7.3</v>
       </c>
       <c r="O33" t="n">
         <v>6</v>
@@ -4241,7 +4241,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="15" t="n">
-        <v>24253.33</v>
+        <v>25735.48</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -4262,10 +4262,10 @@
         <v>30.611</v>
       </c>
       <c r="M34" t="n">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="N34" t="n">
-        <v>10.93</v>
+        <v>10.3</v>
       </c>
       <c r="O34" t="n">
         <v>10</v>
@@ -4303,7 +4303,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="15" t="n">
-        <v>27148.39</v>
+        <v>28807.45</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -4324,10 +4324,10 @@
         <v>65.424</v>
       </c>
       <c r="M35" t="n">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="N35" t="n">
-        <v>7.29</v>
+        <v>6.87</v>
       </c>
       <c r="O35" t="n">
         <v>4</v>
@@ -4365,7 +4365,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="15" t="n">
-        <v>28928.41</v>
+        <v>30696.25</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
@@ -4386,10 +4386,10 @@
         <v>184.198</v>
       </c>
       <c r="M36" t="n">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="N36" t="n">
-        <v>7.79</v>
+        <v>7.34</v>
       </c>
       <c r="O36" t="n">
         <v>6</v>
@@ -4427,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="15" t="n">
-        <v>27183.86</v>
+        <v>28845.1</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -4448,10 +4448,10 @@
         <v>148.802</v>
       </c>
       <c r="M37" t="n">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="N37" t="n">
-        <v>6.19</v>
+        <v>5.83</v>
       </c>
       <c r="O37" t="n">
         <v>2</v>
@@ -4489,7 +4489,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="15" t="n">
-        <v>25915.38</v>
+        <v>27499.1</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -4510,10 +4510,10 @@
         <v>123.869</v>
       </c>
       <c r="M38" t="n">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="N38" t="n">
-        <v>10.22</v>
+        <v>9.63</v>
       </c>
       <c r="O38" t="n">
         <v>9</v>
@@ -4551,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="15" t="n">
-        <v>28697.19</v>
+        <v>30450.9</v>
       </c>
       <c r="G39" t="n">
         <v>6</v>
@@ -4572,10 +4572,10 @@
         <v>61.414</v>
       </c>
       <c r="M39" t="n">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="N39" t="n">
-        <v>6.79</v>
+        <v>6.4</v>
       </c>
       <c r="O39" t="n">
         <v>3</v>
@@ -4613,7 +4613,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="15" t="n">
-        <v>24918.6</v>
+        <v>26441.41</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -4634,10 +4634,10 @@
         <v>66.176</v>
       </c>
       <c r="M40" t="n">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="N40" t="n">
-        <v>7.8</v>
+        <v>7.35</v>
       </c>
       <c r="O40" t="n">
         <v>6</v>
@@ -4675,7 +4675,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="15" t="n">
-        <v>31084.62</v>
+        <v>32984.23</v>
       </c>
       <c r="G41" t="n">
         <v>8</v>
@@ -4696,10 +4696,10 @@
         <v>56.432</v>
       </c>
       <c r="M41" t="n">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="N41" t="n">
-        <v>7.03</v>
+        <v>6.62</v>
       </c>
       <c r="O41" t="n">
         <v>4</v>
@@ -4737,7 +4737,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="15" t="n">
-        <v>28239.53</v>
+        <v>29965.28</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -4758,10 +4758,10 @@
         <v>80.749</v>
       </c>
       <c r="M42" t="n">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="N42" t="n">
-        <v>8.49</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>7</v>
@@ -4799,7 +4799,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="15" t="n">
-        <v>28866.33</v>
+        <v>30630.38</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -4820,10 +4820,10 @@
         <v>106.064</v>
       </c>
       <c r="M43" t="n">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="N43" t="n">
-        <v>6.45</v>
+        <v>6.07</v>
       </c>
       <c r="O43" t="n">
         <v>2</v>
@@ -4861,7 +4861,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="15" t="n">
-        <v>28469.44</v>
+        <v>30209.24</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -4882,10 +4882,10 @@
         <v>83.538</v>
       </c>
       <c r="M44" t="n">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="N44" t="n">
-        <v>7.44</v>
+        <v>7.01</v>
       </c>
       <c r="O44" t="n">
         <v>5</v>
@@ -4923,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="15" t="n">
-        <v>29986.79</v>
+        <v>31819.32</v>
       </c>
       <c r="G45" t="n">
         <v>8</v>
@@ -4944,10 +4944,10 @@
         <v>360.275</v>
       </c>
       <c r="M45" t="n">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="N45" t="n">
-        <v>7.75</v>
+        <v>7.31</v>
       </c>
       <c r="O45" t="n">
         <v>6</v>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="15" t="n">
-        <v>24418.52</v>
+        <v>25910.76</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -5006,10 +5006,10 @@
         <v>48.267</v>
       </c>
       <c r="M46" t="n">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="N46" t="n">
-        <v>7.11</v>
+        <v>6.7</v>
       </c>
       <c r="O46" t="n">
         <v>4</v>
@@ -5047,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="15" t="n">
-        <v>29223.71</v>
+        <v>31009.6</v>
       </c>
       <c r="G47" t="n">
         <v>7</v>
@@ -5068,10 +5068,10 @@
         <v>130.308</v>
       </c>
       <c r="M47" t="n">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="N47" t="n">
-        <v>6.77</v>
+        <v>6.38</v>
       </c>
       <c r="O47" t="n">
         <v>3</v>
@@ -5109,7 +5109,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="15" t="n">
-        <v>30403.03</v>
+        <v>32260.99</v>
       </c>
       <c r="G48" t="n">
         <v>8</v>
@@ -5130,10 +5130,10 @@
         <v>62.561</v>
       </c>
       <c r="M48" t="n">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="N48" t="n">
-        <v>7.37</v>
+        <v>6.94</v>
       </c>
       <c r="O48" t="n">
         <v>5</v>
@@ -5171,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="15" t="n">
-        <v>27000</v>
+        <v>28650</v>
       </c>
       <c r="G49" t="n">
         <v>5</v>
@@ -5192,10 +5192,10 @@
         <v>56.147</v>
       </c>
       <c r="M49" t="n">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="N49" t="n">
-        <v>6.63</v>
+        <v>6.25</v>
       </c>
       <c r="O49" t="n">
         <v>3</v>
@@ -5233,7 +5233,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="15" t="n">
-        <v>23906.25</v>
+        <v>25367.18</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -5254,10 +5254,10 @@
         <v>47.773</v>
       </c>
       <c r="M50" t="n">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="N50" t="n">
-        <v>13.32</v>
+        <v>12.55</v>
       </c>
       <c r="O50" t="n">
         <v>10</v>
@@ -5295,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="15" t="n">
-        <v>31740</v>
+        <v>33679.66</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -5316,10 +5316,10 @@
         <v>30.874</v>
       </c>
       <c r="M51" t="n">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="N51" t="n">
-        <v>6.36</v>
+        <v>5.99</v>
       </c>
       <c r="O51" t="n">
         <v>2</v>
@@ -5357,7 +5357,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="15" t="n">
-        <v>32746.23</v>
+        <v>34747.39</v>
       </c>
       <c r="G52" t="n">
         <v>9</v>
@@ -5378,10 +5378,10 @@
         <v>252.709</v>
       </c>
       <c r="M52" t="n">
-        <v>630</v>
+        <v>668</v>
       </c>
       <c r="N52" t="n">
-        <v>7.04</v>
+        <v>6.63</v>
       </c>
       <c r="O52" t="n">
         <v>4</v>
@@ -5419,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="15" t="n">
-        <v>30000</v>
+        <v>31833.33</v>
       </c>
       <c r="G53" t="n">
         <v>8</v>
@@ -5440,10 +5440,10 @@
         <v>55.183</v>
       </c>
       <c r="M53" t="n">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="N53" t="n">
-        <v>5.91</v>
+        <v>5.57</v>
       </c>
       <c r="O53" t="n">
         <v>2</v>
@@ -5481,7 +5481,7 @@
         <v>9</v>
       </c>
       <c r="F54" s="15" t="n">
-        <v>33486.67</v>
+        <v>35533.07</v>
       </c>
       <c r="G54" t="n">
         <v>10</v>
@@ -5502,10 +5502,10 @@
         <v>52.573</v>
       </c>
       <c r="M54" t="n">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="N54" t="n">
-        <v>7.9</v>
+        <v>7.44</v>
       </c>
       <c r="O54" t="n">
         <v>6</v>
@@ -5543,7 +5543,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="15" t="n">
-        <v>21925</v>
+        <v>23264.86</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5564,10 +5564,10 @@
         <v>40.624</v>
       </c>
       <c r="M55" t="n">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="N55" t="n">
-        <v>13.07</v>
+        <v>12.31</v>
       </c>
       <c r="O55" t="n">
         <v>10</v>
@@ -5605,7 +5605,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="15" t="n">
-        <v>32280</v>
+        <v>34252.66</v>
       </c>
       <c r="G56" t="n">
         <v>9</v>
@@ -5626,10 +5626,10 @@
         <v>85.075</v>
       </c>
       <c r="M56" t="n">
-        <v>621</v>
+        <v>659</v>
       </c>
       <c r="N56" t="n">
-        <v>9.94</v>
+        <v>9.36</v>
       </c>
       <c r="O56" t="n">
         <v>8</v>
@@ -5667,7 +5667,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="15" t="n">
-        <v>27047.83</v>
+        <v>28700.75</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -5688,10 +5688,10 @@
         <v>47.56</v>
       </c>
       <c r="M57" t="n">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="N57" t="n">
-        <v>9.14</v>
+        <v>8.61</v>
       </c>
       <c r="O57" t="n">
         <v>8</v>
@@ -5729,7 +5729,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="15" t="n">
-        <v>31676.49</v>
+        <v>33612.27</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -5750,10 +5750,10 @@
         <v>203.546</v>
       </c>
       <c r="M58" t="n">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="N58" t="n">
-        <v>6.39</v>
+        <v>6.02</v>
       </c>
       <c r="O58" t="n">
         <v>2</v>
@@ -5791,7 +5791,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="15" t="n">
-        <v>31968.75</v>
+        <v>33922.39</v>
       </c>
       <c r="G59" t="n">
         <v>9</v>
@@ -5812,10 +5812,10 @@
         <v>60.336</v>
       </c>
       <c r="M59" t="n">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="N59" t="n">
-        <v>6.87</v>
+        <v>6.48</v>
       </c>
       <c r="O59" t="n">
         <v>3</v>
@@ -5853,7 +5853,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="15" t="n">
-        <v>30850</v>
+        <v>32735.27</v>
       </c>
       <c r="G60" t="n">
         <v>8</v>
@@ -5874,10 +5874,10 @@
         <v>68.402</v>
       </c>
       <c r="M60" t="n">
-        <v>593</v>
+        <v>630</v>
       </c>
       <c r="N60" t="n">
-        <v>7.54</v>
+        <v>7.11</v>
       </c>
       <c r="O60" t="n">
         <v>5</v>
@@ -5915,7 +5915,7 @@
         <v>9</v>
       </c>
       <c r="F61" s="15" t="n">
-        <v>27144.44</v>
+        <v>28803.27</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -5936,10 +5936,10 @@
         <v>42.103</v>
       </c>
       <c r="M61" t="n">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="N61" t="n">
-        <v>9.18</v>
+        <v>8.65</v>
       </c>
       <c r="O61" t="n">
         <v>8</v>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="E62"/>
       <c r="F62" s="15" t="n">
-        <v>22700</v>
+        <v>24087.22</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5984,7 +5984,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" t="n">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
@@ -6019,7 +6019,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="15" t="n">
-        <v>29604.35</v>
+        <v>31413.5</v>
       </c>
       <c r="G63" t="n">
         <v>7</v>
@@ -6040,10 +6040,10 @@
         <v>48.195</v>
       </c>
       <c r="M63" t="n">
-        <v>569</v>
+        <v>604</v>
       </c>
       <c r="N63" t="n">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="O63" t="n">
         <v>3</v>
@@ -6081,7 +6081,7 @@
         <v>9</v>
       </c>
       <c r="F64" s="15" t="n">
-        <v>34028.57</v>
+        <v>36108.09</v>
       </c>
       <c r="G64" t="n">
         <v>10</v>
@@ -6102,10 +6102,10 @@
         <v>48.42</v>
       </c>
       <c r="M64" t="n">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="N64" t="n">
-        <v>7.49</v>
+        <v>7.06</v>
       </c>
       <c r="O64" t="n">
         <v>5</v>
@@ -6143,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="F65" s="15" t="n">
-        <v>29643.43</v>
+        <v>31454.97</v>
       </c>
       <c r="G65" t="n">
         <v>7</v>
@@ -6164,10 +6164,10 @@
         <v>362.829</v>
       </c>
       <c r="M65" t="n">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="N65" t="n">
-        <v>7.23</v>
+        <v>6.81</v>
       </c>
       <c r="O65" t="n">
         <v>4</v>
@@ -6205,7 +6205,7 @@
         <v>8</v>
       </c>
       <c r="F66" s="15" t="n">
-        <v>22446.88</v>
+        <v>23818.63</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -6226,10 +6226,10 @@
         <v>109.246</v>
       </c>
       <c r="M66" t="n">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="N66" t="n">
-        <v>10.82</v>
+        <v>10.2</v>
       </c>
       <c r="O66" t="n">
         <v>10</v>
@@ -6267,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="15" t="n">
-        <v>38760</v>
+        <v>41128.66</v>
       </c>
       <c r="G67" t="n">
         <v>10</v>
@@ -6288,10 +6288,10 @@
         <v>19.913</v>
       </c>
       <c r="M67" t="n">
-        <v>745</v>
+        <v>791</v>
       </c>
       <c r="N67" t="n">
-        <v>4.04</v>
+        <v>3.81</v>
       </c>
       <c r="O67" t="n">
         <v>1</v>
@@ -6329,7 +6329,7 @@
         <v>4</v>
       </c>
       <c r="F68" s="15" t="n">
-        <v>24350.85</v>
+        <v>25838.95</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -6350,10 +6350,10 @@
         <v>98.202</v>
       </c>
       <c r="M68" t="n">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="N68" t="n">
-        <v>8.32</v>
+        <v>7.84</v>
       </c>
       <c r="O68" t="n">
         <v>7</v>
@@ -6391,7 +6391,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="15" t="n">
-        <v>20985</v>
+        <v>22267.41</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -6412,10 +6412,10 @@
         <v>41.557</v>
       </c>
       <c r="M69" t="n">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="N69" t="n">
-        <v>11.87</v>
+        <v>11.19</v>
       </c>
       <c r="O69" t="n">
         <v>10</v>
@@ -6453,7 +6453,7 @@
         <v>4</v>
       </c>
       <c r="F70" s="15" t="n">
-        <v>30728.57</v>
+        <v>32606.43</v>
       </c>
       <c r="G70" t="n">
         <v>8</v>
@@ -6474,10 +6474,10 @@
         <v>73.113</v>
       </c>
       <c r="M70" t="n">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="N70" t="n">
-        <v>6.75</v>
+        <v>6.36</v>
       </c>
       <c r="O70" t="n">
         <v>3</v>
@@ -6515,7 +6515,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="15" t="n">
-        <v>25636.48</v>
+        <v>27203.15</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -6536,10 +6536,10 @@
         <v>281.566</v>
       </c>
       <c r="M71" t="n">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="N71" t="n">
-        <v>8.19</v>
+        <v>7.71</v>
       </c>
       <c r="O71" t="n">
         <v>7</v>
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="15" t="n">
-        <v>25265.42</v>
+        <v>26809.42</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -6598,10 +6598,10 @@
         <v>164.831</v>
       </c>
       <c r="M72" t="n">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="N72" t="n">
-        <v>6.85</v>
+        <v>6.46</v>
       </c>
       <c r="O72" t="n">
         <v>3</v>
@@ -6639,7 +6639,7 @@
         <v>2</v>
       </c>
       <c r="F73" s="15" t="n">
-        <v>20843.24</v>
+        <v>22116.99</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -6660,10 +6660,10 @@
         <v>72.993</v>
       </c>
       <c r="M73" t="n">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="N73" t="n">
-        <v>8.39</v>
+        <v>7.91</v>
       </c>
       <c r="O73" t="n">
         <v>7</v>
@@ -6701,7 +6701,7 @@
         <v>8</v>
       </c>
       <c r="F74" s="15" t="n">
-        <v>31161.77</v>
+        <v>33066.1</v>
       </c>
       <c r="G74" t="n">
         <v>9</v>
@@ -6722,10 +6722,10 @@
         <v>164.577</v>
       </c>
       <c r="M74" t="n">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="N74" t="n">
-        <v>7.81</v>
+        <v>7.36</v>
       </c>
       <c r="O74" t="n">
         <v>6</v>
@@ -6763,7 +6763,7 @@
         <v>4</v>
       </c>
       <c r="F75" s="15" t="n">
-        <v>30763.89</v>
+        <v>32643.9</v>
       </c>
       <c r="G75" t="n">
         <v>8</v>
@@ -6784,10 +6784,10 @@
         <v>70.092</v>
       </c>
       <c r="M75" t="n">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="N75" t="n">
-        <v>6.61</v>
+        <v>6.23</v>
       </c>
       <c r="O75" t="n">
         <v>3</v>
@@ -6825,7 +6825,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="15" t="n">
-        <v>27021.75</v>
+        <v>28673.07</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -6846,10 +6846,10 @@
         <v>174.982</v>
       </c>
       <c r="M76" t="n">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="N76" t="n">
-        <v>6.88</v>
+        <v>6.48</v>
       </c>
       <c r="O76" t="n">
         <v>4</v>
@@ -6887,7 +6887,7 @@
         <v>6</v>
       </c>
       <c r="F77" s="15" t="n">
-        <v>21895.08</v>
+        <v>23233.11</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -6908,10 +6908,10 @@
         <v>123.183</v>
       </c>
       <c r="M77" t="n">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="N77" t="n">
-        <v>9.9</v>
+        <v>9.33</v>
       </c>
       <c r="O77" t="n">
         <v>8</v>
@@ -6949,7 +6949,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="15" t="n">
-        <v>25614.29</v>
+        <v>27179.6</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -6970,10 +6970,10 @@
         <v>81.277</v>
       </c>
       <c r="M78" t="n">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="N78" t="n">
-        <v>12.11</v>
+        <v>11.41</v>
       </c>
       <c r="O78" t="n">
         <v>10</v>
@@ -7011,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>21901.75</v>
+        <v>23240.19</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -7032,10 +7032,10 @@
         <v>101.253</v>
       </c>
       <c r="M79" t="n">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="N79" t="n">
-        <v>5.97</v>
+        <v>5.62</v>
       </c>
       <c r="O79" t="n">
         <v>2</v>
@@ -7073,7 +7073,7 @@
         <v>9</v>
       </c>
       <c r="F80" s="15" t="n">
-        <v>28457.89</v>
+        <v>30196.99</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -7094,10 +7094,10 @@
         <v>77.515</v>
       </c>
       <c r="M80" t="n">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="N80" t="n">
-        <v>9.07</v>
+        <v>8.55</v>
       </c>
       <c r="O80" t="n">
         <v>8</v>
@@ -7135,7 +7135,7 @@
         <v>2</v>
       </c>
       <c r="F81" s="15" t="n">
-        <v>35368</v>
+        <v>37529.37</v>
       </c>
       <c r="G81" t="n">
         <v>10</v>
@@ -7156,10 +7156,10 @@
         <v>38.571</v>
       </c>
       <c r="M81" t="n">
-        <v>680</v>
+        <v>722</v>
       </c>
       <c r="N81" t="n">
-        <v>5.06</v>
+        <v>4.77</v>
       </c>
       <c r="O81" t="n">
         <v>1</v>
@@ -7197,7 +7197,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="15" t="n">
-        <v>22326.32</v>
+        <v>23690.7</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -7218,10 +7218,10 @@
         <v>53.249</v>
       </c>
       <c r="M82" t="n">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="N82" t="n">
-        <v>12.84</v>
+        <v>12.1</v>
       </c>
       <c r="O82" t="n">
         <v>10</v>
@@ -7259,7 +7259,7 @@
         <v>6</v>
       </c>
       <c r="F83" s="15" t="n">
-        <v>29484.38</v>
+        <v>31286.19</v>
       </c>
       <c r="G83" t="n">
         <v>7</v>
@@ -7280,10 +7280,10 @@
         <v>65.841</v>
       </c>
       <c r="M83" t="n">
-        <v>567</v>
+        <v>602</v>
       </c>
       <c r="N83" t="n">
-        <v>7.39</v>
+        <v>6.97</v>
       </c>
       <c r="O83" t="n">
         <v>5</v>
@@ -7321,7 +7321,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="15" t="n">
-        <v>24086.21</v>
+        <v>25558.14</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -7342,10 +7342,10 @@
         <v>86.874</v>
       </c>
       <c r="M84" t="n">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="N84" t="n">
-        <v>11.34</v>
+        <v>10.69</v>
       </c>
       <c r="O84" t="n">
         <v>10</v>
@@ -7383,7 +7383,7 @@
         <v>8</v>
       </c>
       <c r="F85" s="15" t="n">
-        <v>26275.68</v>
+        <v>27881.41</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -7404,10 +7404,10 @@
         <v>90.918</v>
       </c>
       <c r="M85" t="n">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="N85" t="n">
-        <v>9.38</v>
+        <v>8.84</v>
       </c>
       <c r="O85" t="n">
         <v>8</v>
@@ -7445,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="15" t="n">
-        <v>28364.07</v>
+        <v>30097.42</v>
       </c>
       <c r="G86" t="n">
         <v>6</v>
@@ -7466,10 +7466,10 @@
         <v>191.128</v>
       </c>
       <c r="M86" t="n">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="N86" t="n">
-        <v>6.3</v>
+        <v>5.94</v>
       </c>
       <c r="O86" t="n">
         <v>2</v>
@@ -7507,7 +7507,7 @@
         <v>5</v>
       </c>
       <c r="F87" s="15" t="n">
-        <v>23526.09</v>
+        <v>24963.79</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -7528,10 +7528,10 @@
         <v>59.446</v>
       </c>
       <c r="M87" t="n">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="N87" t="n">
-        <v>9.1</v>
+        <v>8.58</v>
       </c>
       <c r="O87" t="n">
         <v>8</v>
@@ -7569,7 +7569,7 @@
         <v>7</v>
       </c>
       <c r="F88" s="15" t="n">
-        <v>26817.39</v>
+        <v>28456.23</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -7590,10 +7590,10 @@
         <v>55.658</v>
       </c>
       <c r="M88" t="n">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="N88" t="n">
-        <v>8.51</v>
+        <v>8.02</v>
       </c>
       <c r="O88" t="n">
         <v>7</v>
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="15" t="n">
-        <v>28900</v>
+        <v>30666.11</v>
       </c>
       <c r="G89" t="n">
         <v>6</v>
@@ -7652,10 +7652,10 @@
         <v>32.074</v>
       </c>
       <c r="M89" t="n">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="N89" t="n">
-        <v>5.76</v>
+        <v>5.43</v>
       </c>
       <c r="O89" t="n">
         <v>1</v>
@@ -7693,7 +7693,7 @@
         <v>9</v>
       </c>
       <c r="F90" s="15" t="n">
-        <v>26016.67</v>
+        <v>27606.57</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -7714,10 +7714,10 @@
         <v>59.835</v>
       </c>
       <c r="M90" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="N90" t="n">
-        <v>9.94</v>
+        <v>9.37</v>
       </c>
       <c r="O90" t="n">
         <v>8</v>
@@ -7755,7 +7755,7 @@
         <v>6</v>
       </c>
       <c r="F91" s="15" t="n">
-        <v>28621.17</v>
+        <v>30370.24</v>
       </c>
       <c r="G91" t="n">
         <v>6</v>
@@ -7776,10 +7776,10 @@
         <v>130.216</v>
       </c>
       <c r="M91" t="n">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="N91" t="n">
-        <v>7.61</v>
+        <v>7.17</v>
       </c>
       <c r="O91" t="n">
         <v>5</v>
@@ -7817,7 +7817,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="15" t="n">
-        <v>29037.4</v>
+        <v>30811.91</v>
       </c>
       <c r="G92" t="n">
         <v>7</v>
@@ -7838,10 +7838,10 @@
         <v>215.022</v>
       </c>
       <c r="M92" t="n">
-        <v>558</v>
+        <v>593</v>
       </c>
       <c r="N92" t="n">
-        <v>7.78</v>
+        <v>7.33</v>
       </c>
       <c r="O92" t="n">
         <v>6</v>
@@ -7879,7 +7879,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="15" t="n">
-        <v>26652.5</v>
+        <v>28281.26</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -7900,10 +7900,10 @@
         <v>79.945</v>
       </c>
       <c r="M93" t="n">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="N93" t="n">
-        <v>8.86</v>
+        <v>8.35</v>
       </c>
       <c r="O93" t="n">
         <v>8</v>
@@ -7941,7 +7941,7 @@
         <v>5</v>
       </c>
       <c r="F94" s="15" t="n">
-        <v>23686.84</v>
+        <v>25134.37</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -7962,10 +7962,10 @@
         <v>115.205</v>
       </c>
       <c r="M94" t="n">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="N94" t="n">
-        <v>8.82</v>
+        <v>8.32</v>
       </c>
       <c r="O94" t="n">
         <v>8</v>
@@ -8003,7 +8003,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="15" t="n">
-        <v>30664.52</v>
+        <v>32538.46</v>
       </c>
       <c r="G95" t="n">
         <v>8</v>
@@ -8024,10 +8024,10 @@
         <v>216.532</v>
       </c>
       <c r="M95" t="n">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="N95" t="n">
-        <v>7.43</v>
+        <v>7</v>
       </c>
       <c r="O95" t="n">
         <v>5</v>
@@ -8065,7 +8065,7 @@
         <v>9</v>
       </c>
       <c r="F96" s="15" t="n">
-        <v>24087.88</v>
+        <v>25559.91</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -8086,10 +8086,10 @@
         <v>84.893</v>
       </c>
       <c r="M96" t="n">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="N96" t="n">
-        <v>11.1</v>
+        <v>10.46</v>
       </c>
       <c r="O96" t="n">
         <v>10</v>
@@ -8127,7 +8127,7 @@
         <v>3</v>
       </c>
       <c r="F97" s="15" t="n">
-        <v>33310.03</v>
+        <v>35345.64</v>
       </c>
       <c r="G97" t="n">
         <v>9</v>
@@ -8148,10 +8148,10 @@
         <v>131.466</v>
       </c>
       <c r="M97" t="n">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="N97" t="n">
-        <v>6.03</v>
+        <v>5.68</v>
       </c>
       <c r="O97" t="n">
         <v>2</v>
@@ -8189,7 +8189,7 @@
         <v>2</v>
       </c>
       <c r="F98" s="15" t="n">
-        <v>26936.36</v>
+        <v>28582.47</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -8210,10 +8210,10 @@
         <v>51.651</v>
       </c>
       <c r="M98" t="n">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="N98" t="n">
-        <v>6.77</v>
+        <v>6.38</v>
       </c>
       <c r="O98" t="n">
         <v>3</v>
@@ -8251,7 +8251,7 @@
         <v>2</v>
       </c>
       <c r="F99" s="15" t="n">
-        <v>26246.88</v>
+        <v>27850.85</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -8272,10 +8272,10 @@
         <v>71.557</v>
       </c>
       <c r="M99" t="n">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="N99" t="n">
-        <v>7.04</v>
+        <v>6.63</v>
       </c>
       <c r="O99" t="n">
         <v>4</v>
@@ -8313,7 +8313,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="15" t="n">
-        <v>29028</v>
+        <v>30801.93</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -8334,10 +8334,10 @@
         <v>68.568</v>
       </c>
       <c r="M100" t="n">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="N100" t="n">
-        <v>8.39</v>
+        <v>7.91</v>
       </c>
       <c r="O100" t="n">
         <v>7</v>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="E101"/>
       <c r="F101" s="15" t="n">
-        <v>31094.44</v>
+        <v>32994.66</v>
       </c>
       <c r="G101" t="n">
         <v>8</v>
@@ -8388,7 +8388,7 @@
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
       <c r="M101" t="n">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
@@ -8423,7 +8423,7 @@
         <v>8</v>
       </c>
       <c r="F102" s="15" t="n">
-        <v>30845.16</v>
+        <v>32730.14</v>
       </c>
       <c r="G102" t="n">
         <v>8</v>
@@ -8444,10 +8444,10 @@
         <v>73.736</v>
       </c>
       <c r="M102" t="n">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="N102" t="n">
-        <v>7.81</v>
+        <v>7.36</v>
       </c>
       <c r="O102" t="n">
         <v>6</v>
@@ -8485,7 +8485,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="15" t="n">
-        <v>24326.32</v>
+        <v>25812.92</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -8506,10 +8506,10 @@
         <v>41.038</v>
       </c>
       <c r="M103" t="n">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="N103" t="n">
-        <v>9.96</v>
+        <v>9.38</v>
       </c>
       <c r="O103" t="n">
         <v>9</v>
@@ -8547,7 +8547,7 @@
         <v>6</v>
       </c>
       <c r="F104" s="15" t="n">
-        <v>40526.09</v>
+        <v>43002.68</v>
       </c>
       <c r="G104" t="n">
         <v>10</v>
@@ -8568,10 +8568,10 @@
         <v>27.067</v>
       </c>
       <c r="M104" t="n">
-        <v>779</v>
+        <v>827</v>
       </c>
       <c r="N104" t="n">
-        <v>5.49</v>
+        <v>5.17</v>
       </c>
       <c r="O104" t="n">
         <v>1</v>
@@ -8609,7 +8609,7 @@
         <v>4</v>
       </c>
       <c r="F105" s="15" t="n">
-        <v>23664</v>
+        <v>25110.13</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -8630,10 +8630,10 @@
         <v>52.386</v>
       </c>
       <c r="M105" t="n">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="N105" t="n">
-        <v>8.64</v>
+        <v>8.14</v>
       </c>
       <c r="O105" t="n">
         <v>7</v>
@@ -8671,7 +8671,7 @@
         <v>4</v>
       </c>
       <c r="F106" s="15" t="n">
-        <v>26457.58</v>
+        <v>28074.42</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -8692,10 +8692,10 @@
         <v>74.974</v>
       </c>
       <c r="M106" t="n">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="N106" t="n">
-        <v>7.64</v>
+        <v>7.2</v>
       </c>
       <c r="O106" t="n">
         <v>5</v>
@@ -8733,7 +8733,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="15" t="n">
-        <v>34400</v>
+        <v>36502.22</v>
       </c>
       <c r="G107" t="n">
         <v>10</v>
@@ -8754,10 +8754,10 @@
         <v>7.963</v>
       </c>
       <c r="M107" t="n">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="N107" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="O107" t="n">
         <v>4</v>
@@ -8795,7 +8795,7 @@
         <v>10</v>
       </c>
       <c r="F108" s="15" t="n">
-        <v>22953.33</v>
+        <v>24356.03</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -8816,10 +8816,10 @@
         <v>115.133</v>
       </c>
       <c r="M108" t="n">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="N108" t="n">
-        <v>13.05</v>
+        <v>12.3</v>
       </c>
       <c r="O108" t="n">
         <v>10</v>
@@ -8857,7 +8857,7 @@
         <v>8</v>
       </c>
       <c r="F109" s="15" t="n">
-        <v>20923.68</v>
+        <v>22202.35</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -8878,10 +8878,10 @@
         <v>90.167</v>
       </c>
       <c r="M109" t="n">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="N109" t="n">
-        <v>11.42</v>
+        <v>10.76</v>
       </c>
       <c r="O109" t="n">
         <v>10</v>
@@ -8919,7 +8919,7 @@
         <v>10</v>
       </c>
       <c r="F110" s="15" t="n">
-        <v>25771.05</v>
+        <v>27345.95</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -8940,10 +8940,10 @@
         <v>57.473</v>
       </c>
       <c r="M110" t="n">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="N110" t="n">
-        <v>10.54</v>
+        <v>9.93</v>
       </c>
       <c r="O110" t="n">
         <v>9</v>
@@ -8981,7 +8981,7 @@
         <v>4</v>
       </c>
       <c r="F111" s="15" t="n">
-        <v>27158.57</v>
+        <v>28818.26</v>
       </c>
       <c r="G111" t="n">
         <v>5</v>
@@ -9002,10 +9002,10 @@
         <v>134.701</v>
       </c>
       <c r="M111" t="n">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="N111" t="n">
-        <v>7.63</v>
+        <v>7.19</v>
       </c>
       <c r="O111" t="n">
         <v>5</v>
@@ -9043,7 +9043,7 @@
         <v>9</v>
       </c>
       <c r="F112" s="15" t="n">
-        <v>27856.41</v>
+        <v>29558.74</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -9064,10 +9064,10 @@
         <v>95.718</v>
       </c>
       <c r="M112" t="n">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="N112" t="n">
-        <v>9.52</v>
+        <v>8.97</v>
       </c>
       <c r="O112" t="n">
         <v>8</v>
@@ -9105,7 +9105,7 @@
         <v>4</v>
       </c>
       <c r="F113" s="15" t="n">
-        <v>25914.29</v>
+        <v>27497.93</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -9126,10 +9126,10 @@
         <v>35.495</v>
       </c>
       <c r="M113" t="n">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="N113" t="n">
-        <v>7.97</v>
+        <v>7.51</v>
       </c>
       <c r="O113" t="n">
         <v>6</v>
@@ -9167,7 +9167,7 @@
         <v>10</v>
       </c>
       <c r="F114" s="15" t="n">
-        <v>29434.48</v>
+        <v>31233.25</v>
       </c>
       <c r="G114" t="n">
         <v>7</v>
@@ -9188,10 +9188,10 @@
         <v>59.11</v>
       </c>
       <c r="M114" t="n">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="N114" t="n">
-        <v>9.46</v>
+        <v>8.92</v>
       </c>
       <c r="O114" t="n">
         <v>8</v>
@@ -9229,7 +9229,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="15" t="n">
-        <v>27074.5</v>
+        <v>28729.05</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -9250,10 +9250,10 @@
         <v>116.938</v>
       </c>
       <c r="M115" t="n">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="N115" t="n">
-        <v>6.65</v>
+        <v>6.27</v>
       </c>
       <c r="O115" t="n">
         <v>3</v>
@@ -9291,7 +9291,7 @@
         <v>3</v>
       </c>
       <c r="F116" s="15" t="n">
-        <v>30287.5</v>
+        <v>32138.4</v>
       </c>
       <c r="G116" t="n">
         <v>8</v>
@@ -9312,10 +9312,10 @@
         <v>49.485</v>
       </c>
       <c r="M116" t="n">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="N116" t="n">
-        <v>6.46</v>
+        <v>6.09</v>
       </c>
       <c r="O116" t="n">
         <v>2</v>
@@ -9353,7 +9353,7 @@
         <v>5</v>
       </c>
       <c r="F117" s="15" t="n">
-        <v>24521.74</v>
+        <v>26020.29</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -9374,10 +9374,10 @@
         <v>41.211</v>
       </c>
       <c r="M117" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="N117" t="n">
-        <v>8.52</v>
+        <v>8.03</v>
       </c>
       <c r="O117" t="n">
         <v>7</v>
@@ -9415,7 +9415,7 @@
         <v>3</v>
       </c>
       <c r="F118" s="15" t="n">
-        <v>27565.62</v>
+        <v>29250.19</v>
       </c>
       <c r="G118" t="n">
         <v>5</v>
@@ -9436,10 +9436,10 @@
         <v>63.504</v>
       </c>
       <c r="M118" t="n">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="N118" t="n">
-        <v>6.82</v>
+        <v>6.42</v>
       </c>
       <c r="O118" t="n">
         <v>3</v>
@@ -9477,7 +9477,7 @@
         <v>7</v>
       </c>
       <c r="F119" s="15" t="n">
-        <v>28000</v>
+        <v>29711.11</v>
       </c>
       <c r="G119" t="n">
         <v>6</v>
@@ -9498,10 +9498,10 @@
         <v>44.13</v>
       </c>
       <c r="M119" t="n">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="N119" t="n">
-        <v>8.31</v>
+        <v>7.83</v>
       </c>
       <c r="O119" t="n">
         <v>7</v>
@@ -9539,7 +9539,7 @@
         <v>2</v>
       </c>
       <c r="F120" s="15" t="n">
-        <v>30700</v>
+        <v>32576.11</v>
       </c>
       <c r="G120" t="n">
         <v>8</v>
@@ -9560,10 +9560,10 @@
         <v>69.381</v>
       </c>
       <c r="M120" t="n">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="N120" t="n">
-        <v>5.73</v>
+        <v>5.4</v>
       </c>
       <c r="O120" t="n">
         <v>1</v>
@@ -9601,7 +9601,7 @@
         <v>9</v>
       </c>
       <c r="F121" s="15" t="n">
-        <v>25352.17</v>
+        <v>26901.47</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -9622,10 +9622,10 @@
         <v>48.395</v>
       </c>
       <c r="M121" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="N121" t="n">
-        <v>10.18</v>
+        <v>9.6</v>
       </c>
       <c r="O121" t="n">
         <v>9</v>
@@ -9663,7 +9663,7 @@
         <v>4</v>
       </c>
       <c r="F122" s="15" t="n">
-        <v>28082.17</v>
+        <v>29798.3</v>
       </c>
       <c r="G122" t="n">
         <v>6</v>
@@ -9684,10 +9684,10 @@
         <v>202.737</v>
       </c>
       <c r="M122" t="n">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="N122" t="n">
-        <v>7.33</v>
+        <v>6.91</v>
       </c>
       <c r="O122" t="n">
         <v>5</v>
@@ -9725,7 +9725,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="15" t="n">
-        <v>28107.14</v>
+        <v>29824.8</v>
       </c>
       <c r="G123" t="n">
         <v>6</v>
@@ -9746,10 +9746,10 @@
         <v>102.29</v>
       </c>
       <c r="M123" t="n">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="N123" t="n">
-        <v>11.82</v>
+        <v>11.14</v>
       </c>
       <c r="O123" t="n">
         <v>10</v>
@@ -9787,7 +9787,7 @@
         <v>9</v>
       </c>
       <c r="F124" s="15" t="n">
-        <v>25450</v>
+        <v>27005.27</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -9808,10 +9808,10 @@
         <v>51.995</v>
       </c>
       <c r="M124" t="n">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="N124" t="n">
-        <v>10.07</v>
+        <v>9.49</v>
       </c>
       <c r="O124" t="n">
         <v>9</v>
@@ -9849,7 +9849,7 @@
         <v>5</v>
       </c>
       <c r="F125" s="15" t="n">
-        <v>23550</v>
+        <v>24989.16</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -9870,10 +9870,10 @@
         <v>75.235</v>
       </c>
       <c r="M125" t="n">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="N125" t="n">
-        <v>8.82</v>
+        <v>8.31</v>
       </c>
       <c r="O125" t="n">
         <v>8</v>
@@ -9911,7 +9911,7 @@
         <v>4</v>
       </c>
       <c r="F126" s="15" t="n">
-        <v>29087.56</v>
+        <v>30865.13</v>
       </c>
       <c r="G126" t="n">
         <v>7</v>
@@ -9932,10 +9932,10 @@
         <v>202.354</v>
       </c>
       <c r="M126" t="n">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="N126" t="n">
-        <v>7.12</v>
+        <v>6.71</v>
       </c>
       <c r="O126" t="n">
         <v>4</v>
@@ -9973,7 +9973,7 @@
         <v>8</v>
       </c>
       <c r="F127" s="15" t="n">
-        <v>24250</v>
+        <v>25731.94</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -9994,10 +9994,10 @@
         <v>86.599</v>
       </c>
       <c r="M127" t="n">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="N127" t="n">
-        <v>10</v>
+        <v>9.43</v>
       </c>
       <c r="O127" t="n">
         <v>9</v>
@@ -10035,7 +10035,7 @@
         <v>9</v>
       </c>
       <c r="F128" s="15" t="n">
-        <v>34224.48</v>
+        <v>36315.97</v>
       </c>
       <c r="G128" t="n">
         <v>10</v>
@@ -10056,10 +10056,10 @@
         <v>246.438</v>
       </c>
       <c r="M128" t="n">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="N128" t="n">
-        <v>7.68</v>
+        <v>7.24</v>
       </c>
       <c r="O128" t="n">
         <v>5</v>
@@ -10097,7 +10097,7 @@
         <v>9</v>
       </c>
       <c r="F129" s="15" t="n">
-        <v>35245.83</v>
+        <v>37399.74</v>
       </c>
       <c r="G129" t="n">
         <v>10</v>
@@ -10118,10 +10118,10 @@
         <v>66.881</v>
       </c>
       <c r="M129" t="n">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="N129" t="n">
-        <v>7.59</v>
+        <v>7.16</v>
       </c>
       <c r="O129" t="n">
         <v>5</v>
@@ -10159,7 +10159,7 @@
         <v>6</v>
       </c>
       <c r="F130" s="15" t="n">
-        <v>27385.19</v>
+        <v>29058.72</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -10180,10 +10180,10 @@
         <v>50.005</v>
       </c>
       <c r="M130" t="n">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="N130" t="n">
-        <v>8.11</v>
+        <v>7.65</v>
       </c>
       <c r="O130" t="n">
         <v>6</v>
@@ -10221,7 +10221,7 @@
         <v>8</v>
       </c>
       <c r="F131" s="15" t="n">
-        <v>23670</v>
+        <v>25116.5</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -10242,10 +10242,10 @@
         <v>78.589</v>
       </c>
       <c r="M131" t="n">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="N131" t="n">
-        <v>10.4</v>
+        <v>9.8</v>
       </c>
       <c r="O131" t="n">
         <v>9</v>
@@ -10283,7 +10283,7 @@
         <v>6</v>
       </c>
       <c r="F132" s="15" t="n">
-        <v>26547.83</v>
+        <v>28170.19</v>
       </c>
       <c r="G132" t="n">
         <v>4</v>
@@ -10304,10 +10304,10 @@
         <v>47.52</v>
       </c>
       <c r="M132" t="n">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="N132" t="n">
-        <v>8.39</v>
+        <v>7.9</v>
       </c>
       <c r="O132" t="n">
         <v>7</v>
@@ -10345,7 +10345,7 @@
         <v>10</v>
       </c>
       <c r="F133" s="15" t="n">
-        <v>27936.84</v>
+        <v>29644.09</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -10366,10 +10366,10 @@
         <v>63.978</v>
       </c>
       <c r="M133" t="n">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="N133" t="n">
-        <v>10.07</v>
+        <v>9.49</v>
       </c>
       <c r="O133" t="n">
         <v>9</v>
@@ -10407,7 +10407,7 @@
         <v>2</v>
       </c>
       <c r="F134" s="15" t="n">
-        <v>22947.06</v>
+        <v>24349.38</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -10428,10 +10428,10 @@
         <v>30.847</v>
       </c>
       <c r="M134" t="n">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="N134" t="n">
-        <v>8.1</v>
+        <v>7.64</v>
       </c>
       <c r="O134" t="n">
         <v>6</v>
@@ -10469,7 +10469,7 @@
         <v>5</v>
       </c>
       <c r="F135" s="15" t="n">
-        <v>28475</v>
+        <v>30215.14</v>
       </c>
       <c r="G135" t="n">
         <v>6</v>
@@ -10490,10 +10490,10 @@
         <v>79.046</v>
       </c>
       <c r="M135" t="n">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="N135" t="n">
-        <v>7.28</v>
+        <v>6.86</v>
       </c>
       <c r="O135" t="n">
         <v>4</v>
@@ -10531,7 +10531,7 @@
         <v>5</v>
       </c>
       <c r="F136" s="15" t="n">
-        <v>27867.86</v>
+        <v>29570.89</v>
       </c>
       <c r="G136" t="n">
         <v>5</v>
@@ -10552,10 +10552,10 @@
         <v>35.323</v>
       </c>
       <c r="M136" t="n">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="N136" t="n">
-        <v>7.66</v>
+        <v>7.22</v>
       </c>
       <c r="O136" t="n">
         <v>5</v>
@@ -10593,7 +10593,7 @@
         <v>2</v>
       </c>
       <c r="F137" s="15" t="n">
-        <v>26402.22</v>
+        <v>28015.69</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -10614,10 +10614,10 @@
         <v>83.58</v>
       </c>
       <c r="M137" t="n">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="N137" t="n">
-        <v>6.92</v>
+        <v>6.52</v>
       </c>
       <c r="O137" t="n">
         <v>4</v>
@@ -10655,7 +10655,7 @@
         <v>3</v>
       </c>
       <c r="F138" s="15" t="n">
-        <v>23005.13</v>
+        <v>24410.99</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -10676,10 +10676,10 @@
         <v>61.047</v>
       </c>
       <c r="M138" t="n">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="N138" t="n">
-        <v>8.15</v>
+        <v>7.68</v>
       </c>
       <c r="O138" t="n">
         <v>7</v>
@@ -10717,7 +10717,7 @@
         <v>5</v>
       </c>
       <c r="F139" s="15" t="n">
-        <v>29785.71</v>
+        <v>31605.95</v>
       </c>
       <c r="G139" t="n">
         <v>7</v>
@@ -10738,10 +10738,10 @@
         <v>71.235</v>
       </c>
       <c r="M139" t="n">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="N139" t="n">
-        <v>7.04</v>
+        <v>6.64</v>
       </c>
       <c r="O139" t="n">
         <v>4</v>
@@ -10779,7 +10779,7 @@
         <v>4</v>
       </c>
       <c r="F140" s="15" t="n">
-        <v>35881.08</v>
+        <v>38073.81</v>
       </c>
       <c r="G140" t="n">
         <v>10</v>
@@ -10800,10 +10800,10 @@
         <v>72.553</v>
       </c>
       <c r="M140" t="n">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="N140" t="n">
-        <v>5.66</v>
+        <v>5.34</v>
       </c>
       <c r="O140" t="n">
         <v>1</v>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="E141"/>
       <c r="F141" s="15" t="n">
-        <v>28268</v>
+        <v>29995.49</v>
       </c>
       <c r="G141" t="n">
         <v>6</v>
@@ -10854,7 +10854,7 @@
       <c r="K141" s="15"/>
       <c r="L141" s="15"/>
       <c r="M141" t="n">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="N141"/>
       <c r="O141"/>
@@ -10889,7 +10889,7 @@
         <v>7</v>
       </c>
       <c r="F142" s="15" t="n">
-        <v>28910.92</v>
+        <v>30677.69</v>
       </c>
       <c r="G142" t="n">
         <v>6</v>
@@ -10910,10 +10910,10 @@
         <v>137.794</v>
       </c>
       <c r="M142" t="n">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="N142" t="n">
-        <v>7.79</v>
+        <v>7.35</v>
       </c>
       <c r="O142" t="n">
         <v>6</v>
@@ -10951,7 +10951,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="15" t="n">
-        <v>34086.36</v>
+        <v>36169.42</v>
       </c>
       <c r="G143" t="n">
         <v>10</v>
@@ -10972,10 +10972,10 @@
         <v>21.182</v>
       </c>
       <c r="M143" t="n">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="N143" t="n">
-        <v>4.89</v>
+        <v>4.61</v>
       </c>
       <c r="O143" t="n">
         <v>1</v>
@@ -11013,7 +11013,7 @@
         <v>3</v>
       </c>
       <c r="F144" s="15" t="n">
-        <v>30881.63</v>
+        <v>32768.83</v>
       </c>
       <c r="G144" t="n">
         <v>8</v>
@@ -11034,10 +11034,10 @@
         <v>135.233</v>
       </c>
       <c r="M144" t="n">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="N144" t="n">
-        <v>6.34</v>
+        <v>5.98</v>
       </c>
       <c r="O144" t="n">
         <v>2</v>
@@ -11075,7 +11075,7 @@
         <v>4</v>
       </c>
       <c r="F145" s="15" t="n">
-        <v>33279.17</v>
+        <v>35312.89</v>
       </c>
       <c r="G145" t="n">
         <v>9</v>
@@ -11096,10 +11096,10 @@
         <v>45.584</v>
       </c>
       <c r="M145" t="n">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="N145" t="n">
-        <v>6.15</v>
+        <v>5.8</v>
       </c>
       <c r="O145" t="n">
         <v>2</v>
@@ -11137,7 +11137,7 @@
         <v>10</v>
       </c>
       <c r="F146" s="15" t="n">
-        <v>25187.5</v>
+        <v>26726.73</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -11158,10 +11158,10 @@
         <v>118.443</v>
       </c>
       <c r="M146" t="n">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="N146" t="n">
-        <v>10.65</v>
+        <v>10.03</v>
       </c>
       <c r="O146" t="n">
         <v>9</v>
@@ -11199,7 +11199,7 @@
         <v>7</v>
       </c>
       <c r="F147" s="15" t="n">
-        <v>29887.1</v>
+        <v>31713.53</v>
       </c>
       <c r="G147" t="n">
         <v>7</v>
@@ -11220,10 +11220,10 @@
         <v>130.619</v>
       </c>
       <c r="M147" t="n">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="N147" t="n">
-        <v>7.6</v>
+        <v>7.16</v>
       </c>
       <c r="O147" t="n">
         <v>5</v>
@@ -11261,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="15" t="n">
-        <v>33372.22</v>
+        <v>35411.63</v>
       </c>
       <c r="G148" t="n">
         <v>10</v>
@@ -11282,10 +11282,10 @@
         <v>19.835</v>
       </c>
       <c r="M148" t="n">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="N148" t="n">
-        <v>5.19</v>
+        <v>4.89</v>
       </c>
       <c r="O148" t="n">
         <v>1</v>
@@ -11323,7 +11323,7 @@
         <v>7</v>
       </c>
       <c r="F149" s="15" t="n">
-        <v>26150</v>
+        <v>27748.05</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -11344,10 +11344,10 @@
         <v>65.219</v>
       </c>
       <c r="M149" t="n">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="N149" t="n">
-        <v>9.05</v>
+        <v>8.53</v>
       </c>
       <c r="O149" t="n">
         <v>8</v>
@@ -11385,7 +11385,7 @@
         <v>10</v>
       </c>
       <c r="F150" s="15" t="n">
-        <v>35985</v>
+        <v>38184.08</v>
       </c>
       <c r="G150" t="n">
         <v>10</v>
@@ -11406,10 +11406,10 @@
         <v>47.014</v>
       </c>
       <c r="M150" t="n">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="N150" t="n">
-        <v>11.88</v>
+        <v>11.2</v>
       </c>
       <c r="O150" t="n">
         <v>10</v>
@@ -11447,7 +11447,7 @@
         <v>8</v>
       </c>
       <c r="F151" s="15" t="n">
-        <v>22763.64</v>
+        <v>24154.74</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -11468,10 +11468,10 @@
         <v>74.635</v>
       </c>
       <c r="M151" t="n">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="N151" t="n">
-        <v>10.8</v>
+        <v>10.18</v>
       </c>
       <c r="O151" t="n">
         <v>9</v>
@@ -11509,7 +11509,7 @@
         <v>3</v>
       </c>
       <c r="F152" s="15" t="n">
-        <v>28328.42</v>
+        <v>30059.6</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
@@ -11530,10 +11530,10 @@
         <v>101.58</v>
       </c>
       <c r="M152" t="n">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="N152" t="n">
-        <v>6.95</v>
+        <v>6.55</v>
       </c>
       <c r="O152" t="n">
         <v>4</v>
@@ -11571,7 +11571,7 @@
         <v>6</v>
       </c>
       <c r="F153" s="27" t="n">
-        <v>29625</v>
+        <v>31435.41</v>
       </c>
       <c r="G153" s="21" t="n">
         <v>7</v>
@@ -11592,10 +11592,10 @@
         <v>46.175</v>
       </c>
       <c r="M153" s="21" t="n">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="N153" s="21" t="n">
-        <v>7.5</v>
+        <v>7.07</v>
       </c>
       <c r="O153" s="21" t="n">
         <v>5</v>
@@ -13006,7 +13006,7 @@
         <v>1738</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>28290.11</v>
+        <v>30018.94</v>
       </c>
       <c r="F3" t="n">
         <v>14.79</v>
@@ -13021,10 +13021,10 @@
         <v>1221.953</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="K3" t="n">
-        <v>7.62</v>
+        <v>7.18</v>
       </c>
       <c r="L3" s="15" t="n">
         <v>1146.18780570768</v>
@@ -13053,7 +13053,7 @@
         <v>1868</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>29951.48</v>
+        <v>31781.85</v>
       </c>
       <c r="F4" t="n">
         <v>13.7</v>
@@ -13068,10 +13068,10 @@
         <v>1449.288</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="K4" t="n">
-        <v>7.22</v>
+        <v>6.81</v>
       </c>
       <c r="L4" s="15" t="n">
         <v>1359.42727139135</v>
@@ -13100,7 +13100,7 @@
         <v>3028</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>31532.59</v>
+        <v>33459.58</v>
       </c>
       <c r="F5" t="n">
         <v>12.95</v>
@@ -13115,10 +13115,10 @@
         <v>1945.201</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>606</v>
+        <v>643</v>
       </c>
       <c r="K5" t="n">
-        <v>6.88</v>
+        <v>6.48</v>
       </c>
       <c r="L5" s="15" t="n">
         <v>1824.59199809681</v>
@@ -13147,7 +13147,7 @@
         <v>913</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>24802.94</v>
+        <v>26318.68</v>
       </c>
       <c r="F6" t="n">
         <v>15.27</v>
@@ -13162,10 +13162,10 @@
         <v>827.395</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="K6" t="n">
-        <v>10.22</v>
+        <v>9.63</v>
       </c>
       <c r="L6" s="15" t="n">
         <v>776.093728239553</v>
@@ -13194,7 +13194,7 @@
         <v>3234</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>25230.73</v>
+        <v>26772.61</v>
       </c>
       <c r="F7" t="n">
         <v>14.5</v>
@@ -13209,10 +13209,10 @@
         <v>1800.674</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="K7" t="n">
-        <v>8.52</v>
+        <v>8.03</v>
       </c>
       <c r="L7" s="15" t="n">
         <v>1689.02615800679</v>
@@ -13241,7 +13241,7 @@
         <v>2148</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>31379.71</v>
+        <v>33297.35</v>
       </c>
       <c r="F8" t="n">
         <v>12.12</v>
@@ -13256,10 +13256,10 @@
         <v>1814.324</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="K8" t="n">
-        <v>6.62</v>
+        <v>6.24</v>
       </c>
       <c r="L8" s="15" t="n">
         <v>1701.82981211453</v>
@@ -13288,7 +13288,7 @@
         <v>1668</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>27680.15</v>
+        <v>29371.71</v>
       </c>
       <c r="F9" t="n">
         <v>13.99</v>
@@ -13303,10 +13303,10 @@
         <v>1165.087</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="K9" t="n">
-        <v>6.66</v>
+        <v>6.28</v>
       </c>
       <c r="L9" s="15" t="n">
         <v>1092.84768889519</v>
@@ -13335,7 +13335,7 @@
         <v>2039</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>25702.93</v>
+        <v>27273.66</v>
       </c>
       <c r="F10" t="n">
         <v>14.03</v>
@@ -13350,10 +13350,10 @@
         <v>1458.396</v>
       </c>
       <c r="J10" s="15" t="n">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="K10" t="n">
-        <v>8.73</v>
+        <v>8.22</v>
       </c>
       <c r="L10" s="15" t="n">
         <v>1367.97054476961</v>
@@ -13382,7 +13382,7 @@
         <v>2349</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>25954.32</v>
+        <v>27540.41</v>
       </c>
       <c r="F11" t="n">
         <v>15.64</v>
@@ -13397,10 +13397,10 @@
         <v>1475.84</v>
       </c>
       <c r="J11" s="15" t="n">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="K11" t="n">
-        <v>8.39</v>
+        <v>7.91</v>
       </c>
       <c r="L11" s="15" t="n">
         <v>1384.33295812165</v>
@@ -22726,10 +22726,10 @@
         <v>61.2467514442553</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.13322169203038</v>
+        <v>0.12554925170918</v>
       </c>
       <c r="F3" s="32" t="n">
-        <v>23906.25</v>
+        <v>25367.18484375</v>
       </c>
       <c r="G3" s="24" t="n">
         <v>44.8109133837988</v>
@@ -22752,10 +22752,10 @@
         <v>55.0946466459562</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.130669173345027</v>
+        <v>0.123143736465862</v>
       </c>
       <c r="F4" s="32" t="n">
-        <v>21925</v>
+        <v>23264.858675</v>
       </c>
       <c r="G4" s="24" t="n">
         <v>38.1051754192419</v>
@@ -22778,10 +22778,10 @@
         <v>57.5993810584543</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.130489448810904</v>
+        <v>0.122974362541623</v>
       </c>
       <c r="F5" s="32" t="n">
-        <v>22953.3333333333</v>
+        <v>24356.0344866667</v>
       </c>
       <c r="G5" s="24" t="n">
         <v>107.99436691472</v>
@@ -22804,10 +22804,10 @@
         <v>55.1196084776357</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.128378531767808</v>
+        <v>0.120985016428826</v>
       </c>
       <c r="F6" s="32" t="n">
-        <v>22326.3157894737</v>
+        <v>23690.6992736842</v>
       </c>
       <c r="G6" s="24" t="n">
         <v>49.9473829730999</v>
@@ -22830,10 +22830,10 @@
         <v>59.6487176511444</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.121093883017382</v>
+        <v>0.114119901704329</v>
       </c>
       <c r="F7" s="32" t="n">
-        <v>25614.2857142857</v>
+        <v>27179.6003285714</v>
       </c>
       <c r="G7" s="24" t="n">
         <v>76.2375527409837</v>
@@ -22856,10 +22856,10 @@
         <v>56.0016843721193</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.119698256673232</v>
+        <v>0.112804651608769</v>
       </c>
       <c r="F8" s="32" t="n">
-        <v>24328.5714285714</v>
+        <v>25815.3147571429</v>
       </c>
       <c r="G8" s="24" t="n">
         <v>94.9871675365534</v>
@@ -22882,10 +22882,10 @@
         <v>47.9070258577864</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.118711715253986</v>
+        <v>0.111874926613696</v>
       </c>
       <c r="F9" s="32" t="n">
-        <v>20985</v>
+        <v>22267.414335</v>
       </c>
       <c r="G9" s="24" t="n">
         <v>38.9803262824299</v>
@@ -22908,10 +22908,10 @@
         <v>63.8900711679429</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.118200690750349</v>
+        <v>0.111393332790207</v>
       </c>
       <c r="F10" s="32" t="n">
-        <v>28107.1428571429</v>
+        <v>29824.7984642857</v>
       </c>
       <c r="G10" s="24" t="n">
         <v>95.9476760937931</v>
@@ -22934,10 +22934,10 @@
         <v>45.9332065891442</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.114154214841088</v>
+        <v>0.107579899596826</v>
       </c>
       <c r="F11" s="32" t="n">
-        <v>20923.6842105263</v>
+        <v>22202.3514763158</v>
       </c>
       <c r="G11" s="24" t="n">
         <v>84.5763428521756</v>
@@ -22960,10 +22960,10 @@
         <v>52.5291678321454</v>
       </c>
       <c r="E12" s="39" t="n">
-        <v>0.113405848376343</v>
+        <v>0.106874632697562</v>
       </c>
       <c r="F12" s="23" t="n">
-        <v>24086.2068965517</v>
+        <v>25558.1390862069</v>
       </c>
       <c r="G12" s="25" t="n">
         <v>81.4875199234742</v>
@@ -23071,10 +23071,10 @@
         <v>32.0456283709375</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0488867833795872</v>
+        <v>0.0460713190039376</v>
       </c>
       <c r="F3" s="32" t="n">
-        <v>34086.3636363636</v>
+        <v>36169.4154045455</v>
       </c>
       <c r="G3" s="24" t="n">
         <v>19.8686447846195</v>
@@ -23097,10 +23097,10 @@
         <v>27.4219528922606</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0489334498165048</v>
+        <v>0.0461152978496169</v>
       </c>
       <c r="F4" s="32" t="n">
-        <v>29140.4255319149</v>
+        <v>30921.2260765957</v>
       </c>
       <c r="G4" s="24" t="n">
         <v>41.6301667845803</v>
@@ -23123,10 +23123,10 @@
         <v>34.4052847919919</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0505845625758759</v>
+        <v>0.0476713205082935</v>
       </c>
       <c r="F5" s="32" t="n">
-        <v>35368</v>
+        <v>37529.373848</v>
       </c>
       <c r="G5" s="24" t="n">
         <v>36.1794683215729</v>
@@ -23149,10 +23149,10 @@
         <v>42.7637835002477</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.054871242427096</v>
+        <v>0.0517111239324595</v>
       </c>
       <c r="F6" s="32" t="n">
-        <v>40526.0869565217</v>
+        <v>43002.6766565217</v>
       </c>
       <c r="G6" s="24" t="n">
         <v>25.3887549988337</v>
@@ -23175,10 +23175,10 @@
         <v>31.5482018527755</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.0549276728686717</v>
+        <v>0.0517643044588848</v>
       </c>
       <c r="F7" s="32" t="n">
-        <v>29866.6666666667</v>
+        <v>31691.8485333333</v>
       </c>
       <c r="G7" s="24" t="n">
         <v>31.5195010243399</v>
@@ -23201,10 +23201,10 @@
         <v>31.5240701134912</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0549439130518365</v>
+        <v>0.0517796093451453</v>
       </c>
       <c r="F8" s="32" t="n">
-        <v>29835</v>
+        <v>31658.246685</v>
       </c>
       <c r="G8" s="24" t="n">
         <v>21.9294233981502</v>
@@ -23227,10 +23227,10 @@
         <v>39.0688448863106</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0566198083468376</v>
+        <v>0.0533589872754478</v>
       </c>
       <c r="F9" s="32" t="n">
-        <v>35881.0810810811</v>
+        <v>38073.809827027</v>
       </c>
       <c r="G9" s="24" t="n">
         <v>68.054470071688</v>
@@ -23253,10 +23253,10 @@
         <v>32.7325373950093</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0569319219236124</v>
+        <v>0.0536531257555642</v>
       </c>
       <c r="F10" s="32" t="n">
-        <v>29896.9696969697</v>
+        <v>31724.0034121212</v>
       </c>
       <c r="G10" s="24" t="n">
         <v>67.2271570370343</v>
@@ -23279,10 +23279,10 @@
         <v>35.7458937872833</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.057206002807523</v>
+        <v>0.0539114219035737</v>
       </c>
       <c r="F11" s="32" t="n">
-        <v>32492.8571428571</v>
+        <v>34478.5281357143</v>
       </c>
       <c r="G11" s="24" t="n">
         <v>45.7132661494868</v>
@@ -23305,10 +23305,10 @@
         <v>33.825574681728</v>
       </c>
       <c r="E12" s="39" t="n">
-        <v>0.057294133011396</v>
+        <v>0.053994476554664</v>
       </c>
       <c r="F12" s="23" t="n">
-        <v>30700</v>
+        <v>32576.1077</v>
       </c>
       <c r="G12" s="25" t="n">
         <v>65.0791447361761</v>
